--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="G2" t="n">
         <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I2" t="n">
         <v>2.58</v>
@@ -682,97 +682,97 @@
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.05</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="U2" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="V2" t="n">
         <v>1.63</v>
       </c>
       <c r="W2" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>960</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH2" t="n">
         <v>16</v>
       </c>
-      <c r="Z2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="n">
+      <c r="AI2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO2" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="I3" t="n">
         <v>2.04</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,37 +826,37 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.05</v>
+        <v>5.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
         <v>2.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="S3" t="n">
-        <v>1.15</v>
+        <v>2.06</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="V3" t="n">
         <v>1.96</v>
       </c>
       <c r="W3" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -865,19 +865,19 @@
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -937,109 +937,109 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G4" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
         <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>2.1</v>
+        <v>3.85</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
         <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>70</v>
       </c>
       <c r="AF4" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G6" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
         <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1303,7 +1303,7 @@
         <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1357,7 +1357,7 @@
         <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="I8" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="J8" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1504,22 +1504,22 @@
         <v>5.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
         <v>2.52</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U8" t="n">
         <v>2.2</v>
@@ -1534,19 +1534,19 @@
         <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
         <v>11.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AB8" t="n">
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD8" t="n">
         <v>10</v>
@@ -1558,7 +1558,7 @@
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H9" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -1636,7 +1636,7 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.21</v>
@@ -1645,19 +1645,19 @@
         <v>2.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="R9" t="n">
         <v>1.58</v>
       </c>
       <c r="S9" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U9" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>17.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
         <v>55</v>
@@ -1681,13 +1681,13 @@
         <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
         <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
         <v>18.5</v>
@@ -1711,7 +1711,7 @@
         <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="AN9" t="n">
         <v>14</v>
@@ -1750,10 +1750,10 @@
         <v>1.93</v>
       </c>
       <c r="G10" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
         <v>4.5</v>
@@ -1762,7 +1762,7 @@
         <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="I11" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G12" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H12" t="n">
         <v>5.7</v>
@@ -2032,7 +2032,7 @@
         <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2158,16 +2158,16 @@
         <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J13" t="n">
         <v>3.8</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>2.26</v>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
         <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2311,28 +2311,28 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U14" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
         <v>15.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA14" t="n">
         <v>70</v>
@@ -2356,13 +2356,13 @@
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF14" t="n">
         <v>16.5</v>
@@ -2374,13 +2374,13 @@
         <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="G15" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="Q15" t="n">
         <v>2.28</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G16" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
-        <v>1.07</v>
+        <v>5.6</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="K16" t="n">
-        <v>950</v>
+        <v>5.3</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G17" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="I17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K17" t="n">
         <v>6.2</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q17" t="n">
         <v>1.53</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G18" t="n">
         <v>5.2</v>
       </c>
       <c r="H18" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J18" t="n">
         <v>3.8</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -2977,7 +2977,7 @@
         <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3100,13 +3100,13 @@
         <v>2.28</v>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J20" t="n">
         <v>3.8</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G21" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H21" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="I21" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G22" t="n">
         <v>1.92</v>
       </c>
       <c r="H22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J22" t="n">
         <v>3.9</v>
       </c>
       <c r="K22" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="G23" t="n">
         <v>4.3</v>
@@ -3511,10 +3511,10 @@
         <v>2.04</v>
       </c>
       <c r="I23" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
         <v>3.8</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H24" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I24" t="n">
         <v>2.2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.26</v>
       </c>
       <c r="J24" t="n">
         <v>3.7</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G25" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H25" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K25" t="n">
         <v>4.1</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3907,28 +3907,28 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="G26" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H26" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="J26" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>2.28</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U26" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3961,55 +3961,55 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z26" t="n">
         <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG26" t="n">
         <v>10.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="G27" t="n">
         <v>1.42</v>
@@ -4051,40 +4051,40 @@
         <v>9</v>
       </c>
       <c r="I27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J27" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="K27" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>1.06</v>
+        <v>5.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P27" t="n">
         <v>2.46</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="R27" t="n">
-        <v>1.23</v>
+        <v>1.59</v>
       </c>
       <c r="S27" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="T27" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U27" t="n">
         <v>1.96</v>
@@ -4096,55 +4096,55 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA27" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD27" t="n">
         <v>1000</v>
       </c>
-      <c r="AB27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>44</v>
-      </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G28" t="n">
         <v>1.99</v>
@@ -4192,7 +4192,7 @@
         <v>3.8</v>
       </c>
       <c r="K28" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4237,19 +4237,19 @@
         <v>17</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB28" t="n">
         <v>10.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
         <v>55</v>
@@ -4270,7 +4270,7 @@
         <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
         <v>36</v>
@@ -4282,7 +4282,7 @@
         <v>13</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="I29" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K29" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G30" t="n">
         <v>1.6</v>
@@ -4456,10 +4456,10 @@
         <v>6.2</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K30" t="n">
         <v>4.7</v>
@@ -4480,7 +4480,7 @@
         <v>2.08</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>1.89</v>
       </c>
       <c r="U30" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4504,10 +4504,10 @@
         <v>18</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA30" t="n">
         <v>230</v>
@@ -4519,7 +4519,7 @@
         <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
@@ -4531,7 +4531,7 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4540,10 +4540,10 @@
         <v>15.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM30" t="n">
         <v>150</v>
@@ -4588,7 +4588,7 @@
         <v>1.39</v>
       </c>
       <c r="H31" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
         <v>11</v>
@@ -4597,7 +4597,7 @@
         <v>5.7</v>
       </c>
       <c r="K31" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>1.24</v>
       </c>
       <c r="G32" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H32" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="I32" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="K32" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G34" t="n">
         <v>4.6</v>
@@ -4996,13 +4996,13 @@
         <v>1.96</v>
       </c>
       <c r="I34" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J34" t="n">
         <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="G35" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="H35" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J35" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K35" t="n">
         <v>3.95</v>
@@ -5263,7 +5263,7 @@
         <v>1.23</v>
       </c>
       <c r="H36" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I36" t="n">
         <v>28</v>
@@ -5272,7 +5272,7 @@
         <v>7.4</v>
       </c>
       <c r="K36" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>2.52</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="R36" t="n">
         <v>1.61</v>
@@ -5299,10 +5299,10 @@
         <v>2.14</v>
       </c>
       <c r="T36" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="U36" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>7</v>
+        <v>1.09</v>
       </c>
       <c r="G37" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="H37" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="I37" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="J37" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="K37" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q37" t="n">
         <v>1.49</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5668,16 +5668,16 @@
         <v>1.61</v>
       </c>
       <c r="H39" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J39" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K39" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5686,28 +5686,28 @@
         <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O39" t="n">
         <v>1.23</v>
       </c>
       <c r="P39" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="R39" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S39" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T39" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U39" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -5716,28 +5716,28 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z39" t="n">
         <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB39" t="n">
         <v>10.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE39" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF39" t="n">
         <v>11</v>
@@ -5746,10 +5746,10 @@
         <v>10.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
         <v>15.5</v>
@@ -5758,13 +5758,13 @@
         <v>16.5</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM39" t="n">
         <v>120</v>
       </c>
       <c r="AN39" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G40" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H40" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="I40" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="J40" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K40" t="n">
         <v>3.5</v>
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="H41" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="I41" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="J41" t="n">
         <v>3.55</v>
@@ -5953,31 +5953,31 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="O41" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P41" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="R41" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="S41" t="n">
-        <v>2.46</v>
+        <v>3.4</v>
       </c>
       <c r="T41" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="U41" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -5986,19 +5986,19 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z41" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB41" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC41" t="n">
         <v>8</v>
@@ -6013,31 +6013,31 @@
         <v>22</v>
       </c>
       <c r="AG41" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI41" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AJ41" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AL41" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AM41" t="n">
         <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO41" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H2" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="I2" t="n">
         <v>2.58</v>
@@ -682,10 +682,10 @@
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -703,16 +703,16 @@
         <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U2" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V2" t="n">
         <v>1.63</v>
@@ -721,58 +721,58 @@
         <v>1.48</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
         <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>960</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AK2" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="G3" t="n">
         <v>4.1</v>
@@ -811,46 +811,46 @@
         <v>1.91</v>
       </c>
       <c r="I3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J3" t="n">
         <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
         <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="V3" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W3" t="n">
         <v>1.32</v>
@@ -859,37 +859,37 @@
         <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="4">
@@ -940,25 +940,25 @@
         <v>1.84</v>
       </c>
       <c r="G4" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H4" t="n">
         <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
         <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>3.85</v>
@@ -970,19 +970,19 @@
         <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="U4" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
         <v>1.27</v>
@@ -991,55 +991,55 @@
         <v>2.06</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI4" t="n">
         <v>1000</v>
       </c>
-      <c r="AA4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G6" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I6" t="n">
         <v>6.2</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1264,46 +1264,46 @@
         <v>28</v>
       </c>
       <c r="Y6" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z6" t="n">
         <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>55</v>
       </c>
       <c r="AA6" t="n">
         <v>160</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
         <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AK6" t="n">
         <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>6.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1345,19 +1345,19 @@
         <v>3.05</v>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1486,10 +1486,10 @@
         <v>1.52</v>
       </c>
       <c r="I8" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K8" t="n">
         <v>5.3</v>
@@ -1507,16 +1507,16 @@
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R8" t="n">
         <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
         <v>1.71</v>
@@ -1531,40 +1531,40 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
         <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF8" t="n">
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
         <v>190</v>
@@ -1636,28 +1636,28 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S9" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T9" t="n">
         <v>1.57</v>
       </c>
       <c r="U9" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1669,19 +1669,19 @@
         <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z9" t="n">
         <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="AB9" t="n">
         <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
         <v>15</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -1756,7 +1756,7 @@
         <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
         <v>3.75</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>5.7</v>
       </c>
       <c r="G11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H11" t="n">
         <v>1.71</v>
@@ -1897,7 +1897,7 @@
         <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G12" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H12" t="n">
         <v>5.7</v>
       </c>
       <c r="I12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.26</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.28</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J14" t="n">
         <v>3.65</v>
@@ -2311,16 +2311,16 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R14" t="n">
         <v>1.46</v>
@@ -2332,7 +2332,7 @@
         <v>1.67</v>
       </c>
       <c r="U14" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,16 +2341,16 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
         <v>15.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
         <v>12</v>
@@ -2365,7 +2365,7 @@
         <v>42</v>
       </c>
       <c r="AF14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
@@ -2374,13 +2374,13 @@
         <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>1.57</v>
       </c>
       <c r="H16" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="I16" t="n">
         <v>6.8</v>
       </c>
       <c r="J16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K16" t="n">
         <v>5.3</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2695,19 +2695,19 @@
         <v>1.32</v>
       </c>
       <c r="G17" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
         <v>7.6</v>
       </c>
       <c r="I17" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J17" t="n">
         <v>5.3</v>
       </c>
       <c r="K17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>2.32</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2830,16 +2830,16 @@
         <v>4.5</v>
       </c>
       <c r="G18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="I18" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J18" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K18" t="n">
         <v>4.4</v>
@@ -2860,7 +2860,7 @@
         <v>2.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3103,16 +3103,16 @@
         <v>2.34</v>
       </c>
       <c r="H20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
         <v>3.25</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G21" t="n">
         <v>4.1</v>
       </c>
       <c r="H21" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I21" t="n">
         <v>2.12</v>
@@ -3265,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G22" t="n">
         <v>1.92</v>
@@ -3379,7 +3379,7 @@
         <v>4.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
         <v>4.2</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="Q22" t="n">
         <v>1.79</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G23" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H23" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="I23" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="J23" t="n">
         <v>3.7</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3646,10 +3646,10 @@
         <v>2.18</v>
       </c>
       <c r="I24" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
         <v>3.85</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G25" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H25" t="n">
         <v>4.5</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G26" t="n">
         <v>1.64</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3961,31 +3961,31 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA26" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
         <v>10.5</v>
@@ -3997,19 +3997,19 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AK26" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN26" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4048,16 +4048,16 @@
         <v>1.42</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I27" t="n">
         <v>10.5</v>
       </c>
       <c r="J27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K27" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4069,25 +4069,25 @@
         <v>5.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P27" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="Q27" t="n">
         <v>1.6</v>
       </c>
       <c r="R27" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S27" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="U27" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4099,19 +4099,19 @@
         <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z27" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AA27" t="n">
         <v>360</v>
       </c>
       <c r="AB27" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4120,7 +4120,7 @@
         <v>160</v>
       </c>
       <c r="AF27" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
@@ -4132,19 +4132,19 @@
         <v>130</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK27" t="n">
         <v>15</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM27" t="n">
         <v>140</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G28" t="n">
         <v>1.99</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q28" t="n">
         <v>1.83</v>
@@ -4222,7 +4222,7 @@
         <v>1.72</v>
       </c>
       <c r="U28" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4231,28 +4231,28 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y28" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
         <v>18</v>
       </c>
       <c r="AE28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
         <v>13.5</v>
@@ -4264,25 +4264,25 @@
         <v>18.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL28" t="n">
         <v>36</v>
       </c>
       <c r="AM28" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN28" t="n">
         <v>13</v>
       </c>
       <c r="AO28" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4318,10 +4318,10 @@
         <v>3.2</v>
       </c>
       <c r="H29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I29" t="n">
         <v>2.52</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.56</v>
       </c>
       <c r="J29" t="n">
         <v>3.45</v>
@@ -4462,7 +4462,7 @@
         <v>4.4</v>
       </c>
       <c r="K30" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4480,7 +4480,7 @@
         <v>2.08</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U30" t="n">
         <v>1.98</v>
@@ -4504,10 +4504,10 @@
         <v>18</v>
       </c>
       <c r="Y30" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
         <v>230</v>
@@ -4588,7 +4588,7 @@
         <v>1.39</v>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I31" t="n">
         <v>11</v>
@@ -4597,7 +4597,7 @@
         <v>5.7</v>
       </c>
       <c r="K31" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>2.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>1.24</v>
       </c>
       <c r="G32" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H32" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="J32" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="K32" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.56</v>
+        <v>2.22</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.07</v>
+        <v>2.72</v>
       </c>
       <c r="G33" t="n">
         <v>1000</v>
       </c>
       <c r="H33" t="n">
-        <v>1.07</v>
+        <v>1.48</v>
       </c>
       <c r="I33" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="J33" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="K33" t="n">
         <v>950</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G34" t="n">
         <v>4.2</v>
       </c>
-      <c r="G34" t="n">
-        <v>4.6</v>
-      </c>
       <c r="H34" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="I34" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K34" t="n">
         <v>3.85</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="G35" t="n">
         <v>2.06</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I35" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J35" t="n">
         <v>3.55</v>
       </c>
       <c r="K35" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5263,13 +5263,13 @@
         <v>1.23</v>
       </c>
       <c r="H36" t="n">
-        <v>13.5</v>
+        <v>1.09</v>
       </c>
       <c r="I36" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J36" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="K36" t="n">
         <v>8.800000000000001</v>
@@ -5281,22 +5281,22 @@
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>5.5</v>
+        <v>1.06</v>
       </c>
       <c r="O36" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P36" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="Q36" t="n">
         <v>1.55</v>
       </c>
       <c r="R36" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S36" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="T36" t="n">
         <v>2.34</v>
@@ -5314,7 +5314,7 @@
         <v>36</v>
       </c>
       <c r="Y36" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
@@ -5323,10 +5323,10 @@
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
         <v>90</v>
@@ -5341,25 +5341,25 @@
         <v>16</v>
       </c>
       <c r="AH36" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="G37" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="H37" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="I37" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K37" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5542,7 +5542,7 @@
         <v>3.5</v>
       </c>
       <c r="K38" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5560,7 +5560,7 @@
         <v>1.89</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5662,19 +5662,19 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G39" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I39" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K39" t="n">
         <v>4.7</v>
@@ -5686,7 +5686,7 @@
         <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O39" t="n">
         <v>1.23</v>
@@ -5695,7 +5695,7 @@
         <v>2.3</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R39" t="n">
         <v>1.53</v>
@@ -5704,10 +5704,10 @@
         <v>2.72</v>
       </c>
       <c r="T39" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="U39" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -5722,25 +5722,25 @@
         <v>26</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AA39" t="n">
         <v>200</v>
       </c>
       <c r="AB39" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC39" t="n">
         <v>10.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE39" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF39" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG39" t="n">
         <v>10.5</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="G40" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H40" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="I40" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="J40" t="n">
         <v>3.3</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5938,10 +5938,10 @@
         <v>2.76</v>
       </c>
       <c r="H41" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I41" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J41" t="n">
         <v>3.55</v>
@@ -5956,7 +5956,7 @@
         <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="O41" t="n">
         <v>1.32</v>
@@ -5965,10 +5965,10 @@
         <v>1.94</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R41" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S41" t="n">
         <v>3.4</v>
@@ -5977,7 +5977,7 @@
         <v>1.74</v>
       </c>
       <c r="U41" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -6007,10 +6007,10 @@
         <v>13.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AG41" t="n">
         <v>13</v>
@@ -6028,13 +6028,13 @@
         <v>50</v>
       </c>
       <c r="AL41" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
         <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AO41" t="n">
         <v>40</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="G2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="I2" t="n">
         <v>2.58</v>
@@ -685,10 +685,10 @@
         <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>4.7</v>
@@ -697,55 +697,55 @@
         <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
         <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T2" t="n">
         <v>1.59</v>
       </c>
       <c r="U2" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V2" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W2" t="n">
         <v>1.48</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>42</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
         <v>29</v>
       </c>
       <c r="AF2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG2" t="n">
         <v>16</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
         <v>18.5</v>
@@ -808,19 +808,19 @@
         <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="I3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -829,28 +829,28 @@
         <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P3" t="n">
         <v>2.56</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="U3" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>1.32</v>
@@ -859,55 +859,55 @@
         <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>27</v>
       </c>
       <c r="AC3" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -940,16 +940,16 @@
         <v>1.84</v>
       </c>
       <c r="G4" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H4" t="n">
         <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K4" t="n">
         <v>4.3</v>
@@ -961,28 +961,28 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="V4" t="n">
         <v>1.27</v>
@@ -991,64 +991,64 @@
         <v>2.06</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="n">
         <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Dziugas</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>2.68</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>2.92</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>2.66</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>2.96</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.89</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="G6" t="n">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>5.6</v>
+        <v>2.68</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>2.76</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>2.6</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X6" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19.5</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.4</v>
+        <v>46</v>
       </c>
       <c r="AO6" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>FC Dziugas</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>2.3</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>2.46</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.12</v>
+        <v>1.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.21</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I8" t="n">
         <v>6.2</v>
       </c>
-      <c r="G8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.55</v>
-      </c>
       <c r="J8" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="K8" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W8" t="n">
         <v>2.56</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y8" t="n">
         <v>32</v>
       </c>
-      <c r="Y8" t="n">
-        <v>14</v>
-      </c>
       <c r="Z8" t="n">
-        <v>13.5</v>
+        <v>65</v>
       </c>
       <c r="AA8" t="n">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AE8" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>2.48</v>
+        <v>3.35</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>2.32</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>2.42</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>2.52</v>
+        <v>2.96</v>
       </c>
       <c r="T9" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>2.64</v>
+        <v>2.28</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
         <v>15</v>
       </c>
-      <c r="AC9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH9" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AM9" t="n">
-        <v>420</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.97</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>1.52</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4</v>
+        <v>1.56</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>2.56</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>6.2</v>
+        <v>2.48</v>
       </c>
       <c r="H11" t="n">
-        <v>1.71</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.74</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>1.88</v>
+        <v>2.42</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.96</v>
+        <v>1.64</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.58</v>
+        <v>1.98</v>
       </c>
       <c r="G12" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>5.7</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>6.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>1.67</v>
       </c>
       <c r="I13" t="n">
-        <v>3.95</v>
+        <v>1.69</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.22</v>
+        <v>1.61</v>
       </c>
       <c r="G14" t="n">
-        <v>2.26</v>
+        <v>1.65</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="I14" t="n">
-        <v>3.55</v>
+        <v>6.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="R14" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="S14" t="n">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="T14" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>1.96</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="X14" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AF14" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>15.5</v>
+        <v>8.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U15" t="n">
         <v>2.24</v>
       </c>
-      <c r="G15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.54</v>
+        <v>2.24</v>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>2.26</v>
       </c>
       <c r="H16" t="n">
-        <v>6.2</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>6.8</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="I17" t="n">
-        <v>14</v>
+        <v>6.8</v>
       </c>
       <c r="J17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K17" t="n">
         <v>5.3</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="X17" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>960</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>960</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>960</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN17" t="n">
         <v>6.4</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>2.26</v>
       </c>
       <c r="G18" t="n">
-        <v>5.3</v>
+        <v>2.38</v>
       </c>
       <c r="H18" t="n">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.9</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
-        <v>2.08</v>
+        <v>1.69</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.74</v>
+        <v>2.28</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.65</v>
+        <v>1.32</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.08</v>
+        <v>8.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.2</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W19" t="n">
         <v>3.5</v>
       </c>
-      <c r="K19" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.28</v>
+        <v>4.5</v>
       </c>
       <c r="G20" t="n">
-        <v>2.34</v>
+        <v>5.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>1.81</v>
       </c>
       <c r="I20" t="n">
-        <v>3.25</v>
+        <v>1.89</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V20" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="G21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="I21" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.81</v>
+        <v>2.32</v>
       </c>
       <c r="G22" t="n">
-        <v>1.92</v>
+        <v>2.34</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>1.89</v>
+        <v>2.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.79</v>
+        <v>1.61</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G23" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="I23" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.5</v>
+        <v>1.81</v>
       </c>
       <c r="G24" t="n">
-        <v>3.6</v>
+        <v>1.92</v>
       </c>
       <c r="H24" t="n">
-        <v>2.18</v>
+        <v>4.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.22</v>
+        <v>4.9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K24" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P24" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.86</v>
+        <v>3.6</v>
       </c>
       <c r="G25" t="n">
-        <v>1.87</v>
+        <v>4.6</v>
       </c>
       <c r="H25" t="n">
-        <v>4.5</v>
+        <v>1.96</v>
       </c>
       <c r="I25" t="n">
-        <v>4.8</v>
+        <v>2.14</v>
       </c>
       <c r="J25" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,123 +3893,123 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.58</v>
+        <v>8.6</v>
       </c>
       <c r="G26" t="n">
-        <v>1.64</v>
+        <v>17</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>1.28</v>
       </c>
       <c r="I26" t="n">
-        <v>6.6</v>
+        <v>1.34</v>
       </c>
       <c r="J26" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="K26" t="n">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T26" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X26" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4033,61 +4033,61 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="G27" t="n">
-        <v>1.42</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
-        <v>8.199999999999999</v>
+        <v>2.18</v>
       </c>
       <c r="I27" t="n">
-        <v>10.5</v>
+        <v>2.22</v>
       </c>
       <c r="J27" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>5.8</v>
+        <v>3.85</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="R27" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4096,58 +4096,58 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AM27" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4168,37 +4168,37 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="G28" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="H28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K28" t="n">
         <v>4.1</v>
       </c>
-      <c r="I28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4219,10 +4219,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4231,58 +4231,58 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN28" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4303,37 +4303,37 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.1</v>
+        <v>1.59</v>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>1.63</v>
       </c>
       <c r="H29" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>2.52</v>
+        <v>6.6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4354,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4366,58 +4366,58 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4438,61 +4438,61 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="G30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R30" t="n">
         <v>1.6</v>
       </c>
-      <c r="H30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T30" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="U30" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4501,55 +4501,55 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="Y30" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA30" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="AB30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AD30" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF30" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN30" t="n">
-        <v>8.800000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.37</v>
+        <v>1.96</v>
       </c>
       <c r="G31" t="n">
-        <v>1.39</v>
+        <v>1.99</v>
       </c>
       <c r="H31" t="n">
-        <v>9.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="I31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG31" t="n">
         <v>11</v>
       </c>
-      <c r="J31" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K31" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,31 +4708,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.24</v>
+        <v>3.1</v>
       </c>
       <c r="G32" t="n">
-        <v>1.28</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>8.800000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="I32" t="n">
-        <v>17.5</v>
+        <v>2.56</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>3.45</v>
       </c>
       <c r="K32" t="n">
-        <v>8</v>
+        <v>3.55</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.22</v>
+        <v>1.87</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.55</v>
+        <v>2.02</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,37 +4843,37 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.72</v>
+        <v>1.59</v>
       </c>
       <c r="G33" t="n">
-        <v>1000</v>
+        <v>1.61</v>
       </c>
       <c r="H33" t="n">
-        <v>1.48</v>
+        <v>6.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1.58</v>
+        <v>6.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K33" t="n">
-        <v>950</v>
+        <v>4.6</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4894,10 +4894,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -4906,58 +4906,58 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4978,31 +4978,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.65</v>
+        <v>1.37</v>
       </c>
       <c r="G34" t="n">
-        <v>4.2</v>
+        <v>1.39</v>
       </c>
       <c r="H34" t="n">
-        <v>2.08</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>2.18</v>
+        <v>11</v>
       </c>
       <c r="J34" t="n">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="K34" t="n">
-        <v>3.85</v>
+        <v>6.2</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5248,61 +5248,61 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.18</v>
+        <v>5</v>
       </c>
       <c r="G36" t="n">
-        <v>1.23</v>
+        <v>1000</v>
       </c>
       <c r="H36" t="n">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="I36" t="n">
-        <v>30</v>
+        <v>1.55</v>
       </c>
       <c r="J36" t="n">
-        <v>6.8</v>
+        <v>3.9</v>
       </c>
       <c r="K36" t="n">
-        <v>8.800000000000001</v>
+        <v>950</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="R36" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5311,58 +5311,58 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5383,31 +5383,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.16</v>
+        <v>3.65</v>
       </c>
       <c r="G37" t="n">
-        <v>27</v>
+        <v>4.2</v>
       </c>
       <c r="H37" t="n">
-        <v>1.24</v>
+        <v>2.1</v>
       </c>
       <c r="I37" t="n">
-        <v>1.31</v>
+        <v>2.16</v>
       </c>
       <c r="J37" t="n">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="K37" t="n">
-        <v>7.6</v>
+        <v>3.85</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.4</v>
+        <v>1.86</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.5</v>
+        <v>1.96</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5518,31 +5518,31 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1.24</v>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>1.28</v>
       </c>
       <c r="H38" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="I38" t="n">
-        <v>4.3</v>
+        <v>17.5</v>
       </c>
       <c r="J38" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="K38" t="n">
-        <v>3.95</v>
+        <v>8</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.89</v>
+        <v>2.28</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,62 +5653,62 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="G39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I39" t="n">
+        <v>32</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K39" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U39" t="n">
         <v>1.6</v>
       </c>
-      <c r="H39" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I39" t="n">
-        <v>7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N39" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2.14</v>
-      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
@@ -5716,55 +5716,55 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="Y39" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AK39" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5788,31 +5788,31 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.86</v>
+        <v>1.24</v>
       </c>
       <c r="G40" t="n">
-        <v>3.05</v>
+        <v>27</v>
       </c>
       <c r="H40" t="n">
-        <v>2.62</v>
+        <v>1.24</v>
       </c>
       <c r="I40" t="n">
-        <v>2.78</v>
+        <v>1.31</v>
       </c>
       <c r="J40" t="n">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="K40" t="n">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.96</v>
+        <v>1.48</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5908,136 +5908,541 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Dynamo Kiev</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>UEFA Europa League</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>2025-10-23</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>330</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Rakow Czestochowa</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Nottm Forest</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Porto</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="F44" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G44" t="n">
         <v>2.72</v>
       </c>
-      <c r="G41" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="H44" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K44" t="n">
         <v>3.6</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>1.07</v>
       </c>
-      <c r="N41" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y41" t="n">
+      <c r="N44" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y44" t="n">
         <v>12</v>
       </c>
-      <c r="Z41" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA41" t="n">
+      <c r="Z44" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA44" t="n">
         <v>55</v>
       </c>
-      <c r="AB41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG41" t="n">
+      <c r="AB44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD44" t="n">
         <v>13</v>
       </c>
-      <c r="AH41" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI41" t="n">
+      <c r="AE44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI44" t="n">
         <v>55</v>
       </c>
-      <c r="AJ41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>40</v>
+      <c r="AJ44" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H2" t="n">
         <v>2.42</v>
@@ -706,7 +706,7 @@
         <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.38</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
         <v>1.59</v>
@@ -721,13 +721,13 @@
         <v>1.48</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
         <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
         <v>42</v>
@@ -739,13 +739,13 @@
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG2" t="n">
         <v>16</v>
@@ -760,19 +760,19 @@
         <v>55</v>
       </c>
       <c r="AK2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -811,7 +811,7 @@
         <v>1.94</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -850,7 +850,7 @@
         <v>2.68</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W3" t="n">
         <v>1.32</v>
@@ -940,19 +940,19 @@
         <v>1.84</v>
       </c>
       <c r="G4" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H4" t="n">
         <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.37</v>
@@ -979,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
         <v>2.14</v>
@@ -991,22 +991,22 @@
         <v>2.06</v>
       </c>
       <c r="X4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y4" t="n">
         <v>21</v>
       </c>
-      <c r="Y4" t="n">
-        <v>22</v>
-      </c>
       <c r="Z4" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA4" t="n">
         <v>120</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>22</v>
@@ -1018,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
         <v>22</v>
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>40</v>
@@ -1093,7 +1093,7 @@
         <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>3.2</v>
@@ -1225,7 +1225,7 @@
         <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1246,10 +1246,10 @@
         <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
         <v>1.94</v>
@@ -1264,7 +1264,7 @@
         <v>11.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
         <v>19.5</v>
@@ -1276,16 +1276,16 @@
         <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
         <v>46</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AG6" t="n">
         <v>13.5</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,31 +1333,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>TPS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FC Dziugas</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="H7" t="n">
         <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>2.84</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.29</v>
+        <v>1.64</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.21</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>1.21</v>
+        <v>3.1</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,123 +1463,123 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>FC Dziugas</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.61</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>1.64</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>5.6</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>4.6</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P8" t="n">
         <v>1.28</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.18</v>
       </c>
-      <c r="P8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.65</v>
-      </c>
       <c r="S8" t="n">
-        <v>2.34</v>
+        <v>1.21</v>
       </c>
       <c r="T8" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>1.62</v>
       </c>
       <c r="G9" t="n">
-        <v>3.35</v>
+        <v>1.65</v>
       </c>
       <c r="H9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S9" t="n">
         <v>2.32</v>
       </c>
-      <c r="I9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.96</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U9" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="W9" t="n">
-        <v>1.42</v>
+        <v>2.52</v>
       </c>
       <c r="X9" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>17</v>
       </c>
-      <c r="AA9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>65</v>
-      </c>
       <c r="AK9" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>30</v>
+        <v>6.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="G10" t="n">
-        <v>6.8</v>
+        <v>3.35</v>
       </c>
       <c r="H10" t="n">
-        <v>1.52</v>
+        <v>2.32</v>
       </c>
       <c r="I10" t="n">
-        <v>1.56</v>
+        <v>2.42</v>
       </c>
       <c r="J10" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.56</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.58</v>
+        <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>2.4</v>
+        <v>2.98</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>2.78</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>14</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN10" t="n">
         <v>30</v>
       </c>
-      <c r="AH10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO10" t="n">
-        <v>6.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="G11" t="n">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.42</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="S11" t="n">
-        <v>2.54</v>
+        <v>2.94</v>
       </c>
       <c r="T11" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>2.64</v>
+        <v>2.36</v>
       </c>
       <c r="V11" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="W11" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA11" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AB11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD11" t="n">
         <v>15</v>
       </c>
-      <c r="AC11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF11" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>18</v>
-      </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AK11" t="n">
         <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>2.96</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>3.25</v>
+        <v>2.52</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.64</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE12" t="n">
         <v>30</v>
       </c>
-      <c r="AA12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD12" t="n">
+      <c r="AF12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>17</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.7</v>
+        <v>1.97</v>
       </c>
       <c r="G13" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.67</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.69</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W13" t="n">
         <v>2</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.19</v>
-      </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.4</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
-        <v>16.5</v>
+        <v>90</v>
       </c>
       <c r="AB13" t="n">
-        <v>19.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AF13" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM13" t="n">
         <v>100</v>
       </c>
-      <c r="AL13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>160</v>
-      </c>
       <c r="AN13" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.61</v>
+        <v>5.7</v>
       </c>
       <c r="G14" t="n">
-        <v>1.65</v>
+        <v>6.2</v>
       </c>
       <c r="H14" t="n">
-        <v>5.8</v>
+        <v>1.68</v>
       </c>
       <c r="I14" t="n">
-        <v>6.2</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.34</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.25</v>
-      </c>
       <c r="P14" t="n">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="S14" t="n">
-        <v>2.76</v>
+        <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="U14" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.19</v>
       </c>
-      <c r="W14" t="n">
-        <v>2.52</v>
-      </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Z14" t="n">
-        <v>55</v>
+        <v>9.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>180</v>
+        <v>16.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.6</v>
+        <v>19.5</v>
       </c>
       <c r="AC14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
         <v>10</v>
       </c>
-      <c r="AD14" t="n">
-        <v>26</v>
-      </c>
       <c r="AE14" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="AF14" t="n">
-        <v>11.5</v>
+        <v>46</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AH14" t="n">
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17.5</v>
+        <v>190</v>
       </c>
       <c r="AK14" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AM14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN14" t="n">
         <v>120</v>
       </c>
-      <c r="AN14" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AO14" t="n">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.06</v>
+        <v>1.61</v>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="I15" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>2.24</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="W15" t="n">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Z15" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AA15" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE15" t="n">
         <v>85</v>
       </c>
-      <c r="AB15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>46</v>
-      </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>17.5</v>
       </c>
-      <c r="AI15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>25</v>
-      </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AO15" t="n">
         <v>85</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="G16" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R16" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="V16" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="W16" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="X16" t="n">
         <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA16" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AO16" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.54</v>
+        <v>6.2</v>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>6.8</v>
       </c>
       <c r="H17" t="n">
-        <v>6.2</v>
+        <v>1.53</v>
       </c>
       <c r="I17" t="n">
-        <v>6.8</v>
+        <v>1.56</v>
       </c>
       <c r="J17" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K17" t="n">
         <v>5.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="R17" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T17" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.17</v>
       </c>
-      <c r="W17" t="n">
-        <v>2.74</v>
-      </c>
       <c r="X17" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB17" t="n">
         <v>34</v>
       </c>
-      <c r="Z17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>960</v>
-      </c>
       <c r="AC17" t="n">
-        <v>960</v>
+        <v>14</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>960</v>
+        <v>30</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="AK17" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>110</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.26</v>
+        <v>1.53</v>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>1.58</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>6.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>5.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>1.69</v>
+        <v>2.18</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.28</v>
+        <v>1.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="S18" t="n">
-        <v>3.45</v>
+        <v>2.44</v>
       </c>
       <c r="T18" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="U18" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>1.72</v>
+        <v>2.72</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="AB18" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AD18" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AF18" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ18" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>6.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.32</v>
+        <v>2.26</v>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
-        <v>8.4</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>14</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>5.3</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>6.4</v>
+        <v>3.55</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="P19" t="n">
-        <v>2.34</v>
+        <v>1.69</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.53</v>
+        <v>2.28</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
-        <v>2.32</v>
+        <v>3.45</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U19" t="n">
-        <v>1.71</v>
+        <v>1.94</v>
       </c>
       <c r="V19" t="n">
-        <v>1.07</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>3.5</v>
+        <v>1.72</v>
       </c>
       <c r="X19" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>44</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
-        <v>16</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>48</v>
+        <v>16.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AK19" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>1.32</v>
       </c>
       <c r="G20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>14</v>
+      </c>
+      <c r="J20" t="n">
         <v>5.3</v>
       </c>
-      <c r="H20" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="R20" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="S20" t="n">
-        <v>2.62</v>
+        <v>2.32</v>
       </c>
       <c r="T20" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="U20" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="V20" t="n">
-        <v>2.12</v>
+        <v>1.07</v>
       </c>
       <c r="W20" t="n">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
-        <v>16.5</v>
+        <v>120</v>
       </c>
       <c r="AA20" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AD20" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AE20" t="n">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="n">
-        <v>50</v>
+        <v>10.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AL20" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AO20" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="H21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P21" t="n">
         <v>2.08</v>
       </c>
-      <c r="I21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="Q21" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.42</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S21" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T21" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="W21" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X21" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AB21" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AF21" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ21" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AK21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.32</v>
+        <v>3.7</v>
       </c>
       <c r="G22" t="n">
-        <v>2.34</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="I22" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P22" t="n">
         <v>1.29</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N22" t="n">
-        <v>5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.42</v>
-      </c>
       <c r="Q22" t="n">
-        <v>1.61</v>
+        <v>1.31</v>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="S22" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="T22" t="n">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="U22" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="V22" t="n">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>1.74</v>
+        <v>1.33</v>
       </c>
       <c r="X22" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="Y22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH22" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>960</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI22" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ22" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AL22" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN22" t="n">
         <v>60</v>
       </c>
-      <c r="AN22" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.65</v>
+        <v>2.32</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>2.34</v>
       </c>
       <c r="H23" t="n">
-        <v>2.06</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.12</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="R23" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="T23" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="U23" t="n">
-        <v>2.18</v>
+        <v>2.56</v>
       </c>
       <c r="V23" t="n">
-        <v>1.89</v>
+        <v>1.45</v>
       </c>
       <c r="W23" t="n">
-        <v>1.33</v>
+        <v>1.74</v>
       </c>
       <c r="X23" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y23" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y23" t="n">
-        <v>13</v>
-      </c>
       <c r="Z23" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AA23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE23" t="n">
         <v>30</v>
       </c>
-      <c r="AB23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD23" t="n">
+      <c r="AF23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG23" t="n">
         <v>12</v>
       </c>
-      <c r="AE23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>17</v>
-      </c>
       <c r="AH23" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ23" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AK23" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM23" t="n">
         <v>60</v>
       </c>
-      <c r="AM23" t="n">
-        <v>100</v>
-      </c>
       <c r="AN23" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.81</v>
+        <v>3.55</v>
       </c>
       <c r="G24" t="n">
-        <v>1.92</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
-        <v>4.3</v>
+        <v>2.14</v>
       </c>
       <c r="I24" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="J24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.9</v>
       </c>
-      <c r="K24" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>1.02</v>
+        <v>3.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P24" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W24" t="n">
         <v>1.36</v>
       </c>
-      <c r="S24" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W24" t="n">
-        <v>2.08</v>
-      </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="Z24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK24" t="n">
         <v>44</v>
       </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>22</v>
-      </c>
       <c r="AL24" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AO24" t="n">
-        <v>70</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="25">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.6</v>
+        <v>1.82</v>
       </c>
       <c r="G25" t="n">
-        <v>4.6</v>
+        <v>1.92</v>
       </c>
       <c r="H25" t="n">
-        <v>1.96</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.14</v>
+        <v>4.9</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K25" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L25" t="n">
         <v>1.37</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>1.98</v>
+        <v>1.02</v>
       </c>
       <c r="O25" t="n">
         <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="R25" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S25" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="T25" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="U25" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V25" t="n">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>1.29</v>
+        <v>2.08</v>
       </c>
       <c r="X25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
-        <v>960</v>
+        <v>18.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="AB25" t="n">
-        <v>960</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>960</v>
+        <v>9.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>960</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AF25" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>960</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>960</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="AK25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO25" t="n">
         <v>60</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>960</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>8.6</v>
+        <v>3.75</v>
       </c>
       <c r="G26" t="n">
-        <v>17</v>
+        <v>4.6</v>
       </c>
       <c r="H26" t="n">
-        <v>1.28</v>
+        <v>1.97</v>
       </c>
       <c r="I26" t="n">
-        <v>1.34</v>
+        <v>2.14</v>
       </c>
       <c r="J26" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
-        <v>7.2</v>
+        <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>2.44</v>
+        <v>1.98</v>
       </c>
       <c r="O26" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="P26" t="n">
-        <v>2.44</v>
+        <v>1.98</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="R26" t="n">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="S26" t="n">
-        <v>1.02</v>
+        <v>2.66</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V26" t="n">
-        <v>3.9</v>
+        <v>1.88</v>
       </c>
       <c r="W26" t="n">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,126 +4028,126 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.5</v>
+        <v>8.4</v>
       </c>
       <c r="G27" t="n">
-        <v>3.6</v>
+        <v>980</v>
       </c>
       <c r="H27" t="n">
-        <v>2.18</v>
+        <v>1.29</v>
       </c>
       <c r="I27" t="n">
-        <v>2.22</v>
+        <v>1.35</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>5.3</v>
       </c>
       <c r="K27" t="n">
+        <v>7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V27" t="n">
         <v>3.85</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.86</v>
+        <v>3.55</v>
       </c>
       <c r="G28" t="n">
-        <v>1.92</v>
+        <v>3.65</v>
       </c>
       <c r="H28" t="n">
-        <v>4.4</v>
+        <v>2.18</v>
       </c>
       <c r="I28" t="n">
-        <v>4.8</v>
+        <v>2.22</v>
       </c>
       <c r="J28" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K28" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P28" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.59</v>
+        <v>1.93</v>
       </c>
       <c r="G29" t="n">
-        <v>1.63</v>
+        <v>1.97</v>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="I29" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="J29" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="K29" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P29" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="Q29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T29" t="n">
         <v>1.73</v>
       </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.82</v>
-      </c>
       <c r="U29" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y29" t="n">
-        <v>28</v>
+        <v>17.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="AB29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG29" t="n">
         <v>10.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AI29" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AK29" t="n">
         <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM29" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AN29" t="n">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="G30" t="n">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="H30" t="n">
-        <v>8.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="J30" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="K30" t="n">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="P30" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="R30" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="S30" t="n">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="T30" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="U30" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="X30" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Y30" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Z30" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AA30" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE30" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="AF30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG30" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AG30" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM30" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.3</v>
+        <v>7.6</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.96</v>
+        <v>1.4</v>
       </c>
       <c r="G31" t="n">
-        <v>1.99</v>
+        <v>1.42</v>
       </c>
       <c r="H31" t="n">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>4.4</v>
+        <v>9.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="K31" t="n">
-        <v>3.95</v>
+        <v>5.9</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P31" t="n">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.84</v>
+        <v>1.58</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T31" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="U31" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="X31" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.5</v>
+        <v>42</v>
       </c>
       <c r="Z31" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL31" t="n">
         <v>34</v>
       </c>
-      <c r="AA31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>36</v>
-      </c>
       <c r="AM31" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AN31" t="n">
-        <v>13</v>
+        <v>5.3</v>
       </c>
       <c r="AO31" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S32" t="n">
         <v>3.1</v>
       </c>
-      <c r="G32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.59</v>
+        <v>3.1</v>
       </c>
       <c r="G33" t="n">
-        <v>1.61</v>
+        <v>3.2</v>
       </c>
       <c r="H33" t="n">
-        <v>6.2</v>
+        <v>2.5</v>
       </c>
       <c r="I33" t="n">
-        <v>6.8</v>
+        <v>2.54</v>
       </c>
       <c r="J33" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P33" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="T33" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="U33" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH33" t="n">
         <v>18</v>
       </c>
-      <c r="Y33" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD33" t="n">
+      <c r="AI33" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN33" t="n">
         <v>36</v>
       </c>
-      <c r="AE33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH33" t="n">
+      <c r="AO33" t="n">
         <v>23</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="G34" t="n">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="H34" t="n">
-        <v>9.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="I34" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="J34" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="K34" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P34" t="n">
-        <v>2.68</v>
+        <v>2.06</v>
       </c>
       <c r="Q34" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R34" t="n">
         <v>1.42</v>
       </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.96</v>
+        <v>1.37</v>
       </c>
       <c r="G35" t="n">
-        <v>2.06</v>
+        <v>1.39</v>
       </c>
       <c r="H35" t="n">
-        <v>4.1</v>
+        <v>9.4</v>
       </c>
       <c r="I35" t="n">
+        <v>10</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="X35" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN35" t="n">
         <v>4.6</v>
       </c>
-      <c r="J35" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>0</v>
-      </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="G36" t="n">
-        <v>1000</v>
+        <v>2.14</v>
       </c>
       <c r="H36" t="n">
-        <v>1.4</v>
+        <v>3.95</v>
       </c>
       <c r="I36" t="n">
-        <v>1.55</v>
+        <v>4.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="K36" t="n">
-        <v>950</v>
+        <v>3.55</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P36" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.58</v>
+        <v>2.12</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.65</v>
+        <v>7</v>
       </c>
       <c r="G37" t="n">
-        <v>4.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>2.1</v>
+        <v>1.48</v>
       </c>
       <c r="I37" t="n">
-        <v>2.16</v>
+        <v>1.49</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="K37" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P37" t="n">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.96</v>
+        <v>1.67</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.24</v>
+        <v>3.85</v>
       </c>
       <c r="G38" t="n">
-        <v>1.28</v>
+        <v>4.1</v>
       </c>
       <c r="H38" t="n">
-        <v>6.2</v>
+        <v>2.08</v>
       </c>
       <c r="I38" t="n">
-        <v>17.5</v>
+        <v>2.1</v>
       </c>
       <c r="J38" t="n">
-        <v>6.2</v>
+        <v>3.65</v>
       </c>
       <c r="K38" t="n">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P38" t="n">
-        <v>2.28</v>
+        <v>1.86</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.55</v>
+        <v>1.96</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="G39" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="H39" t="n">
-        <v>1.13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I39" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="J39" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="K39" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>1.06</v>
+        <v>4.2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P39" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="Q39" t="n">
         <v>1.55</v>
       </c>
       <c r="R39" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="S39" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="T39" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="X39" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AB39" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG39" t="n">
         <v>12</v>
       </c>
-      <c r="AC39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>90</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>16</v>
-      </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ39" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN39" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="G40" t="n">
-        <v>27</v>
+        <v>1.23</v>
       </c>
       <c r="H40" t="n">
-        <v>1.24</v>
+        <v>13</v>
       </c>
       <c r="I40" t="n">
-        <v>1.31</v>
+        <v>25</v>
       </c>
       <c r="J40" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K40" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P40" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>23</v>
       </c>
       <c r="H41" t="n">
-        <v>3.95</v>
+        <v>1.25</v>
       </c>
       <c r="I41" t="n">
-        <v>4.4</v>
+        <v>1.32</v>
       </c>
       <c r="J41" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="K41" t="n">
-        <v>3.95</v>
+        <v>7.4</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P41" t="n">
-        <v>1.89</v>
+        <v>2.44</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,118 +6058,118 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="H42" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="J42" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="K42" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M42" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="P42" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="S42" t="n">
-        <v>2.7</v>
+        <v>1.01</v>
       </c>
       <c r="T42" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="U42" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH42" t="n">
         <v>22</v>
       </c>
-      <c r="Y42" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>330</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>21</v>
-      </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="AK42" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AL42" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AM42" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,127 +6193,127 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.92</v>
+        <v>1.58</v>
       </c>
       <c r="G43" t="n">
-        <v>3.05</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
-        <v>2.64</v>
+        <v>6.4</v>
       </c>
       <c r="I43" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="K43" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P43" t="n">
-        <v>1.77</v>
+        <v>2.26</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,82 +6328,82 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="G44" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="H44" t="n">
-        <v>2.88</v>
+        <v>2.54</v>
       </c>
       <c r="I44" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N44" t="n">
         <v>2.92</v>
       </c>
-      <c r="J44" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3.85</v>
-      </c>
       <c r="O44" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P44" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R44" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="S44" t="n">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="T44" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U44" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X44" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Y44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB44" t="n">
         <v>12</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>11.5</v>
       </c>
       <c r="AC44" t="n">
         <v>7.6</v>
@@ -6412,37 +6412,172 @@
         <v>13</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH44" t="n">
         <v>21</v>
       </c>
-      <c r="AG44" t="n">
+      <c r="AI44" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Nottm Forest</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y45" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH44" t="n">
+      <c r="Z45" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN45" t="n">
         <v>24</v>
       </c>
-      <c r="AI44" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN44" t="n">
+      <c r="AO45" t="n">
         <v>34</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
@@ -670,7 +670,7 @@
         <v>2.86</v>
       </c>
       <c r="G2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
         <v>2.42</v>
@@ -808,7 +808,7 @@
         <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="I3" t="n">
         <v>2.02</v>
@@ -829,7 +829,7 @@
         <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
         <v>2.56</v>
@@ -838,10 +838,10 @@
         <v>1.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="S3" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="T3" t="n">
         <v>1.51</v>
@@ -1018,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>22</v>
@@ -1105,7 +1105,7 @@
         <v>1.89</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
         <v>1.34</v>
@@ -1144,7 +1144,7 @@
         <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1219,7 +1219,7 @@
         <v>2.76</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>3.55</v>
@@ -1252,7 +1252,7 @@
         <v>1.85</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
         <v>1.56</v>
@@ -1345,55 +1345,55 @@
         <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="I7" t="n">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>1.64</v>
+        <v>2.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
         <v>3.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="W7" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.29</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.21</v>
-      </c>
       <c r="P8" t="n">
-        <v>1.28</v>
+        <v>1.87</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G9" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I9" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
         <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.28</v>
@@ -1636,10 +1636,10 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
         <v>2.6</v>
@@ -1663,16 +1663,16 @@
         <v>1.2</v>
       </c>
       <c r="W9" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="X9" t="n">
         <v>28</v>
       </c>
       <c r="Y9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>160</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>6.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1768,7 +1768,7 @@
         <v>1.35</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
         <v>4.2</v>
@@ -1786,10 +1786,10 @@
         <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T10" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U10" t="n">
         <v>2.28</v>
@@ -1798,7 +1798,7 @@
         <v>1.7</v>
       </c>
       <c r="W10" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X10" t="n">
         <v>18.5</v>
@@ -1819,7 +1819,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -1852,7 +1852,7 @@
         <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="11">
@@ -1888,10 +1888,10 @@
         <v>2.18</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1900,7 +1900,7 @@
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -1921,7 +1921,7 @@
         <v>1.46</v>
       </c>
       <c r="S11" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="T11" t="n">
         <v>1.67</v>
@@ -1933,7 +1933,7 @@
         <v>1.36</v>
       </c>
       <c r="W11" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="X11" t="n">
         <v>18</v>
@@ -1948,10 +1948,10 @@
         <v>70</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
         <v>15</v>
@@ -1972,7 +1972,7 @@
         <v>48</v>
       </c>
       <c r="AJ11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK11" t="n">
         <v>22</v>
@@ -2050,19 +2050,19 @@
         <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R12" t="n">
         <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T12" t="n">
         <v>1.57</v>
       </c>
       <c r="U12" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="V12" t="n">
         <v>1.48</v>
@@ -2089,7 +2089,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
         <v>30</v>
@@ -2119,7 +2119,7 @@
         <v>60</v>
       </c>
       <c r="AN12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
         <v>17</v>
@@ -2155,13 +2155,13 @@
         <v>1.97</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
         <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2170,31 +2170,31 @@
         <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
         <v>1.38</v>
       </c>
       <c r="S13" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
         <v>2.12</v>
@@ -2203,7 +2203,7 @@
         <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X13" t="n">
         <v>15.5</v>
@@ -2221,7 +2221,7 @@
         <v>9.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>17</v>
@@ -2230,7 +2230,7 @@
         <v>55</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2242,7 +2242,7 @@
         <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>21</v>
@@ -2296,7 +2296,7 @@
         <v>1.68</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
@@ -2329,13 +2329,13 @@
         <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U14" t="n">
         <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="W14" t="n">
         <v>1.19</v>
@@ -2347,10 +2347,10 @@
         <v>8</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB14" t="n">
         <v>19.5</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G15" t="n">
         <v>1.65</v>
@@ -2446,28 +2446,28 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="R15" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="S15" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="U15" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
         <v>1.19</v>
@@ -2479,10 +2479,10 @@
         <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA15" t="n">
         <v>180</v>
@@ -2494,7 +2494,7 @@
         <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
         <v>85</v>
@@ -2506,16 +2506,16 @@
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
         <v>85</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AK15" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
         <v>36</v>
@@ -2524,7 +2524,7 @@
         <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO15" t="n">
         <v>85</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G17" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="I17" t="n">
         <v>1.56</v>
@@ -2707,7 +2707,7 @@
         <v>4.8</v>
       </c>
       <c r="K17" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.28</v>
@@ -2722,7 +2722,7 @@
         <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q17" t="n">
         <v>1.58</v>
@@ -2731,7 +2731,7 @@
         <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="T17" t="n">
         <v>1.72</v>
@@ -2743,7 +2743,7 @@
         <v>2.78</v>
       </c>
       <c r="W17" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X17" t="n">
         <v>32</v>
@@ -2755,7 +2755,7 @@
         <v>13.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB17" t="n">
         <v>34</v>
@@ -2797,7 +2797,7 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2833,7 +2833,7 @@
         <v>1.58</v>
       </c>
       <c r="H18" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="I18" t="n">
         <v>6.8</v>
@@ -2848,7 +2848,7 @@
         <v>1.31</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
         <v>3.45</v>
@@ -2893,7 +2893,7 @@
         <v>230</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
         <v>980</v>
@@ -2965,13 +2965,13 @@
         <v>2.26</v>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J19" t="n">
         <v>3.25</v>
@@ -2992,7 +2992,7 @@
         <v>1.39</v>
       </c>
       <c r="P19" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q19" t="n">
         <v>2.28</v>
@@ -3013,7 +3013,7 @@
         <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X19" t="n">
         <v>13.5</v>
@@ -3037,7 +3037,7 @@
         <v>16.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
         <v>14.5</v>
@@ -3046,13 +3046,13 @@
         <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
         <v>80</v>
       </c>
       <c r="AJ19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK19" t="n">
         <v>980</v>
@@ -3106,7 +3106,7 @@
         <v>8.4</v>
       </c>
       <c r="I20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J20" t="n">
         <v>5.3</v>
@@ -3139,13 +3139,13 @@
         <v>2.32</v>
       </c>
       <c r="T20" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U20" t="n">
         <v>1.71</v>
       </c>
       <c r="V20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W20" t="n">
         <v>3.5</v>
@@ -3238,7 +3238,7 @@
         <v>5.3</v>
       </c>
       <c r="H21" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="I21" t="n">
         <v>1.89</v>
@@ -3271,7 +3271,7 @@
         <v>1.42</v>
       </c>
       <c r="S21" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T21" t="n">
         <v>1.74</v>
@@ -3391,7 +3391,7 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O22" t="n">
         <v>1.31</v>
@@ -3409,10 +3409,10 @@
         <v>2.92</v>
       </c>
       <c r="T22" t="n">
-        <v>1.76</v>
+        <v>1.03</v>
       </c>
       <c r="U22" t="n">
-        <v>1.92</v>
+        <v>1.03</v>
       </c>
       <c r="V22" t="n">
         <v>1.83</v>
@@ -3454,7 +3454,7 @@
         <v>18.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AJ22" t="n">
         <v>95</v>
@@ -3502,58 +3502,58 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G23" t="n">
         <v>2.32</v>
       </c>
-      <c r="G23" t="n">
-        <v>2.34</v>
-      </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J23" t="n">
         <v>3.9</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q23" t="n">
         <v>1.61</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S23" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="T23" t="n">
         <v>1.55</v>
       </c>
       <c r="U23" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="V23" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W23" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X23" t="n">
         <v>22</v>
@@ -3577,7 +3577,7 @@
         <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF23" t="n">
         <v>18</v>
@@ -3640,13 +3640,13 @@
         <v>3.55</v>
       </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H24" t="n">
         <v>2.14</v>
       </c>
       <c r="I24" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J24" t="n">
         <v>3.75</v>
@@ -3685,7 +3685,7 @@
         <v>2.18</v>
       </c>
       <c r="V24" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W24" t="n">
         <v>1.36</v>
@@ -3727,7 +3727,7 @@
         <v>34</v>
       </c>
       <c r="AJ24" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK24" t="n">
         <v>44</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G25" t="n">
         <v>1.92</v>
@@ -3796,7 +3796,7 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O25" t="n">
         <v>1.26</v>
@@ -3811,7 +3811,7 @@
         <v>1.41</v>
       </c>
       <c r="S25" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T25" t="n">
         <v>1.73</v>
@@ -3922,7 +3922,7 @@
         <v>3.7</v>
       </c>
       <c r="K26" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L26" t="n">
         <v>1.37</v>
@@ -3946,7 +3946,7 @@
         <v>1.39</v>
       </c>
       <c r="S26" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="T26" t="n">
         <v>1.66</v>
@@ -4000,7 +4000,7 @@
         <v>100</v>
       </c>
       <c r="AK26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL26" t="n">
         <v>65</v>
@@ -4009,7 +4009,7 @@
         <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AO26" t="n">
         <v>980</v>
@@ -4048,7 +4048,7 @@
         <v>980</v>
       </c>
       <c r="H27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="I27" t="n">
         <v>1.35</v>
@@ -4066,13 +4066,13 @@
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="O27" t="n">
         <v>1.17</v>
       </c>
       <c r="P27" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q27" t="n">
         <v>1.5</v>
@@ -4081,19 +4081,19 @@
         <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V27" t="n">
         <v>3.85</v>
       </c>
       <c r="W27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4216,13 +4216,13 @@
         <v>1.43</v>
       </c>
       <c r="S28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T28" t="n">
         <v>1.7</v>
       </c>
       <c r="U28" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="V28" t="n">
         <v>1.82</v>
@@ -4327,7 +4327,7 @@
         <v>3.8</v>
       </c>
       <c r="K29" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L29" t="n">
         <v>1.36</v>
@@ -4345,13 +4345,13 @@
         <v>2.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R29" t="n">
         <v>1.43</v>
       </c>
       <c r="S29" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T29" t="n">
         <v>1.73</v>
@@ -4399,7 +4399,7 @@
         <v>18</v>
       </c>
       <c r="AI29" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ29" t="n">
         <v>22</v>
@@ -4417,7 +4417,7 @@
         <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G30" t="n">
         <v>1.62</v>
@@ -4477,7 +4477,7 @@
         <v>1.24</v>
       </c>
       <c r="P30" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q30" t="n">
         <v>1.71</v>
@@ -4486,13 +4486,13 @@
         <v>1.51</v>
       </c>
       <c r="S30" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T30" t="n">
         <v>1.81</v>
       </c>
       <c r="U30" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V30" t="n">
         <v>1.18</v>
@@ -4522,7 +4522,7 @@
         <v>24</v>
       </c>
       <c r="AE30" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="n">
         <v>10.5</v>
@@ -4534,7 +4534,7 @@
         <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="n">
         <v>15</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="G31" t="n">
         <v>1.42</v>
@@ -4591,13 +4591,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J31" t="n">
         <v>5.6</v>
       </c>
       <c r="K31" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L31" t="n">
         <v>1.28</v>
@@ -4630,13 +4630,13 @@
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W31" t="n">
         <v>3.35</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y31" t="n">
         <v>42</v>
@@ -4741,13 +4741,13 @@
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O32" t="n">
         <v>1.28</v>
       </c>
       <c r="P32" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q32" t="n">
         <v>1.84</v>
@@ -4765,7 +4765,7 @@
         <v>2.2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W32" t="n">
         <v>2</v>
@@ -4891,13 +4891,13 @@
         <v>1.34</v>
       </c>
       <c r="S33" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T33" t="n">
         <v>1.8</v>
       </c>
       <c r="U33" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V33" t="n">
         <v>1.65</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="G34" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H34" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I34" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J34" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K34" t="n">
         <v>4.5</v>
@@ -5029,7 +5029,7 @@
         <v>3.1</v>
       </c>
       <c r="T34" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U34" t="n">
         <v>2</v>
@@ -5038,7 +5038,7 @@
         <v>1.17</v>
       </c>
       <c r="W34" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="X34" t="n">
         <v>17.5</v>
@@ -5050,13 +5050,13 @@
         <v>55</v>
       </c>
       <c r="AA34" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB34" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD34" t="n">
         <v>25</v>
@@ -5161,7 +5161,7 @@
         <v>1.69</v>
       </c>
       <c r="S35" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T35" t="n">
         <v>1.86</v>
@@ -5257,25 +5257,25 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G36" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I36" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J36" t="n">
         <v>3.45</v>
       </c>
       <c r="K36" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
@@ -5299,7 +5299,7 @@
         <v>3.7</v>
       </c>
       <c r="T36" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U36" t="n">
         <v>2.02</v>
@@ -5308,7 +5308,7 @@
         <v>1.31</v>
       </c>
       <c r="W36" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="X36" t="n">
         <v>13</v>
@@ -5359,7 +5359,7 @@
         <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO36" t="n">
         <v>60</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G37" t="n">
         <v>9.800000000000001</v>
@@ -5401,7 +5401,7 @@
         <v>1.48</v>
       </c>
       <c r="I37" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="J37" t="n">
         <v>4.6</v>
@@ -5410,34 +5410,34 @@
         <v>5.1</v>
       </c>
       <c r="L37" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P37" t="n">
         <v>2.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="R37" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="S37" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="T37" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="U37" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="V37" t="n">
         <v>3</v>
@@ -5446,7 +5446,7 @@
         <v>1.11</v>
       </c>
       <c r="X37" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Y37" t="n">
         <v>10.5</v>
@@ -5461,13 +5461,13 @@
         <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE37" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF37" t="n">
         <v>80</v>
@@ -5476,7 +5476,7 @@
         <v>34</v>
       </c>
       <c r="AH37" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI37" t="n">
         <v>38</v>
@@ -5485,19 +5485,19 @@
         <v>320</v>
       </c>
       <c r="AK37" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AL37" t="n">
         <v>130</v>
       </c>
       <c r="AM37" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN37" t="n">
         <v>160</v>
       </c>
       <c r="AO37" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G38" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H38" t="n">
         <v>2.08</v>
       </c>
       <c r="I38" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J38" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K38" t="n">
         <v>3.75</v>
@@ -5551,31 +5551,31 @@
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="O38" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P38" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R38" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S38" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="T38" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U38" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V38" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W38" t="n">
         <v>1.32</v>
@@ -5605,7 +5605,7 @@
         <v>23</v>
       </c>
       <c r="AF38" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG38" t="n">
         <v>16.5</v>
@@ -5617,7 +5617,7 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AK38" t="n">
         <v>980</v>
@@ -5668,7 +5668,7 @@
         <v>1.27</v>
       </c>
       <c r="H39" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="I39" t="n">
         <v>17.5</v>
@@ -5686,7 +5686,7 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O39" t="n">
         <v>1.19</v>
@@ -5803,7 +5803,7 @@
         <v>1.23</v>
       </c>
       <c r="H40" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I40" t="n">
         <v>25</v>
@@ -5812,7 +5812,7 @@
         <v>6.8</v>
       </c>
       <c r="K40" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L40" t="n">
         <v>1.27</v>
@@ -5821,7 +5821,7 @@
         <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="O40" t="n">
         <v>1.17</v>
@@ -5839,19 +5839,19 @@
         <v>2.08</v>
       </c>
       <c r="T40" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U40" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V40" t="n">
         <v>1.04</v>
       </c>
       <c r="W40" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="X40" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
         <v>1000</v>
@@ -5866,10 +5866,10 @@
         <v>12</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AD40" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
@@ -5890,7 +5890,7 @@
         <v>10</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL40" t="n">
         <v>1000</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="H41" t="n">
         <v>1.25</v>
       </c>
       <c r="I41" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="J41" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="K41" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L41" t="n">
         <v>1.25</v>
@@ -5956,31 +5956,31 @@
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>1.03</v>
+        <v>3.45</v>
       </c>
       <c r="O41" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P41" t="n">
         <v>2.44</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R41" t="n">
-        <v>1.27</v>
+        <v>1.66</v>
       </c>
       <c r="S41" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="T41" t="n">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="U41" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V41" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="W41" t="n">
         <v>1.06</v>
@@ -6010,7 +6010,7 @@
         <v>980</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AG41" t="n">
         <v>1000</v>
@@ -6019,7 +6019,7 @@
         <v>980</v>
       </c>
       <c r="AI41" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ41" t="n">
         <v>1000</v>
@@ -6028,7 +6028,7 @@
         <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM41" t="n">
         <v>1000</v>
@@ -6037,7 +6037,7 @@
         <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="42">
@@ -6088,10 +6088,10 @@
         <v>1.42</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="O42" t="n">
         <v>1.31</v>
@@ -6103,16 +6103,16 @@
         <v>1.9</v>
       </c>
       <c r="R42" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S42" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T42" t="n">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="U42" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V42" t="n">
         <v>1.3</v>
@@ -6121,58 +6121,58 @@
         <v>1.92</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y42" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Z42" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB42" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AC42" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AD42" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AE42" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF42" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AG42" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AH42" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI42" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ42" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK42" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL42" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H43" t="n">
         <v>6.4</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J43" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K43" t="n">
         <v>4.7</v>
@@ -6241,7 +6241,7 @@
         <v>1.49</v>
       </c>
       <c r="S43" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T43" t="n">
         <v>1.81</v>
@@ -6250,22 +6250,22 @@
         <v>2.12</v>
       </c>
       <c r="V43" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W43" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X43" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y43" t="n">
         <v>26</v>
       </c>
       <c r="Z43" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA43" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AB43" t="n">
         <v>9</v>
@@ -6277,7 +6277,7 @@
         <v>25</v>
       </c>
       <c r="AE43" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF43" t="n">
         <v>9.6</v>
@@ -6376,7 +6376,7 @@
         <v>1.29</v>
       </c>
       <c r="S44" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T44" t="n">
         <v>1.79</v>
@@ -6421,7 +6421,7 @@
         <v>14</v>
       </c>
       <c r="AH44" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI44" t="n">
         <v>46</v>
@@ -6481,22 +6481,22 @@
         <v>3.1</v>
       </c>
       <c r="I45" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J45" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
         <v>3.45</v>
       </c>
       <c r="L45" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M45" t="n">
         <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O45" t="n">
         <v>1.32</v>
@@ -6505,13 +6505,13 @@
         <v>1.92</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R45" t="n">
         <v>1.36</v>
       </c>
       <c r="S45" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T45" t="n">
         <v>1.76</v>
@@ -6520,10 +6520,10 @@
         <v>2.2</v>
       </c>
       <c r="V45" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W45" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X45" t="n">
         <v>13.5</v>
@@ -6532,7 +6532,7 @@
         <v>12.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA45" t="n">
         <v>50</v>
@@ -6574,7 +6574,7 @@
         <v>95</v>
       </c>
       <c r="AN45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO45" t="n">
         <v>34</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO45"/>
+  <dimension ref="A1:AO47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,43 +667,43 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="G2" t="n">
         <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" t="n">
         <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
         <v>2.68</v>
@@ -754,7 +754,7 @@
         <v>18.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
         <v>55</v>
@@ -766,7 +766,7 @@
         <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
         <v>24</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="G3" t="n">
         <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="I3" t="n">
         <v>2.02</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
         <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="Q3" t="n">
         <v>1.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="S3" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="T3" t="n">
         <v>1.51</v>
       </c>
       <c r="U3" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="V3" t="n">
         <v>1.98</v>
       </c>
       <c r="W3" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
         <v>32</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G4" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H4" t="n">
         <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
@@ -955,43 +955,43 @@
         <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U4" t="n">
         <v>2.14</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
         <v>21</v>
@@ -1003,28 +1003,28 @@
         <v>120</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
         <v>25</v>
@@ -1033,7 +1033,7 @@
         <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>120</v>
@@ -1075,16 +1075,16 @@
         <v>2.68</v>
       </c>
       <c r="G5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I5" t="n">
         <v>2.92</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.96</v>
-      </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
         <v>3.8</v>
@@ -1096,7 +1096,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
@@ -1105,7 +1105,7 @@
         <v>1.89</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
         <v>1.34</v>
@@ -1123,7 +1123,7 @@
         <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
         <v>2.76</v>
@@ -1222,43 +1222,43 @@
         <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.48</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="O6" t="n">
         <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="T6" t="n">
         <v>1.85</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V6" t="n">
         <v>1.56</v>
       </c>
       <c r="W6" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X6" t="n">
         <v>11.5</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K7" t="n">
         <v>4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1369,31 +1369,31 @@
         <v>2.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="U7" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="W7" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,109 +1477,109 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>870</v>
+        <v>6.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>1.88</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.18</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.07</v>
-      </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>FK Suduva</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>FK Dainava Alytus</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="G9" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="H9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K9" t="n">
         <v>5.6</v>
       </c>
-      <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.8</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>5.6</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>2.6</v>
+        <v>1.94</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>2.32</v>
+        <v>2.88</v>
       </c>
       <c r="T9" t="n">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="U9" t="n">
-        <v>2.32</v>
+        <v>1.82</v>
       </c>
       <c r="V9" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="X9" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AG9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AO9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.1</v>
+        <v>1.62</v>
       </c>
       <c r="G10" t="n">
-        <v>3.35</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U10" t="n">
         <v>2.32</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.28</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.43</v>
+        <v>2.54</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>17</v>
       </c>
-      <c r="AA10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="AK10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO10" t="n">
         <v>60</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>16.5</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.14</v>
+        <v>3.1</v>
       </c>
       <c r="G11" t="n">
-        <v>2.18</v>
+        <v>3.35</v>
       </c>
       <c r="H11" t="n">
-        <v>3.55</v>
+        <v>2.32</v>
       </c>
       <c r="I11" t="n">
-        <v>3.75</v>
+        <v>2.42</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S11" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="T11" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U11" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="W11" t="n">
-        <v>1.84</v>
+        <v>1.43</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AB11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
         <v>15</v>
       </c>
-      <c r="AE11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.42</v>
+        <v>2.14</v>
       </c>
       <c r="G12" t="n">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="H12" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.8</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="R12" t="n">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="S12" t="n">
-        <v>2.54</v>
+        <v>2.98</v>
       </c>
       <c r="T12" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="X12" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK12" t="n">
         <v>22</v>
       </c>
-      <c r="Y12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ12" t="n">
+      <c r="AL12" t="n">
         <v>34</v>
       </c>
-      <c r="AK12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>30</v>
-      </c>
       <c r="AM12" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
         <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.97</v>
+        <v>2.44</v>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>2.48</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>2.96</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>1.99</v>
+        <v>2.42</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="S13" t="n">
-        <v>3.35</v>
+        <v>2.54</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>2.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="W13" t="n">
-        <v>1.99</v>
+        <v>1.67</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AA13" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AF13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="n">
         <v>12</v>
       </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
       <c r="AH13" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM13" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>100</v>
       </c>
       <c r="AN13" t="n">
         <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.7</v>
+        <v>1.97</v>
       </c>
       <c r="G14" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>1.68</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.69</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W14" t="n">
         <v>2</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.19</v>
-      </c>
       <c r="X14" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.199999999999999</v>
+        <v>32</v>
       </c>
       <c r="AA14" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="AB14" t="n">
-        <v>19.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AF14" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>23</v>
       </c>
-      <c r="AH14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>190</v>
-      </c>
       <c r="AK14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM14" t="n">
         <v>100</v>
       </c>
-      <c r="AL14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>150</v>
-      </c>
       <c r="AN14" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.62</v>
+        <v>5.8</v>
       </c>
       <c r="G15" t="n">
-        <v>1.65</v>
+        <v>6.2</v>
       </c>
       <c r="H15" t="n">
-        <v>5.8</v>
+        <v>1.69</v>
       </c>
       <c r="I15" t="n">
-        <v>6.2</v>
+        <v>1.7</v>
       </c>
       <c r="J15" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.34</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.26</v>
-      </c>
       <c r="P15" t="n">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>2.82</v>
+        <v>3.55</v>
       </c>
       <c r="T15" t="n">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>1.19</v>
+        <v>2.42</v>
       </c>
       <c r="W15" t="n">
-        <v>2.52</v>
+        <v>1.2</v>
       </c>
       <c r="X15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB15" t="n">
         <v>20</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AC15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG15" t="n">
         <v>23</v>
       </c>
-      <c r="Z15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AH15" t="n">
         <v>23</v>
       </c>
-      <c r="AE15" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
       <c r="AI15" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="n">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AM15" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN15" t="n">
         <v>120</v>
       </c>
-      <c r="AN15" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AO15" t="n">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>5.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.82</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.73</v>
-      </c>
       <c r="U16" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="X16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="Z16" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="AA16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AO16" t="n">
         <v>85</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6.4</v>
+        <v>2.04</v>
       </c>
       <c r="G17" t="n">
-        <v>7.2</v>
+        <v>2.06</v>
       </c>
       <c r="H17" t="n">
-        <v>1.52</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>1.56</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.56</v>
+        <v>2.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="S17" t="n">
-        <v>2.38</v>
+        <v>2.9</v>
       </c>
       <c r="T17" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V17" t="n">
-        <v>2.78</v>
+        <v>1.34</v>
       </c>
       <c r="W17" t="n">
-        <v>1.16</v>
+        <v>1.94</v>
       </c>
       <c r="X17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL17" t="n">
         <v>32</v>
       </c>
-      <c r="Y17" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.53</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.58</v>
       </c>
-      <c r="H18" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.5</v>
-      </c>
       <c r="R18" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="S18" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T18" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U18" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="V18" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.17</v>
       </c>
-      <c r="W18" t="n">
-        <v>2.72</v>
-      </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="AA18" t="n">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="AC18" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>340</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>990</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.4</v>
+        <v>85</v>
       </c>
       <c r="AO18" t="n">
-        <v>110</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.26</v>
+        <v>1.48</v>
       </c>
       <c r="G19" t="n">
-        <v>2.42</v>
+        <v>1.54</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.85</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.55</v>
+        <v>5.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.28</v>
+        <v>1.51</v>
       </c>
       <c r="R19" t="n">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="S19" t="n">
-        <v>3.45</v>
+        <v>2.44</v>
       </c>
       <c r="T19" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.14</v>
       </c>
       <c r="W19" t="n">
-        <v>1.71</v>
+        <v>2.8</v>
       </c>
       <c r="X19" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AA19" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AD19" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AF19" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
         <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ19" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
         <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.32</v>
+        <v>2.28</v>
       </c>
       <c r="G20" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.4</v>
       </c>
-      <c r="H20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="P20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X20" t="n">
         <v>13.5</v>
       </c>
-      <c r="J20" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>980</v>
-      </c>
       <c r="Y20" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>16</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>200</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
         <v>980</v>
       </c>
       <c r="AI20" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AK20" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.5</v>
+        <v>1.33</v>
       </c>
       <c r="G21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J21" t="n">
         <v>5.3</v>
       </c>
-      <c r="H21" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="S21" t="n">
-        <v>2.88</v>
+        <v>2.54</v>
       </c>
       <c r="T21" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="U21" t="n">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="V21" t="n">
-        <v>2.12</v>
+        <v>1.09</v>
       </c>
       <c r="W21" t="n">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y21" t="n">
         <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AA21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AD21" t="n">
         <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AF21" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH21" t="n">
         <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AJ21" t="n">
-        <v>130</v>
+        <v>13.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="H22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U22" t="n">
         <v>2.08</v>
       </c>
-      <c r="I22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.03</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="W22" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="X22" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Z22" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AA22" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AB22" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AD22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AF22" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AH22" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ22" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AK22" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL22" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM22" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.26</v>
+        <v>3.75</v>
       </c>
       <c r="G23" t="n">
-        <v>2.32</v>
+        <v>4.1</v>
       </c>
       <c r="H23" t="n">
-        <v>3.15</v>
+        <v>2.04</v>
       </c>
       <c r="I23" t="n">
-        <v>3.35</v>
+        <v>2.14</v>
       </c>
       <c r="J23" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K23" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>5.1</v>
+        <v>3.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="P23" t="n">
-        <v>2.46</v>
+        <v>1.92</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="R23" t="n">
-        <v>1.59</v>
+        <v>1.35</v>
       </c>
       <c r="S23" t="n">
-        <v>2.46</v>
+        <v>2.96</v>
       </c>
       <c r="T23" t="n">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="U23" t="n">
-        <v>2.6</v>
+        <v>2.06</v>
       </c>
       <c r="V23" t="n">
-        <v>1.43</v>
+        <v>1.87</v>
       </c>
       <c r="W23" t="n">
-        <v>1.76</v>
+        <v>1.32</v>
       </c>
       <c r="X23" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="Y23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH23" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA23" t="n">
+      <c r="AI23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK23" t="n">
         <v>55</v>
       </c>
-      <c r="AB23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>22</v>
-      </c>
       <c r="AL23" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN23" t="n">
         <v>60</v>
       </c>
-      <c r="AN23" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.55</v>
+        <v>2.28</v>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>2.32</v>
       </c>
       <c r="H24" t="n">
-        <v>2.14</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.22</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>2.46</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="R24" t="n">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
       <c r="S24" t="n">
-        <v>2.74</v>
+        <v>2.48</v>
       </c>
       <c r="T24" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="U24" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="V24" t="n">
-        <v>1.82</v>
+        <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>1.36</v>
+        <v>1.75</v>
       </c>
       <c r="X24" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="Z24" t="n">
         <v>980</v>
       </c>
       <c r="AA24" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB24" t="n">
         <v>980</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AE24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK24" t="n">
         <v>22</v>
       </c>
-      <c r="AF24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>44</v>
-      </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AM24" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AN24" t="n">
         <v>980</v>
       </c>
       <c r="AO24" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.81</v>
+        <v>3.55</v>
       </c>
       <c r="G25" t="n">
-        <v>1.92</v>
+        <v>3.75</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>2.14</v>
       </c>
       <c r="I25" t="n">
-        <v>4.9</v>
+        <v>2.22</v>
       </c>
       <c r="J25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.9</v>
       </c>
-      <c r="K25" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>1.1</v>
+        <v>3.95</v>
       </c>
       <c r="O25" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P25" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S25" t="n">
-        <v>1.05</v>
+        <v>3.05</v>
       </c>
       <c r="T25" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.82</v>
       </c>
       <c r="W25" t="n">
-        <v>2.08</v>
+        <v>1.36</v>
       </c>
       <c r="X25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE25" t="n">
         <v>22</v>
       </c>
-      <c r="Y25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>60</v>
-      </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="AK25" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AL25" t="n">
         <v>980</v>
       </c>
       <c r="AM25" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AO25" t="n">
-        <v>60</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="26">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.75</v>
+        <v>1.81</v>
       </c>
       <c r="G26" t="n">
-        <v>4.6</v>
+        <v>1.91</v>
       </c>
       <c r="H26" t="n">
-        <v>1.97</v>
+        <v>4.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.14</v>
+        <v>4.9</v>
       </c>
       <c r="J26" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.37</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>1.98</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
         <v>1.26</v>
       </c>
       <c r="P26" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="R26" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>2.8</v>
+        <v>1.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="U26" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V26" t="n">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>1.29</v>
+        <v>2.08</v>
       </c>
       <c r="X26" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Y26" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AB26" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AF26" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AG26" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AM26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>8.4</v>
+        <v>3.7</v>
       </c>
       <c r="G27" t="n">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="H27" t="n">
-        <v>1.3</v>
+        <v>1.94</v>
       </c>
       <c r="I27" t="n">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="J27" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>2.52</v>
+        <v>3.55</v>
       </c>
       <c r="O27" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>2.52</v>
+        <v>1.98</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="R27" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="S27" t="n">
-        <v>1.05</v>
+        <v>2.8</v>
       </c>
       <c r="T27" t="n">
-        <v>1.03</v>
+        <v>1.65</v>
       </c>
       <c r="U27" t="n">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="V27" t="n">
-        <v>3.85</v>
+        <v>1.88</v>
       </c>
       <c r="W27" t="n">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,126 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.55</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>3.65</v>
+        <v>16.5</v>
       </c>
       <c r="H28" t="n">
-        <v>2.18</v>
+        <v>1.29</v>
       </c>
       <c r="I28" t="n">
-        <v>2.22</v>
+        <v>1.34</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>5.8</v>
       </c>
       <c r="K28" t="n">
-        <v>3.85</v>
+        <v>7.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P28" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S28" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q28" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.15</v>
-      </c>
       <c r="T28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U28" t="n">
         <v>1.7</v>
       </c>
-      <c r="U28" t="n">
-        <v>2.26</v>
-      </c>
       <c r="V28" t="n">
-        <v>1.82</v>
+        <v>3.9</v>
       </c>
       <c r="W28" t="n">
-        <v>1.38</v>
+        <v>1.07</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="AG28" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="AM28" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AN28" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.93</v>
+        <v>1.58</v>
       </c>
       <c r="G29" t="n">
-        <v>1.97</v>
+        <v>1.59</v>
       </c>
       <c r="H29" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="I29" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="K29" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="R29" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="S29" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="T29" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="U29" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="V29" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="W29" t="n">
-        <v>2.02</v>
+        <v>2.68</v>
       </c>
       <c r="X29" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="Z29" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AA29" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM29" t="n">
         <v>110</v>
       </c>
-      <c r="AB29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>90</v>
-      </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="AO29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G30" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I30" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K30" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="P30" t="n">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="R30" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="S30" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="U30" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W30" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="X30" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="Z30" t="n">
         <v>55</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB30" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE30" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AF30" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG30" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="n">
         <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM30" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AO30" t="n">
         <v>110</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="W31" t="n">
         <v>1.38</v>
       </c>
-      <c r="G31" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="X31" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC31" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="I31" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K31" t="n">
-        <v>6</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N31" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W31" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="X31" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB31" t="n">
+      <c r="AD31" t="n">
         <v>11</v>
       </c>
-      <c r="AC31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE31" t="n">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.6</v>
+        <v>26</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AI31" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12.5</v>
+        <v>65</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN31" t="n">
         <v>34</v>
       </c>
-      <c r="AM31" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>5.3</v>
-      </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="G32" t="n">
-        <v>1.99</v>
+        <v>1.62</v>
       </c>
       <c r="H32" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J32" t="n">
         <v>4.4</v>
       </c>
-      <c r="J32" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K32" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="L32" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U32" t="n">
         <v>2.08</v>
       </c>
-      <c r="Q32" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V32" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="X32" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y32" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="Z32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL32" t="n">
         <v>32</v>
       </c>
-      <c r="AA32" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>34</v>
-      </c>
       <c r="AM32" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN32" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO32" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.1</v>
+        <v>1.39</v>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>1.41</v>
       </c>
       <c r="H33" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P33" t="n">
         <v>2.5</v>
       </c>
-      <c r="I33" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.89</v>
-      </c>
       <c r="Q33" t="n">
-        <v>2.04</v>
+        <v>1.58</v>
       </c>
       <c r="R33" t="n">
-        <v>1.34</v>
+        <v>1.61</v>
       </c>
       <c r="S33" t="n">
-        <v>3.6</v>
+        <v>2.44</v>
       </c>
       <c r="T33" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="U33" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.65</v>
+        <v>1.11</v>
       </c>
       <c r="W33" t="n">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="X33" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Y33" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG33" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z33" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB33" t="n">
+      <c r="AH33" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>60</v>
-      </c>
       <c r="AK33" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="AL33" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AM33" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AN33" t="n">
-        <v>36</v>
+        <v>5.3</v>
       </c>
       <c r="AO33" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.6</v>
+        <v>1.99</v>
       </c>
       <c r="G34" t="n">
-        <v>1.63</v>
+        <v>2.04</v>
       </c>
       <c r="H34" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="J34" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="K34" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P34" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R34" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S34" t="n">
         <v>3.1</v>
       </c>
       <c r="T34" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="V34" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="W34" t="n">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="X34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH34" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y34" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z34" t="n">
+      <c r="AI34" t="n">
         <v>55</v>
       </c>
-      <c r="AA34" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>95</v>
-      </c>
       <c r="AJ34" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AK34" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AL34" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM34" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AN34" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AO34" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,127 +5113,127 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.37</v>
+        <v>3.05</v>
       </c>
       <c r="G35" t="n">
-        <v>1.39</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
-        <v>9.4</v>
+        <v>2.56</v>
       </c>
       <c r="I35" t="n">
-        <v>10</v>
+        <v>2.6</v>
       </c>
       <c r="J35" t="n">
-        <v>5.9</v>
+        <v>3.45</v>
       </c>
       <c r="K35" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>6.2</v>
+        <v>3.65</v>
       </c>
       <c r="O35" t="n">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="P35" t="n">
-        <v>2.72</v>
+        <v>1.88</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.51</v>
+        <v>2.06</v>
       </c>
       <c r="R35" t="n">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="S35" t="n">
-        <v>2.24</v>
+        <v>3.75</v>
       </c>
       <c r="T35" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="U35" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="V35" t="n">
-        <v>1.11</v>
+        <v>1.62</v>
       </c>
       <c r="W35" t="n">
-        <v>3.6</v>
+        <v>1.47</v>
       </c>
       <c r="X35" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>50</v>
+        <v>10.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>95</v>
+        <v>15.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="AB35" t="n">
         <v>12</v>
       </c>
       <c r="AC35" t="n">
-        <v>14.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN35" t="n">
         <v>36</v>
       </c>
-      <c r="AE35" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>4.6</v>
-      </c>
       <c r="AO35" t="n">
-        <v>130</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="H36" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="J36" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="K36" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L36" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="O36" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="P36" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="R36" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="S36" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="T36" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="U36" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="V36" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="W36" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA36" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AB36" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE36" t="n">
         <v>55</v>
       </c>
       <c r="AF36" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI36" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AK36" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AL36" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AM36" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN36" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AO36" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+      <c r="I37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="X37" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>890</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF37" t="n">
         <v>8</v>
       </c>
-      <c r="G37" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K37" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V37" t="n">
-        <v>3</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X37" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>80</v>
-      </c>
       <c r="AG37" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AH37" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AI37" t="n">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="AJ37" t="n">
-        <v>320</v>
+        <v>9.4</v>
       </c>
       <c r="AK37" t="n">
-        <v>180</v>
+        <v>15.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AM37" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="AN37" t="n">
-        <v>160</v>
+        <v>4.4</v>
       </c>
       <c r="AO37" t="n">
-        <v>8</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="G38" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="H38" t="n">
-        <v>2.08</v>
+        <v>2.54</v>
       </c>
       <c r="I38" t="n">
-        <v>2.12</v>
+        <v>2.76</v>
       </c>
       <c r="J38" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K38" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="L38" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>3.55</v>
+        <v>2.92</v>
       </c>
       <c r="O38" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P38" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="R38" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="S38" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T38" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U38" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="V38" t="n">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="W38" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="X38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG38" t="n">
         <v>14</v>
       </c>
-      <c r="Y38" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH38" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AJ38" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AK38" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM38" t="n">
         <v>110</v>
       </c>
       <c r="AN38" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AO38" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.24</v>
+        <v>7.2</v>
       </c>
       <c r="G39" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O39" t="n">
         <v>1.27</v>
       </c>
-      <c r="H39" t="n">
+      <c r="P39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X39" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z39" t="n">
         <v>9.6</v>
       </c>
-      <c r="I39" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="AA39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>250</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>150</v>
+      </c>
+      <c r="AO39" t="n">
         <v>8</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N39" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W39" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X39" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>960</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>430</v>
       </c>
     </row>
     <row r="40">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.18</v>
+        <v>3.85</v>
       </c>
       <c r="G40" t="n">
-        <v>1.23</v>
+        <v>4.2</v>
       </c>
       <c r="H40" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X40" t="n">
         <v>14</v>
       </c>
-      <c r="I40" t="n">
-        <v>25</v>
-      </c>
-      <c r="J40" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K40" t="n">
-        <v>9</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W40" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X40" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB40" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC40" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE40" t="n">
         <v>23</v>
       </c>
-      <c r="AD40" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF40" t="n">
-        <v>9.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="AG40" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ40" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="AK40" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN40" t="n">
-        <v>3.75</v>
+        <v>55</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="G41" t="n">
-        <v>16.5</v>
+        <v>2.22</v>
       </c>
       <c r="H41" t="n">
-        <v>1.25</v>
+        <v>3.85</v>
       </c>
       <c r="I41" t="n">
-        <v>1.26</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="K41" t="n">
-        <v>7.6</v>
+        <v>3.5</v>
       </c>
       <c r="L41" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="M41" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
         <v>3.45</v>
       </c>
       <c r="O41" t="n">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="P41" t="n">
-        <v>2.44</v>
+        <v>1.83</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.47</v>
+        <v>2.12</v>
       </c>
       <c r="R41" t="n">
-        <v>1.66</v>
+        <v>1.31</v>
       </c>
       <c r="S41" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="T41" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="U41" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="V41" t="n">
-        <v>4.2</v>
+        <v>1.34</v>
       </c>
       <c r="W41" t="n">
-        <v>1.06</v>
+        <v>1.82</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y41" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Z41" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AA41" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC41" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="AD41" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AF41" t="n">
-        <v>170</v>
+        <v>13.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AI41" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL41" t="n">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>4.1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
@@ -6058,127 +6058,127 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1.18</v>
       </c>
       <c r="G42" t="n">
-        <v>2.08</v>
+        <v>1.19</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>19.5</v>
       </c>
       <c r="I42" t="n">
-        <v>4.4</v>
+        <v>25</v>
       </c>
       <c r="J42" t="n">
-        <v>3.5</v>
+        <v>8.4</v>
       </c>
       <c r="K42" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L42" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>1.94</v>
+        <v>1.1</v>
       </c>
       <c r="O42" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="P42" t="n">
-        <v>1.9</v>
+        <v>2.58</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="R42" t="n">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
       <c r="S42" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="T42" t="n">
-        <v>1.78</v>
+        <v>2.34</v>
       </c>
       <c r="U42" t="n">
-        <v>2.04</v>
+        <v>1.6</v>
       </c>
       <c r="V42" t="n">
-        <v>1.3</v>
+        <v>1.04</v>
       </c>
       <c r="W42" t="n">
-        <v>1.92</v>
+        <v>6.2</v>
       </c>
       <c r="X42" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="Y42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AC42" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AD42" t="n">
         <v>980</v>
       </c>
       <c r="AE42" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG42" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AH42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AK42" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>980</v>
+        <v>3.75</v>
       </c>
       <c r="AO42" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,121 +6193,121 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.57</v>
+        <v>10.5</v>
       </c>
       <c r="G43" t="n">
-        <v>1.59</v>
+        <v>16.5</v>
       </c>
       <c r="H43" t="n">
-        <v>6.4</v>
+        <v>1.25</v>
       </c>
       <c r="I43" t="n">
-        <v>7.2</v>
+        <v>1.31</v>
       </c>
       <c r="J43" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="K43" t="n">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="L43" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="P43" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="R43" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="S43" t="n">
-        <v>2.8</v>
+        <v>2.02</v>
       </c>
       <c r="T43" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="U43" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="V43" t="n">
-        <v>1.16</v>
+        <v>4.1</v>
       </c>
       <c r="W43" t="n">
-        <v>2.68</v>
+        <v>1.06</v>
       </c>
       <c r="X43" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Z43" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AA43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>170</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL43" t="n">
         <v>190</v>
       </c>
-      <c r="AB43" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>30</v>
-      </c>
       <c r="AM43" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>100</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="44">
@@ -6328,121 +6328,121 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.9</v>
+        <v>2.06</v>
       </c>
       <c r="G44" t="n">
-        <v>3.25</v>
+        <v>2.16</v>
       </c>
       <c r="H44" t="n">
-        <v>2.54</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>2.76</v>
+        <v>4.3</v>
       </c>
       <c r="J44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K44" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="L44" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="P44" t="n">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="Q44" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U44" t="n">
         <v>2.04</v>
       </c>
-      <c r="R44" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.88</v>
-      </c>
       <c r="V44" t="n">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="W44" t="n">
-        <v>1.46</v>
+        <v>1.87</v>
       </c>
       <c r="X44" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Y44" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Z44" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AA44" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AB44" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AD44" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AE44" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AF44" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AG44" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AH44" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AI44" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AJ44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO44" t="n">
         <v>55</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="45">
@@ -6496,25 +6496,25 @@
         <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O45" t="n">
         <v>1.32</v>
       </c>
       <c r="P45" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R45" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S45" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T45" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U45" t="n">
         <v>2.2</v>
@@ -6578,6 +6578,276 @@
       </c>
       <c r="AO45" t="n">
         <v>34</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Az Alkmaar</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W46" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="X46" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>22:10:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>America de Cali S.A</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K47" t="n">
+        <v>980</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I2" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="S2" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="U2" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="V2" t="n">
         <v>1.64</v>
       </c>
       <c r="W2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="G3" t="n">
         <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="I3" t="n">
         <v>2.02</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
         <v>4.3</v>
@@ -826,64 +826,64 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="R3" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S3" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="T3" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U3" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="V3" t="n">
         <v>1.98</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
         <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>15</v>
@@ -895,16 +895,16 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
         <v>8.199999999999999</v>
@@ -937,55 +937,55 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="G4" t="n">
         <v>1.92</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K4" t="n">
         <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="U4" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
         <v>2.08</v>
@@ -994,55 +994,55 @@
         <v>17.5</v>
       </c>
       <c r="Y4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD4" t="n">
         <v>21</v>
       </c>
-      <c r="Z4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN4" t="n">
         <v>13.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H5" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="I5" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
         <v>2.96</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
         <v>1.53</v>
@@ -1129,7 +1129,7 @@
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,13 +1138,13 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="I6" t="n">
         <v>2.76</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.42</v>
@@ -1240,16 +1240,16 @@
         <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="T6" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U6" t="n">
         <v>1.95</v>
@@ -1258,7 +1258,7 @@
         <v>1.56</v>
       </c>
       <c r="W6" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X6" t="n">
         <v>11.5</v>
@@ -1267,7 +1267,7 @@
         <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
         <v>60</v>
@@ -1282,10 +1282,10 @@
         <v>13.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
         <v>13.5</v>
@@ -1294,25 +1294,25 @@
         <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK6" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
         <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AO6" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I7" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,31 +1366,31 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
         <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
         <v>1.32</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
@@ -1498,10 +1498,10 @@
         <v>1.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.32</v>
@@ -1519,22 +1519,22 @@
         <v>3.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
         <v>1.92</v>
       </c>
       <c r="V8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W8" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="n">
         <v>55</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
         <v>27</v>
@@ -1555,31 +1555,31 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1615,19 +1615,19 @@
         <v>1.47</v>
       </c>
       <c r="G9" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="H9" t="n">
         <v>6.2</v>
       </c>
       <c r="I9" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.31</v>
@@ -1636,16 +1636,16 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="R9" t="n">
         <v>1.36</v>
@@ -1657,19 +1657,19 @@
         <v>1.84</v>
       </c>
       <c r="U9" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="X9" t="n">
         <v>19.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,13 +1678,13 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1693,7 +1693,7 @@
         <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
         <v>32</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
         <v>4.5</v>
@@ -1765,40 +1765,40 @@
         <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R10" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U10" t="n">
         <v>2.34</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.32</v>
       </c>
       <c r="V10" t="n">
         <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="X10" t="n">
         <v>28</v>
@@ -1822,19 +1822,19 @@
         <v>24</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF10" t="n">
         <v>13</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
         <v>17</v>
@@ -1846,10 +1846,10 @@
         <v>28</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO10" t="n">
         <v>60</v>
@@ -1891,7 +1891,7 @@
         <v>2.32</v>
       </c>
       <c r="I11" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J11" t="n">
         <v>3.7</v>
@@ -1906,10 +1906,10 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
         <v>2.18</v>
@@ -1918,40 +1918,40 @@
         <v>1.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S11" t="n">
         <v>2.92</v>
       </c>
       <c r="T11" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U11" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="V11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W11" t="n">
         <v>1.43</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA11" t="n">
         <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>11.5</v>
@@ -1969,19 +1969,19 @@
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN11" t="n">
         <v>28</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G12" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.75</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.34</v>
@@ -2041,7 +2041,7 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.26</v>
@@ -2050,25 +2050,25 @@
         <v>2.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="X12" t="n">
         <v>18</v>
@@ -2077,22 +2077,22 @@
         <v>16.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="n">
         <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
         <v>14.5</v>
@@ -2104,25 +2104,25 @@
         <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
         <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -2176,7 +2176,7 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.21</v>
@@ -2197,7 +2197,7 @@
         <v>1.57</v>
       </c>
       <c r="U13" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="V13" t="n">
         <v>1.48</v>
@@ -2212,7 +2212,7 @@
         <v>17.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
         <v>48</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
@@ -2323,52 +2323,52 @@
         <v>1.94</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB14" t="n">
         <v>9.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
         <v>18.5</v>
@@ -2386,10 +2386,10 @@
         <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO14" t="n">
         <v>55</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="G15" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="I15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -2446,34 +2446,34 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="U15" t="n">
         <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X15" t="n">
         <v>14.5</v>
@@ -2482,52 +2482,52 @@
         <v>8</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AK15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL15" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN15" t="n">
         <v>140</v>
       </c>
-      <c r="AN15" t="n">
-        <v>120</v>
-      </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="16">
@@ -2563,7 +2563,7 @@
         <v>1.65</v>
       </c>
       <c r="H16" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I16" t="n">
         <v>6.2</v>
@@ -2581,25 +2581,25 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S16" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T16" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U16" t="n">
         <v>2.1</v>
@@ -2620,10 +2620,10 @@
         <v>50</v>
       </c>
       <c r="AA16" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC16" t="n">
         <v>9.6</v>
@@ -2632,10 +2632,10 @@
         <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG16" t="n">
         <v>9.6</v>
@@ -2644,7 +2644,7 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="n">
         <v>16</v>
@@ -2659,10 +2659,10 @@
         <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO16" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2692,25 +2692,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="G17" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2722,67 +2722,67 @@
         <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T17" t="n">
         <v>1.67</v>
       </c>
       <c r="U17" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V17" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="X17" t="n">
         <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA17" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
         <v>8.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF17" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
         <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK17" t="n">
         <v>20</v>
@@ -2791,13 +2791,13 @@
         <v>32</v>
       </c>
       <c r="AM17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="H18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="J18" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.28</v>
@@ -2851,37 +2851,37 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="Q18" t="n">
         <v>1.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S18" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="T18" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V18" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="W18" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y18" t="n">
         <v>12</v>
@@ -2890,22 +2890,22 @@
         <v>11</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
         <v>10</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
         <v>27</v>
@@ -2914,25 +2914,25 @@
         <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
         <v>990</v>
       </c>
       <c r="AM18" t="n">
-        <v>990</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="G19" t="n">
         <v>1.54</v>
       </c>
       <c r="H19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K19" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.31</v>
@@ -2986,22 +2986,22 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.1</v>
+        <v>3.45</v>
       </c>
       <c r="O19" t="n">
         <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S19" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="T19" t="n">
         <v>1.76</v>
@@ -3010,22 +3010,22 @@
         <v>2.06</v>
       </c>
       <c r="V19" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W19" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="X19" t="n">
         <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Z19" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB19" t="n">
         <v>11.5</v>
@@ -3040,7 +3040,7 @@
         <v>110</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
@@ -3049,10 +3049,10 @@
         <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
         <v>980</v>
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="H20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.47</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
         <v>3.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.7</v>
       </c>
-      <c r="Q20" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.64</v>
-      </c>
       <c r="X20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM20" t="n">
         <v>980</v>
       </c>
-      <c r="AA20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>150</v>
-      </c>
       <c r="AN20" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AO20" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="I21" t="n">
         <v>12.5</v>
@@ -3271,10 +3271,10 @@
         <v>1.54</v>
       </c>
       <c r="S21" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T21" t="n">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="U21" t="n">
         <v>1.81</v>
@@ -3283,7 +3283,7 @@
         <v>1.09</v>
       </c>
       <c r="W21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X21" t="n">
         <v>980</v>
@@ -3298,10 +3298,10 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD21" t="n">
         <v>980</v>
@@ -3310,7 +3310,7 @@
         <v>200</v>
       </c>
       <c r="AF21" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AG21" t="n">
         <v>11.5</v>
@@ -3322,7 +3322,7 @@
         <v>160</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
         <v>18</v>
@@ -3334,7 +3334,7 @@
         <v>180</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO21" t="n">
         <v>260</v>
@@ -3367,76 +3367,76 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="G22" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="I22" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="J22" t="n">
         <v>3.95</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P22" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R22" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="T22" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="U22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V22" t="n">
         <v>2.08</v>
       </c>
-      <c r="V22" t="n">
-        <v>2.22</v>
-      </c>
       <c r="W22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AB22" t="n">
         <v>980</v>
       </c>
       <c r="AC22" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
         <v>11</v>
@@ -3448,31 +3448,31 @@
         <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AI22" t="n">
         <v>980</v>
       </c>
       <c r="AJ22" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL22" t="n">
         <v>65</v>
       </c>
-      <c r="AL22" t="n">
-        <v>75</v>
-      </c>
       <c r="AM22" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="23">
@@ -3502,94 +3502,94 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="H23" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="I23" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S23" t="n">
         <v>3.25</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.96</v>
-      </c>
       <c r="T23" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V23" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="X23" t="n">
         <v>15.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AB23" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC23" t="n">
         <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ23" t="n">
         <v>95</v>
@@ -3598,16 +3598,16 @@
         <v>55</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN23" t="n">
         <v>60</v>
       </c>
       <c r="AO23" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="24">
@@ -3637,85 +3637,85 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G24" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J24" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L24" t="n">
         <v>1.29</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
         <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="R24" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S24" t="n">
         <v>2.48</v>
       </c>
       <c r="T24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U24" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V24" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="W24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X24" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y24" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AA24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
         <v>980</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE24" t="n">
         <v>32</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AG24" t="n">
         <v>12</v>
@@ -3724,10 +3724,10 @@
         <v>15.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK24" t="n">
         <v>22</v>
@@ -3736,13 +3736,13 @@
         <v>29</v>
       </c>
       <c r="AM24" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -3772,58 +3772,58 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H25" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="n">
         <v>1.28</v>
       </c>
       <c r="P25" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="Q25" t="n">
         <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="T25" t="n">
         <v>1.7</v>
       </c>
       <c r="U25" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W25" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X25" t="n">
         <v>16.5</v>
@@ -3832,52 +3832,52 @@
         <v>11.5</v>
       </c>
       <c r="Z25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE25" t="n">
         <v>980</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AF25" t="n">
         <v>980</v>
       </c>
-      <c r="AB25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>28</v>
-      </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ25" t="n">
         <v>70</v>
       </c>
       <c r="AK25" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL25" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM25" t="n">
         <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AO25" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -3910,13 +3910,13 @@
         <v>1.81</v>
       </c>
       <c r="G26" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H26" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J26" t="n">
         <v>3.9</v>
@@ -3931,16 +3931,16 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="R26" t="n">
         <v>1.41</v>
@@ -3949,70 +3949,70 @@
         <v>1.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U26" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V26" t="n">
         <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="X26" t="n">
         <v>22</v>
       </c>
       <c r="Y26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z26" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB26" t="n">
         <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL26" t="n">
         <v>980</v>
       </c>
       <c r="AM26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -4045,16 +4045,16 @@
         <v>3.7</v>
       </c>
       <c r="G27" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H27" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="I27" t="n">
         <v>2.14</v>
       </c>
       <c r="J27" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
         <v>3.8</v>
@@ -4066,70 +4066,70 @@
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>3.55</v>
+        <v>2.06</v>
       </c>
       <c r="O27" t="n">
         <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="R27" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S27" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="T27" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U27" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V27" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W27" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X27" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AA27" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AB27" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AF27" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AG27" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AH27" t="n">
         <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ27" t="n">
         <v>95</v>
@@ -4138,10 +4138,10 @@
         <v>55</v>
       </c>
       <c r="AL27" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN27" t="n">
         <v>980</v>
@@ -4189,7 +4189,7 @@
         <v>1.34</v>
       </c>
       <c r="J28" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
         <v>7.2</v>
@@ -4210,13 +4210,13 @@
         <v>2.54</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R28" t="n">
         <v>1.62</v>
       </c>
       <c r="S28" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="T28" t="n">
         <v>1.83</v>
@@ -4246,10 +4246,10 @@
         <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AD28" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
@@ -4270,7 +4270,7 @@
         <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AL28" t="n">
         <v>170</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G29" t="n">
         <v>1.59</v>
@@ -4321,7 +4321,7 @@
         <v>6.4</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J29" t="n">
         <v>4.5</v>
@@ -4330,43 +4330,43 @@
         <v>4.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P29" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="R29" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S29" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="T29" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U29" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V29" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W29" t="n">
         <v>2.68</v>
       </c>
       <c r="X29" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y29" t="n">
         <v>26</v>
@@ -4378,7 +4378,7 @@
         <v>190</v>
       </c>
       <c r="AB29" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC29" t="n">
         <v>10.5</v>
@@ -4390,10 +4390,10 @@
         <v>85</v>
       </c>
       <c r="AF29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG29" t="n">
         <v>9.6</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>9.199999999999999</v>
       </c>
       <c r="AH29" t="n">
         <v>21</v>
@@ -4402,22 +4402,22 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM29" t="n">
         <v>110</v>
       </c>
       <c r="AN29" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO29" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G30" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H30" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J30" t="n">
         <v>4.2</v>
@@ -4465,13 +4465,13 @@
         <v>4.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O30" t="n">
         <v>1.28</v>
@@ -4480,7 +4480,7 @@
         <v>2.06</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R30" t="n">
         <v>1.42</v>
@@ -4492,31 +4492,31 @@
         <v>1.9</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W30" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="X30" t="n">
         <v>16.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z30" t="n">
         <v>55</v>
       </c>
       <c r="AA30" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB30" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD30" t="n">
         <v>25</v>
@@ -4531,10 +4531,10 @@
         <v>9.6</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ30" t="n">
         <v>15</v>
@@ -4585,19 +4585,19 @@
         <v>3.55</v>
       </c>
       <c r="G31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H31" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I31" t="n">
         <v>2.2</v>
       </c>
-      <c r="I31" t="n">
-        <v>2.24</v>
-      </c>
       <c r="J31" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K31" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L31" t="n">
         <v>1.35</v>
@@ -4606,31 +4606,31 @@
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P31" t="n">
         <v>2.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="R31" t="n">
         <v>1.43</v>
       </c>
       <c r="S31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U31" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V31" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="W31" t="n">
         <v>1.38</v>
@@ -4639,31 +4639,31 @@
         <v>17</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
         <v>14.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB31" t="n">
         <v>15.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF31" t="n">
         <v>26</v>
       </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH31" t="n">
         <v>17</v>
@@ -4672,22 +4672,22 @@
         <v>34</v>
       </c>
       <c r="AJ31" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK31" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL31" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM31" t="n">
         <v>85</v>
       </c>
       <c r="AN31" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO31" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="32">
@@ -4744,7 +4744,7 @@
         <v>4.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P32" t="n">
         <v>2.24</v>
@@ -4762,7 +4762,7 @@
         <v>1.84</v>
       </c>
       <c r="U32" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V32" t="n">
         <v>1.18</v>
@@ -4774,7 +4774,7 @@
         <v>19</v>
       </c>
       <c r="Y32" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Z32" t="n">
         <v>55</v>
@@ -4783,7 +4783,7 @@
         <v>170</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC32" t="n">
         <v>10</v>
@@ -4819,7 +4819,7 @@
         <v>110</v>
       </c>
       <c r="AN32" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO32" t="n">
         <v>85</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="G33" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L33" t="n">
         <v>1.28</v>
@@ -4876,43 +4876,43 @@
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="O33" t="n">
         <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R33" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
         <v>2.44</v>
       </c>
       <c r="T33" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V33" t="n">
         <v>1.11</v>
       </c>
       <c r="W33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="X33" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Y33" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="Z33" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA33" t="n">
         <v>340</v>
@@ -4921,31 +4921,31 @@
         <v>11</v>
       </c>
       <c r="AC33" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="n">
         <v>150</v>
       </c>
       <c r="AF33" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG33" t="n">
         <v>10.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI33" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK33" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL33" t="n">
         <v>34</v>
@@ -4954,7 +4954,7 @@
         <v>140</v>
       </c>
       <c r="AN33" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="G34" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I34" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="J34" t="n">
         <v>3.8</v>
@@ -5011,7 +5011,7 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O34" t="n">
         <v>1.29</v>
@@ -5020,13 +5020,13 @@
         <v>2.08</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R34" t="n">
         <v>1.43</v>
       </c>
       <c r="S34" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T34" t="n">
         <v>1.75</v>
@@ -5035,37 +5035,37 @@
         <v>2.22</v>
       </c>
       <c r="V34" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="W34" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="X34" t="n">
         <v>16.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z34" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA34" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AB34" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF34" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG34" t="n">
         <v>10.5</v>
@@ -5074,13 +5074,13 @@
         <v>17.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ34" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK34" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL34" t="n">
         <v>34</v>
@@ -5089,10 +5089,10 @@
         <v>90</v>
       </c>
       <c r="AN34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO34" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
         <v>3.1</v>
       </c>
       <c r="H35" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J35" t="n">
         <v>3.45</v>
       </c>
       <c r="K35" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L35" t="n">
         <v>1.43</v>
@@ -5146,10 +5146,10 @@
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P35" t="n">
         <v>1.88</v>
@@ -5167,40 +5167,40 @@
         <v>1.81</v>
       </c>
       <c r="U35" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V35" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W35" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X35" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y35" t="n">
         <v>10.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA35" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC35" t="n">
         <v>7.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE35" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF35" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG35" t="n">
         <v>13.5</v>
@@ -5212,7 +5212,7 @@
         <v>44</v>
       </c>
       <c r="AJ35" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK35" t="n">
         <v>38</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="G36" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H36" t="n">
         <v>4.3</v>
       </c>
       <c r="I36" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J36" t="n">
         <v>3.8</v>
@@ -5281,7 +5281,7 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O36" t="n">
         <v>1.28</v>
@@ -5290,7 +5290,7 @@
         <v>2.1</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R36" t="n">
         <v>1.43</v>
@@ -5302,13 +5302,13 @@
         <v>1.73</v>
       </c>
       <c r="U36" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V36" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W36" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X36" t="n">
         <v>17</v>
@@ -5320,7 +5320,7 @@
         <v>34</v>
       </c>
       <c r="AA36" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB36" t="n">
         <v>10.5</v>
@@ -5335,16 +5335,16 @@
         <v>55</v>
       </c>
       <c r="AF36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG36" t="n">
         <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ36" t="n">
         <v>22</v>
@@ -5398,7 +5398,7 @@
         <v>1.27</v>
       </c>
       <c r="H37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I37" t="n">
         <v>15.5</v>
@@ -5416,46 +5416,46 @@
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O37" t="n">
         <v>1.19</v>
       </c>
       <c r="P37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S37" t="n">
         <v>2.44</v>
       </c>
-      <c r="Q37" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.42</v>
-      </c>
       <c r="T37" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U37" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="V37" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W37" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="X37" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y37" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Z37" t="n">
         <v>160</v>
       </c>
       <c r="AA37" t="n">
-        <v>890</v>
+        <v>830</v>
       </c>
       <c r="AB37" t="n">
         <v>9.800000000000001</v>
@@ -5464,10 +5464,10 @@
         <v>16.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE37" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="n">
         <v>8</v>
@@ -5479,25 +5479,25 @@
         <v>40</v>
       </c>
       <c r="AI37" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ37" t="n">
         <v>9.4</v>
       </c>
       <c r="AK37" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL37" t="n">
         <v>46</v>
       </c>
       <c r="AM37" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO37" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38">
@@ -5530,13 +5530,13 @@
         <v>2.9</v>
       </c>
       <c r="G38" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H38" t="n">
         <v>2.54</v>
       </c>
       <c r="I38" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J38" t="n">
         <v>3.4</v>
@@ -5551,28 +5551,28 @@
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>2.92</v>
+        <v>1.81</v>
       </c>
       <c r="O38" t="n">
         <v>1.36</v>
       </c>
       <c r="P38" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q38" t="n">
         <v>2.04</v>
       </c>
       <c r="R38" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S38" t="n">
-        <v>3.25</v>
+        <v>1.05</v>
       </c>
       <c r="T38" t="n">
         <v>1.79</v>
       </c>
       <c r="U38" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="V38" t="n">
         <v>1.57</v>
@@ -5590,16 +5590,16 @@
         <v>17.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB38" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC38" t="n">
         <v>7.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE38" t="n">
         <v>32</v>
@@ -5611,16 +5611,16 @@
         <v>14</v>
       </c>
       <c r="AH38" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AI38" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ38" t="n">
         <v>55</v>
       </c>
       <c r="AK38" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL38" t="n">
         <v>55</v>
@@ -5632,7 +5632,7 @@
         <v>980</v>
       </c>
       <c r="AO38" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -5662,31 +5662,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="G39" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H39" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I39" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J39" t="n">
         <v>4.6</v>
       </c>
       <c r="K39" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L39" t="n">
         <v>1.36</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="O39" t="n">
         <v>1.27</v>
@@ -5695,28 +5695,28 @@
         <v>2.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="R39" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="T39" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U39" t="n">
         <v>1.87</v>
       </c>
       <c r="V39" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="W39" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X39" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Y39" t="n">
         <v>10.5</v>
@@ -5728,7 +5728,7 @@
         <v>14.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AC39" t="n">
         <v>10.5</v>
@@ -5740,31 +5740,31 @@
         <v>16.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AG39" t="n">
         <v>30</v>
       </c>
       <c r="AH39" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI39" t="n">
         <v>34</v>
       </c>
       <c r="AJ39" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AK39" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL39" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM39" t="n">
         <v>130</v>
       </c>
       <c r="AN39" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AO39" t="n">
         <v>8</v>
@@ -5800,52 +5800,52 @@
         <v>3.85</v>
       </c>
       <c r="G40" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H40" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I40" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K40" t="n">
         <v>3.75</v>
       </c>
       <c r="L40" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="O40" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P40" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="R40" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S40" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="T40" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U40" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V40" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W40" t="n">
         <v>1.32</v>
@@ -5854,16 +5854,16 @@
         <v>14</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z40" t="n">
         <v>13.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB40" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AC40" t="n">
         <v>8.199999999999999</v>
@@ -5872,22 +5872,22 @@
         <v>11</v>
       </c>
       <c r="AE40" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF40" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG40" t="n">
         <v>16.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ40" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="n">
         <v>980</v>
@@ -5896,13 +5896,13 @@
         <v>60</v>
       </c>
       <c r="AM40" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN40" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AO40" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
     </row>
     <row r="41">
@@ -5938,106 +5938,106 @@
         <v>2.22</v>
       </c>
       <c r="H41" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I41" t="n">
         <v>3.85</v>
       </c>
-      <c r="I41" t="n">
-        <v>4</v>
-      </c>
       <c r="J41" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K41" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L41" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S41" t="n">
         <v>3.45</v>
       </c>
-      <c r="O41" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q41" t="n">
+      <c r="T41" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U41" t="n">
         <v>2.12</v>
       </c>
-      <c r="R41" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.04</v>
-      </c>
       <c r="V41" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W41" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="X41" t="n">
         <v>13</v>
       </c>
       <c r="Y41" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA41" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB41" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AC41" t="n">
         <v>8</v>
       </c>
       <c r="AD41" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AF41" t="n">
         <v>13.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH41" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI41" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ41" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK41" t="n">
         <v>24</v>
       </c>
       <c r="AL41" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM41" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN41" t="n">
         <v>19.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
@@ -6073,16 +6073,16 @@
         <v>1.19</v>
       </c>
       <c r="H42" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="I42" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J42" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L42" t="n">
         <v>1.27</v>
@@ -6091,25 +6091,25 @@
         <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="O42" t="n">
         <v>1.17</v>
       </c>
       <c r="P42" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q42" t="n">
         <v>1.55</v>
       </c>
       <c r="R42" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S42" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T42" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="U42" t="n">
         <v>1.6</v>
@@ -6121,13 +6121,13 @@
         <v>6.2</v>
       </c>
       <c r="X42" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
         <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
@@ -6160,16 +6160,16 @@
         <v>10</v>
       </c>
       <c r="AK42" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
         <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6211,13 +6211,13 @@
         <v>1.25</v>
       </c>
       <c r="I43" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="J43" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K43" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="L43" t="n">
         <v>1.25</v>
@@ -6226,7 +6226,7 @@
         <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>5.1</v>
+        <v>3.45</v>
       </c>
       <c r="O43" t="n">
         <v>1.16</v>
@@ -6235,7 +6235,7 @@
         <v>2.44</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="R43" t="n">
         <v>1.66</v>
@@ -6247,10 +6247,10 @@
         <v>2.02</v>
       </c>
       <c r="U43" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V43" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="W43" t="n">
         <v>1.06</v>
@@ -6280,7 +6280,7 @@
         <v>980</v>
       </c>
       <c r="AF43" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
         <v>1000</v>
@@ -6298,7 +6298,7 @@
         <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
         <v>1000</v>
@@ -6307,7 +6307,7 @@
         <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="44">
@@ -6337,112 +6337,112 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G44" t="n">
         <v>2.16</v>
       </c>
       <c r="H44" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="J44" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K44" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
         <v>1.42</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="O44" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P44" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="R44" t="n">
         <v>1.35</v>
       </c>
       <c r="S44" t="n">
-        <v>2.96</v>
+        <v>3.45</v>
       </c>
       <c r="T44" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U44" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V44" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W44" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X44" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Y44" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AA44" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB44" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AC44" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD44" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF44" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH44" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI44" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ44" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AK44" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AL44" t="n">
         <v>980</v>
       </c>
       <c r="AM44" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN44" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -6472,25 +6472,25 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="G45" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H45" t="n">
         <v>3.1</v>
       </c>
       <c r="I45" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J45" t="n">
         <v>3.4</v>
       </c>
       <c r="K45" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L45" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M45" t="n">
         <v>1.07</v>
@@ -6499,10 +6499,10 @@
         <v>3.8</v>
       </c>
       <c r="O45" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P45" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q45" t="n">
         <v>2.02</v>
@@ -6517,13 +6517,13 @@
         <v>1.78</v>
       </c>
       <c r="U45" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V45" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W45" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X45" t="n">
         <v>13.5</v>
@@ -6532,10 +6532,10 @@
         <v>12.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA45" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB45" t="n">
         <v>11</v>
@@ -6607,25 +6607,25 @@
         </is>
       </c>
       <c r="F46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G46" t="n">
         <v>1.37</v>
       </c>
-      <c r="G46" t="n">
-        <v>1.38</v>
-      </c>
       <c r="H46" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I46" t="n">
         <v>10.5</v>
       </c>
       <c r="J46" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K46" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L46" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M46" t="n">
         <v>1.03</v>
@@ -6637,28 +6637,28 @@
         <v>1.16</v>
       </c>
       <c r="P46" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="R46" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S46" t="n">
         <v>2.24</v>
       </c>
       <c r="T46" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U46" t="n">
         <v>2.06</v>
       </c>
       <c r="V46" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W46" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="X46" t="n">
         <v>32</v>
@@ -6670,7 +6670,7 @@
         <v>95</v>
       </c>
       <c r="AA46" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AB46" t="n">
         <v>12.5</v>
@@ -6706,7 +6706,7 @@
         <v>32</v>
       </c>
       <c r="AM46" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN46" t="n">
         <v>4.4</v>
@@ -6775,7 +6775,7 @@
         <v>1.24</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="G2" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="I2" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="R2" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U2" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="V2" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="W2" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO2" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -802,67 +802,67 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="I3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="R3" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="S3" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="T3" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="U3" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="V3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>1.32</v>
       </c>
       <c r="X3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AA3" t="n">
         <v>24</v>
@@ -871,13 +871,13 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -886,10 +886,10 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -901,13 +901,13 @@
         <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -979,10 +979,10 @@
         <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
         <v>1.27</v>
@@ -991,10 +991,10 @@
         <v>2.08</v>
       </c>
       <c r="X4" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="n">
         <v>17.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>18</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,37 +1003,37 @@
         <v>130</v>
       </c>
       <c r="AB4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG4" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12</v>
-      </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
         <v>130</v>
@@ -1087,76 +1087,76 @@
         <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
         <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="W5" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="G6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.1</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1240,79 +1240,79 @@
         <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
         <v>60</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
         <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
         <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AO6" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="H7" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="I7" t="n">
         <v>2.42</v>
       </c>
       <c r="J7" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,40 +1366,40 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W7" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,13 +1408,13 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1441,7 +1441,7 @@
         <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
@@ -1486,19 +1486,19 @@
         <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
         <v>3.1</v>
@@ -1510,7 +1510,7 @@
         <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="R8" t="n">
         <v>1.33</v>
@@ -1525,7 +1525,7 @@
         <v>1.92</v>
       </c>
       <c r="V8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
         <v>2.2</v>
@@ -1534,10 +1534,10 @@
         <v>17.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1546,10 +1546,10 @@
         <v>8.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1561,25 +1561,25 @@
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="n">
         <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.31</v>
@@ -1636,73 +1636,73 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
         <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="U9" t="n">
         <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="X9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>30</v>
       </c>
-      <c r="Z9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>32</v>
-      </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,13 +1750,13 @@
         <v>1.63</v>
       </c>
       <c r="G10" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J10" t="n">
         <v>4.5</v>
@@ -1774,13 +1774,13 @@
         <v>5.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
         <v>1.65</v>
@@ -1804,7 +1804,7 @@
         <v>28</v>
       </c>
       <c r="Y10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z10" t="n">
         <v>55</v>
@@ -1813,7 +1813,7 @@
         <v>160</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
         <v>12</v>
@@ -1822,10 +1822,10 @@
         <v>24</v>
       </c>
       <c r="AE10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
@@ -1834,7 +1834,7 @@
         <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
         <v>17</v>
@@ -1852,7 +1852,7 @@
         <v>6.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1891,7 +1891,7 @@
         <v>2.32</v>
       </c>
       <c r="I11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J11" t="n">
         <v>3.7</v>
@@ -1906,7 +1906,7 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.26</v>
@@ -1915,22 +1915,22 @@
         <v>2.18</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
         <v>1.47</v>
       </c>
       <c r="S11" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T11" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U11" t="n">
         <v>2.42</v>
       </c>
       <c r="V11" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W11" t="n">
         <v>1.43</v>
@@ -1942,7 +1942,7 @@
         <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA11" t="n">
         <v>32</v>
@@ -1972,16 +1972,16 @@
         <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
         <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
         <v>28</v>
@@ -2020,13 +2020,13 @@
         <v>2.1</v>
       </c>
       <c r="G12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H12" t="n">
         <v>3.85</v>
       </c>
       <c r="I12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.7</v>
@@ -2035,10 +2035,10 @@
         <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
         <v>4.5</v>
@@ -2050,7 +2050,7 @@
         <v>2.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
         <v>1.47</v>
@@ -2059,28 +2059,28 @@
         <v>2.94</v>
       </c>
       <c r="T12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W12" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="n">
         <v>16.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="n">
         <v>11.5</v>
@@ -2089,13 +2089,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
         <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2107,7 +2107,7 @@
         <v>46</v>
       </c>
       <c r="AJ12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
         <v>20</v>
@@ -2119,7 +2119,7 @@
         <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO12" t="n">
         <v>36</v>
@@ -2161,7 +2161,7 @@
         <v>2.96</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J13" t="n">
         <v>3.8</v>
@@ -2176,13 +2176,13 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O13" t="n">
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q13" t="n">
         <v>1.65</v>
@@ -2194,10 +2194,10 @@
         <v>2.54</v>
       </c>
       <c r="T13" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U13" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V13" t="n">
         <v>1.48</v>
@@ -2209,7 +2209,7 @@
         <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
         <v>23</v>
@@ -2218,7 +2218,7 @@
         <v>48</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.800000000000001</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.02</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.04</v>
       </c>
       <c r="H14" t="n">
         <v>4.1</v>
@@ -2317,40 +2317,40 @@
         <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q14" t="n">
         <v>1.94</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
         <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
         <v>2.16</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W14" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X14" t="n">
         <v>14.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA14" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB14" t="n">
         <v>9.6</v>
@@ -2359,7 +2359,7 @@
         <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE14" t="n">
         <v>50</v>
@@ -2371,7 +2371,7 @@
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>60</v>
@@ -2386,13 +2386,13 @@
         <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
         <v>14.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -2431,7 +2431,7 @@
         <v>1.65</v>
       </c>
       <c r="I15" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -2440,7 +2440,7 @@
         <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2452,25 +2452,25 @@
         <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
         <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="W15" t="n">
         <v>1.17</v>
@@ -2482,7 +2482,7 @@
         <v>8</v>
       </c>
       <c r="Z15" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA15" t="n">
         <v>15.5</v>
@@ -2512,7 +2512,7 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AK15" t="n">
         <v>100</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="G16" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H16" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I16" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="J16" t="n">
         <v>4.4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.34</v>
@@ -2587,55 +2587,55 @@
         <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
         <v>1.49</v>
       </c>
       <c r="S16" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="T16" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W16" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="X16" t="n">
         <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA16" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
         <v>9.6</v>
@@ -2644,13 +2644,13 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL16" t="n">
         <v>32</v>
@@ -2659,10 +2659,10 @@
         <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO16" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
@@ -2704,13 +2704,13 @@
         <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2722,16 +2722,16 @@
         <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R17" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S17" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T17" t="n">
         <v>1.67</v>
@@ -2743,7 +2743,7 @@
         <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="X17" t="n">
         <v>18</v>
@@ -2782,10 +2782,10 @@
         <v>44</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>32</v>
@@ -2827,43 +2827,43 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H18" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="I18" t="n">
         <v>1.52</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="Q18" t="n">
         <v>1.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S18" t="n">
         <v>2.38</v>
@@ -2872,22 +2872,22 @@
         <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V18" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="W18" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA18" t="n">
         <v>14</v>
@@ -2896,16 +2896,16 @@
         <v>32</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AE18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG18" t="n">
         <v>27</v>
@@ -2914,22 +2914,22 @@
         <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>220</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL18" t="n">
-        <v>990</v>
+        <v>75</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO18" t="n">
         <v>5.6</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G19" t="n">
         <v>1.54</v>
       </c>
       <c r="H19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I19" t="n">
         <v>7</v>
@@ -2983,7 +2983,7 @@
         <v>1.31</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
         <v>3.45</v>
@@ -2992,22 +2992,22 @@
         <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R19" t="n">
         <v>1.56</v>
       </c>
       <c r="S19" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="V19" t="n">
         <v>1.16</v>
@@ -3025,37 +3025,37 @@
         <v>75</v>
       </c>
       <c r="AA19" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AE19" t="n">
         <v>110</v>
       </c>
       <c r="AF19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG19" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG19" t="n">
-        <v>11</v>
-      </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AL19" t="n">
         <v>980</v>
@@ -3097,40 +3097,40 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="G20" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I20" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
         <v>1.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="R20" t="n">
         <v>1.27</v>
@@ -3139,70 +3139,70 @@
         <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U20" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V20" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X20" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="Y20" t="n">
         <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA20" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="n">
         <v>9</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
         <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK20" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
         <v>980</v>
       </c>
       <c r="AN20" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AO20" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -3232,112 +3232,112 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.32</v>
       </c>
-      <c r="G21" t="n">
-        <v>1.39</v>
-      </c>
       <c r="H21" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="I21" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="J21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
         <v>5.3</v>
       </c>
-      <c r="K21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4.9</v>
-      </c>
       <c r="O21" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="R21" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="T21" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="U21" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="V21" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="W21" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="X21" t="n">
         <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="Z21" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AD21" t="n">
         <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="AF21" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
         <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AL21" t="n">
         <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AO21" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22">
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G22" t="n">
         <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="I22" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="J22" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P22" t="n">
         <v>2.26</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S22" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="T22" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="U22" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="V22" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W22" t="n">
         <v>1.25</v>
       </c>
       <c r="X22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
         <v>980</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
         <v>980</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AH22" t="n">
         <v>980</v>
       </c>
-      <c r="AG22" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
         <v>120</v>
       </c>
       <c r="AK22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="23">
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G23" t="n">
         <v>4.2</v>
       </c>
-      <c r="G23" t="n">
-        <v>4.6</v>
-      </c>
       <c r="H23" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R23" t="n">
         <v>1.36</v>
       </c>
       <c r="S23" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T23" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U23" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W23" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="X23" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z23" t="n">
         <v>12.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
         <v>10.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG23" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AK23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL23" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM23" t="n">
         <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO23" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="I24" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J24" t="n">
         <v>4.1</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3664,16 +3664,16 @@
         <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
         <v>2.48</v>
       </c>
       <c r="Q24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.59</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.58</v>
       </c>
       <c r="S24" t="n">
         <v>2.48</v>
@@ -3682,28 +3682,28 @@
         <v>1.56</v>
       </c>
       <c r="U24" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V24" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="W24" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="X24" t="n">
         <v>26</v>
       </c>
       <c r="Y24" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Z24" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB24" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AC24" t="n">
         <v>11</v>
@@ -3712,13 +3712,13 @@
         <v>13.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
         <v>15.5</v>
@@ -3727,22 +3727,22 @@
         <v>34</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
         <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM24" t="n">
         <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G25" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H25" t="n">
         <v>2.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="J25" t="n">
         <v>3.7</v>
@@ -3811,7 +3811,7 @@
         <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="T25" t="n">
         <v>1.7</v>
@@ -3820,10 +3820,10 @@
         <v>2.2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X25" t="n">
         <v>16.5</v>
@@ -3835,7 +3835,7 @@
         <v>15.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AB25" t="n">
         <v>15.5</v>
@@ -3844,10 +3844,10 @@
         <v>8.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AF25" t="n">
         <v>980</v>
@@ -3859,7 +3859,7 @@
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ25" t="n">
         <v>70</v>
@@ -3868,7 +3868,7 @@
         <v>40</v>
       </c>
       <c r="AL25" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM25" t="n">
         <v>85</v>
@@ -3877,7 +3877,7 @@
         <v>36</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="26">
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="G26" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I26" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="J26" t="n">
         <v>3.9</v>
@@ -3934,7 +3934,7 @@
         <v>1.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P26" t="n">
         <v>1.89</v>
@@ -3949,70 +3949,70 @@
         <v>1.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U26" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W26" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="X26" t="n">
         <v>22</v>
       </c>
       <c r="Y26" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK26" t="n">
         <v>19</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AL26" t="n">
         <v>40</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>980</v>
       </c>
       <c r="AM26" t="n">
         <v>120</v>
       </c>
       <c r="AN26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO26" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="G27" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H27" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="I27" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>3.75</v>
@@ -4072,79 +4072,79 @@
         <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R27" t="n">
         <v>1.42</v>
       </c>
       <c r="S27" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T27" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U27" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X27" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
         <v>14</v>
       </c>
       <c r="AA27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB27" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE27" t="n">
         <v>21</v>
       </c>
       <c r="AF27" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG27" t="n">
         <v>18</v>
       </c>
       <c r="AH27" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
         <v>34</v>
       </c>
       <c r="AJ27" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AK27" t="n">
         <v>55</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM27" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN27" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AO27" t="n">
         <v>980</v>
@@ -4177,85 +4177,85 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="H28" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="I28" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K28" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P28" t="n">
-        <v>2.54</v>
+        <v>2.72</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="S28" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="U28" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="V28" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="W28" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AB28" t="n">
         <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AG28" t="n">
         <v>1000</v>
@@ -4270,19 +4270,19 @@
         <v>1000</v>
       </c>
       <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>220</v>
+      </c>
+      <c r="AM28" t="n">
         <v>230</v>
       </c>
-      <c r="AL28" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>190</v>
-      </c>
       <c r="AN28" t="n">
         <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G29" t="n">
         <v>1.59</v>
       </c>
       <c r="H29" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I29" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J29" t="n">
         <v>4.5</v>
@@ -4330,31 +4330,31 @@
         <v>4.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="O29" t="n">
         <v>1.24</v>
       </c>
       <c r="P29" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="R29" t="n">
         <v>1.51</v>
       </c>
       <c r="S29" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T29" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U29" t="n">
         <v>2.1</v>
@@ -4366,7 +4366,7 @@
         <v>2.68</v>
       </c>
       <c r="X29" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y29" t="n">
         <v>26</v>
@@ -4384,7 +4384,7 @@
         <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE29" t="n">
         <v>85</v>
@@ -4393,7 +4393,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG29" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
         <v>21</v>
@@ -4408,7 +4408,7 @@
         <v>15</v>
       </c>
       <c r="AL29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM29" t="n">
         <v>110</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G30" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H30" t="n">
         <v>6.2</v>
       </c>
       <c r="I30" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J30" t="n">
         <v>4.2</v>
@@ -4474,13 +4474,13 @@
         <v>4.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P30" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R30" t="n">
         <v>1.42</v>
@@ -4495,10 +4495,10 @@
         <v>2.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W30" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="X30" t="n">
         <v>16.5</v>
@@ -4510,7 +4510,7 @@
         <v>55</v>
       </c>
       <c r="AA30" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB30" t="n">
         <v>8.800000000000001</v>
@@ -4537,7 +4537,7 @@
         <v>90</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK30" t="n">
         <v>16.5</v>
@@ -4546,7 +4546,7 @@
         <v>36</v>
       </c>
       <c r="AM30" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN30" t="n">
         <v>8.800000000000001</v>
@@ -4582,25 +4582,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="G31" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="H31" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="I31" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="J31" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K31" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
@@ -4615,13 +4615,13 @@
         <v>2.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R31" t="n">
         <v>1.43</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T31" t="n">
         <v>1.7</v>
@@ -4630,25 +4630,25 @@
         <v>2.28</v>
       </c>
       <c r="V31" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="W31" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X31" t="n">
         <v>17</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z31" t="n">
         <v>14.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB31" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC31" t="n">
         <v>8.4</v>
@@ -4657,10 +4657,10 @@
         <v>10.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG31" t="n">
         <v>14.5</v>
@@ -4672,22 +4672,22 @@
         <v>34</v>
       </c>
       <c r="AJ31" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK31" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM31" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO31" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="32">
@@ -4717,97 +4717,97 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="G32" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I32" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K32" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R32" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S32" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T32" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U32" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V32" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W32" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="X32" t="n">
         <v>19</v>
       </c>
       <c r="Y32" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA32" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC32" t="n">
         <v>10</v>
       </c>
       <c r="AD32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE32" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF32" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG32" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ32" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK32" t="n">
         <v>15.5</v>
@@ -4819,10 +4819,10 @@
         <v>110</v>
       </c>
       <c r="AN32" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AO32" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -4852,34 +4852,34 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="G33" t="n">
         <v>1.4</v>
       </c>
       <c r="H33" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J33" t="n">
         <v>5.7</v>
       </c>
       <c r="K33" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P33" t="n">
         <v>2.56</v>
@@ -4891,73 +4891,73 @@
         <v>1.62</v>
       </c>
       <c r="S33" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T33" t="n">
         <v>1.9</v>
       </c>
       <c r="U33" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V33" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W33" t="n">
         <v>3.5</v>
       </c>
       <c r="X33" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y33" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA33" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK33" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD33" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL33" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM33" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN33" t="n">
         <v>5</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34">
@@ -4987,112 +4987,112 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G34" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="H34" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I34" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K34" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P34" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="R34" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="S34" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U34" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="V34" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W34" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X34" t="n">
         <v>16.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z34" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA34" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB34" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AF34" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG34" t="n">
         <v>10.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI34" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ34" t="n">
         <v>22</v>
       </c>
       <c r="AK34" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL34" t="n">
         <v>34</v>
       </c>
       <c r="AM34" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN34" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G35" t="n">
         <v>3.1</v>
       </c>
       <c r="H35" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I35" t="n">
         <v>2.6</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.62</v>
       </c>
       <c r="J35" t="n">
         <v>3.45</v>
@@ -5140,19 +5140,19 @@
         <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O35" t="n">
         <v>1.36</v>
       </c>
       <c r="P35" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q35" t="n">
         <v>2.06</v>
@@ -5167,13 +5167,13 @@
         <v>1.81</v>
       </c>
       <c r="U35" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V35" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W35" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X35" t="n">
         <v>12.5</v>
@@ -5185,7 +5185,7 @@
         <v>16</v>
       </c>
       <c r="AA35" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB35" t="n">
         <v>11.5</v>
@@ -5197,7 +5197,7 @@
         <v>12</v>
       </c>
       <c r="AE35" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF35" t="n">
         <v>19.5</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="G36" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I36" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J36" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K36" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
         <v>1.36</v>
@@ -5287,49 +5287,49 @@
         <v>1.28</v>
       </c>
       <c r="P36" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S36" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T36" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U36" t="n">
         <v>2.24</v>
       </c>
       <c r="V36" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="X36" t="n">
         <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z36" t="n">
         <v>34</v>
       </c>
       <c r="AA36" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AE36" t="n">
         <v>55</v>
@@ -5341,13 +5341,13 @@
         <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI36" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK36" t="n">
         <v>19</v>
@@ -5359,10 +5359,10 @@
         <v>90</v>
       </c>
       <c r="AN36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO36" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
@@ -5395,22 +5395,22 @@
         <v>1.25</v>
       </c>
       <c r="G37" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H37" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="I37" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="J37" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K37" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
@@ -5422,34 +5422,34 @@
         <v>1.19</v>
       </c>
       <c r="P37" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q37" t="n">
         <v>1.57</v>
       </c>
       <c r="R37" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
         <v>2.44</v>
       </c>
       <c r="T37" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U37" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="V37" t="n">
         <v>1.06</v>
       </c>
       <c r="W37" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="X37" t="n">
         <v>26</v>
       </c>
       <c r="Y37" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="Z37" t="n">
         <v>160</v>
@@ -5458,28 +5458,28 @@
         <v>830</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC37" t="n">
         <v>16.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AE37" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AF37" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG37" t="n">
         <v>12</v>
       </c>
       <c r="AH37" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI37" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AJ37" t="n">
         <v>9.4</v>
@@ -5491,10 +5491,10 @@
         <v>46</v>
       </c>
       <c r="AM37" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AO37" t="n">
         <v>360</v>
@@ -5530,13 +5530,13 @@
         <v>2.9</v>
       </c>
       <c r="G38" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="I38" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J38" t="n">
         <v>3.4</v>
@@ -5545,13 +5545,13 @@
         <v>3.45</v>
       </c>
       <c r="L38" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="O38" t="n">
         <v>1.36</v>
@@ -5572,13 +5572,13 @@
         <v>1.79</v>
       </c>
       <c r="U38" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="V38" t="n">
         <v>1.57</v>
       </c>
       <c r="W38" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X38" t="n">
         <v>12.5</v>
@@ -5611,10 +5611,10 @@
         <v>14</v>
       </c>
       <c r="AH38" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI38" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ38" t="n">
         <v>55</v>
@@ -5632,7 +5632,7 @@
         <v>980</v>
       </c>
       <c r="AO38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G39" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H39" t="n">
         <v>1.54</v>
@@ -5674,16 +5674,16 @@
         <v>1.57</v>
       </c>
       <c r="J39" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="K39" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L39" t="n">
         <v>1.36</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
         <v>3.35</v>
@@ -5695,25 +5695,25 @@
         <v>2.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="R39" t="n">
         <v>1.35</v>
       </c>
       <c r="S39" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T39" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U39" t="n">
         <v>1.87</v>
       </c>
       <c r="V39" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="W39" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X39" t="n">
         <v>17.5</v>
@@ -5725,10 +5725,10 @@
         <v>9.6</v>
       </c>
       <c r="AA39" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AC39" t="n">
         <v>10.5</v>
@@ -5767,7 +5767,7 @@
         <v>140</v>
       </c>
       <c r="AO39" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="40">
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H40" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="I40" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J40" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K40" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L40" t="n">
         <v>1.4</v>
@@ -5821,13 +5821,13 @@
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O40" t="n">
         <v>1.31</v>
       </c>
       <c r="P40" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q40" t="n">
         <v>1.95</v>
@@ -5836,19 +5836,19 @@
         <v>1.37</v>
       </c>
       <c r="S40" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T40" t="n">
         <v>1.79</v>
       </c>
       <c r="U40" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V40" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W40" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X40" t="n">
         <v>14</v>
@@ -5860,7 +5860,7 @@
         <v>13.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AB40" t="n">
         <v>980</v>
@@ -5875,34 +5875,34 @@
         <v>22</v>
       </c>
       <c r="AF40" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AG40" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH40" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI40" t="n">
         <v>980</v>
       </c>
       <c r="AJ40" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK40" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL40" t="n">
         <v>60</v>
       </c>
       <c r="AM40" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN40" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO40" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G41" t="n">
         <v>2.2</v>
       </c>
-      <c r="G41" t="n">
-        <v>2.22</v>
-      </c>
       <c r="H41" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I41" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
         <v>3.5</v>
@@ -5956,10 +5956,10 @@
         <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O41" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P41" t="n">
         <v>1.91</v>
@@ -5971,19 +5971,19 @@
         <v>1.35</v>
       </c>
       <c r="S41" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="T41" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U41" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V41" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W41" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X41" t="n">
         <v>13</v>
@@ -5995,10 +5995,10 @@
         <v>27</v>
       </c>
       <c r="AA41" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB41" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC41" t="n">
         <v>8</v>
@@ -6007,7 +6007,7 @@
         <v>15.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF41" t="n">
         <v>13.5</v>
@@ -6016,10 +6016,10 @@
         <v>11</v>
       </c>
       <c r="AH41" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ41" t="n">
         <v>27</v>
@@ -6028,16 +6028,16 @@
         <v>24</v>
       </c>
       <c r="AL41" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM41" t="n">
         <v>100</v>
       </c>
       <c r="AN41" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AO41" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
@@ -6070,19 +6070,19 @@
         <v>1.18</v>
       </c>
       <c r="G42" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="H42" t="n">
-        <v>16.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J42" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="K42" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L42" t="n">
         <v>1.27</v>
@@ -6091,34 +6091,34 @@
         <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="O42" t="n">
         <v>1.17</v>
       </c>
       <c r="P42" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R42" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="S42" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T42" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U42" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V42" t="n">
         <v>1.04</v>
       </c>
       <c r="W42" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6127,16 +6127,16 @@
         <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AD42" t="n">
         <v>980</v>
@@ -6145,22 +6145,22 @@
         <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH42" t="n">
         <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AJ42" t="n">
         <v>10</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>340</v>
       </c>
       <c r="AN42" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="G43" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="H43" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="I43" t="n">
         <v>1.3</v>
       </c>
       <c r="J43" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="K43" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="L43" t="n">
         <v>1.25</v>
@@ -6226,34 +6226,34 @@
         <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>3.45</v>
+        <v>5.3</v>
       </c>
       <c r="O43" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P43" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R43" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="S43" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="T43" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="U43" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="V43" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="W43" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6280,7 +6280,7 @@
         <v>980</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AG43" t="n">
         <v>1000</v>
@@ -6298,7 +6298,7 @@
         <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM43" t="n">
         <v>1000</v>
@@ -6307,7 +6307,7 @@
         <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="44">
@@ -6343,25 +6343,25 @@
         <v>2.16</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J44" t="n">
         <v>3.75</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L44" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="O44" t="n">
         <v>1.32</v>
@@ -6376,13 +6376,13 @@
         <v>1.35</v>
       </c>
       <c r="S44" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T44" t="n">
         <v>1.8</v>
       </c>
       <c r="U44" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V44" t="n">
         <v>1.35</v>
@@ -6394,7 +6394,7 @@
         <v>15</v>
       </c>
       <c r="Y44" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z44" t="n">
         <v>27</v>
@@ -6403,10 +6403,10 @@
         <v>75</v>
       </c>
       <c r="AB44" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AC44" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD44" t="n">
         <v>15.5</v>
@@ -6421,7 +6421,7 @@
         <v>11</v>
       </c>
       <c r="AH44" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI44" t="n">
         <v>55</v>
@@ -6430,16 +6430,16 @@
         <v>27</v>
       </c>
       <c r="AK44" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL44" t="n">
         <v>980</v>
       </c>
       <c r="AM44" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN44" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AO44" t="n">
         <v>46</v>
@@ -6475,16 +6475,16 @@
         <v>2.52</v>
       </c>
       <c r="G45" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="H45" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I45" t="n">
         <v>3.2</v>
       </c>
       <c r="J45" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K45" t="n">
         <v>3.5</v>
@@ -6496,34 +6496,34 @@
         <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P45" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q45" t="n">
         <v>2.02</v>
       </c>
       <c r="R45" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S45" t="n">
         <v>3.6</v>
       </c>
       <c r="T45" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U45" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V45" t="n">
         <v>1.45</v>
       </c>
       <c r="W45" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="X45" t="n">
         <v>13.5</v>
@@ -6550,7 +6550,7 @@
         <v>36</v>
       </c>
       <c r="AF45" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG45" t="n">
         <v>11.5</v>
@@ -6568,7 +6568,7 @@
         <v>28</v>
       </c>
       <c r="AL45" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM45" t="n">
         <v>95</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G46" t="n">
         <v>1.37</v>
@@ -6616,7 +6616,7 @@
         <v>9.6</v>
       </c>
       <c r="I46" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="J46" t="n">
         <v>6</v>
@@ -6634,10 +6634,10 @@
         <v>6.2</v>
       </c>
       <c r="O46" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P46" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q46" t="n">
         <v>1.47</v>
@@ -6646,7 +6646,7 @@
         <v>1.72</v>
       </c>
       <c r="S46" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="T46" t="n">
         <v>1.85</v>
@@ -6667,10 +6667,10 @@
         <v>50</v>
       </c>
       <c r="Z46" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AA46" t="n">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="AB46" t="n">
         <v>12.5</v>
@@ -6769,13 +6769,13 @@
         <v>1.25</v>
       </c>
       <c r="O47" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P47" t="n">
         <v>1.24</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO47"/>
+  <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
         <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I2" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
@@ -697,25 +697,25 @@
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
         <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="T2" t="n">
         <v>1.58</v>
       </c>
       <c r="U2" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="W2" t="n">
         <v>1.52</v>
@@ -727,22 +727,22 @@
         <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>15.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>22</v>
@@ -751,28 +751,28 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL2" t="n">
         <v>34</v>
       </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="H3" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="S3" t="n">
-        <v>2.46</v>
+        <v>2.18</v>
       </c>
       <c r="T3" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="U3" t="n">
-        <v>2.58</v>
+        <v>2.88</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="W3" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="X3" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK3" t="n">
         <v>29</v>
       </c>
-      <c r="Y3" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G4" t="n">
         <v>1.92</v>
@@ -946,7 +946,7 @@
         <v>4.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J4" t="n">
         <v>3.95</v>
@@ -955,7 +955,7 @@
         <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -967,7 +967,7 @@
         <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
         <v>1.93</v>
@@ -976,13 +976,13 @@
         <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
         <v>1.27</v>
@@ -991,34 +991,34 @@
         <v>2.08</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y4" t="n">
         <v>17.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA4" t="n">
         <v>130</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>20</v>
@@ -1033,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="n">
         <v>130</v>
@@ -1072,31 +1072,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G5" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="H5" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="I5" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
@@ -1111,28 +1111,28 @@
         <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T5" t="n">
         <v>1.59</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W5" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X5" t="n">
         <v>19.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1141,13 +1141,13 @@
         <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="n">
         <v>23</v>
@@ -1165,7 +1165,7 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>32</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.68</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.7</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,88 +1231,88 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.75</v>
+        <v>1.03</v>
       </c>
       <c r="U6" t="n">
-        <v>1.82</v>
+        <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
@@ -1342,31 +1342,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="G7" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="I7" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1375,31 +1375,31 @@
         <v>1.69</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R7" t="n">
         <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="W7" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,13 +1408,13 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1489,22 +1489,22 @@
         <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
         <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
         <v>1.86</v>
@@ -1519,10 +1519,10 @@
         <v>3.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
         <v>1.18</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
@@ -1570,7 +1570,7 @@
         <v>19</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1612,64 +1612,64 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="H9" t="n">
         <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J9" t="n">
         <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P9" t="n">
         <v>1.31</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.93</v>
-      </c>
       <c r="Q9" t="n">
-        <v>1.86</v>
+        <v>1.27</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.98</v>
+        <v>1.03</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.03</v>
       </c>
       <c r="V9" t="n">
         <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.66</v>
+        <v>2.4</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,43 +1678,43 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G10" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
         <v>5.9</v>
@@ -1762,97 +1762,97 @@
         <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="S10" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="T10" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="V10" t="n">
         <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="X10" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
         <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH10" t="n">
         <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK10" t="n">
         <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="11">
@@ -1885,13 +1885,13 @@
         <v>3.1</v>
       </c>
       <c r="G11" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I11" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J11" t="n">
         <v>3.7</v>
@@ -1900,43 +1900,43 @@
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
         <v>2.88</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U11" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
         <v>13</v>
@@ -1948,10 +1948,10 @@
         <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
         <v>11.5</v>
@@ -1960,13 +1960,13 @@
         <v>24</v>
       </c>
       <c r="AF11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>34</v>
@@ -1978,7 +1978,7 @@
         <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
         <v>75</v>
@@ -1987,7 +1987,7 @@
         <v>28</v>
       </c>
       <c r="AO11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G12" t="n">
         <v>2.14</v>
       </c>
       <c r="H12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.85</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.35</v>
@@ -2041,7 +2041,7 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.26</v>
@@ -2056,34 +2056,34 @@
         <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T12" t="n">
         <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y12" t="n">
         <v>16.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA12" t="n">
         <v>70</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
         <v>8.199999999999999</v>
@@ -2119,7 +2119,7 @@
         <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
         <v>36</v>
@@ -2161,13 +2161,13 @@
         <v>2.96</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.3</v>
@@ -2182,7 +2182,7 @@
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q13" t="n">
         <v>1.65</v>
@@ -2191,16 +2191,16 @@
         <v>1.59</v>
       </c>
       <c r="S13" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T13" t="n">
         <v>1.58</v>
       </c>
       <c r="U13" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="V13" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
         <v>1.67</v>
@@ -2221,7 +2221,7 @@
         <v>14.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
         <v>13.5</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G14" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H14" t="n">
         <v>4.1</v>
@@ -2305,64 +2305,64 @@
         <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.31</v>
       </c>
-      <c r="P14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="W14" t="n">
         <v>1.94</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.98</v>
-      </c>
       <c r="X14" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
         <v>30</v>
       </c>
       <c r="AA14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
         <v>16.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF14" t="n">
         <v>12.5</v>
@@ -2371,28 +2371,28 @@
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
         <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -2428,19 +2428,19 @@
         <v>6.6</v>
       </c>
       <c r="H15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.65</v>
       </c>
-      <c r="I15" t="n">
-        <v>1.66</v>
-      </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K15" t="n">
         <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2452,16 +2452,16 @@
         <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -2470,7 +2470,7 @@
         <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="W15" t="n">
         <v>1.17</v>
@@ -2482,13 +2482,13 @@
         <v>8</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA15" t="n">
         <v>15.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="n">
         <v>9</v>
@@ -2512,7 +2512,7 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AK15" t="n">
         <v>100</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G16" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="H16" t="n">
         <v>6.2</v>
       </c>
       <c r="I16" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J16" t="n">
         <v>4.4</v>
@@ -2581,13 +2581,13 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
         <v>1.75</v>
@@ -2596,19 +2596,19 @@
         <v>1.49</v>
       </c>
       <c r="S16" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="T16" t="n">
         <v>1.83</v>
       </c>
       <c r="U16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W16" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="X16" t="n">
         <v>19</v>
@@ -2620,13 +2620,13 @@
         <v>55</v>
       </c>
       <c r="AA16" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD16" t="n">
         <v>24</v>
@@ -2644,7 +2644,7 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
@@ -2692,37 +2692,37 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.18</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.2</v>
-      </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
         <v>4.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
         <v>1.77</v>
@@ -2731,28 +2731,28 @@
         <v>1.47</v>
       </c>
       <c r="S17" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="T17" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U17" t="n">
         <v>2.34</v>
       </c>
       <c r="V17" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W17" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
         <v>16.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA17" t="n">
         <v>65</v>
@@ -2761,7 +2761,7 @@
         <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
         <v>14.5</v>
@@ -2776,13 +2776,13 @@
         <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
         <v>44</v>
       </c>
       <c r="AJ17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK17" t="n">
         <v>21</v>
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="G18" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="I18" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="J18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -2854,7 +2854,7 @@
         <v>5.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
         <v>2.62</v>
@@ -2863,22 +2863,22 @@
         <v>1.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S18" t="n">
         <v>2.38</v>
       </c>
       <c r="T18" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="U18" t="n">
         <v>2.22</v>
       </c>
       <c r="V18" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="W18" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X18" t="n">
         <v>26</v>
@@ -2887,13 +2887,13 @@
         <v>11.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA18" t="n">
         <v>14</v>
       </c>
       <c r="AB18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="n">
         <v>11.5</v>
@@ -2902,13 +2902,13 @@
         <v>9.6</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH18" t="n">
         <v>21</v>
@@ -2917,22 +2917,22 @@
         <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK18" t="n">
         <v>100</v>
       </c>
       <c r="AL18" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="n">
         <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="19">
@@ -2965,19 +2965,19 @@
         <v>1.51</v>
       </c>
       <c r="G19" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H19" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="J19" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K19" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L19" t="n">
         <v>1.31</v>
@@ -2986,40 +2986,40 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="R19" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="V19" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W19" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="X19" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y19" t="n">
         <v>980</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>34</v>
       </c>
       <c r="Z19" t="n">
         <v>75</v>
@@ -3031,22 +3031,22 @@
         <v>13.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
         <v>110</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
         <v>90</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="G20" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="H20" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="J20" t="n">
         <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
         <v>1.48</v>
@@ -3121,10 +3121,10 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P20" t="n">
         <v>1.74</v>
@@ -3133,76 +3133,76 @@
         <v>2.22</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U20" t="n">
         <v>1.9</v>
       </c>
       <c r="V20" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W20" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA20" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AB20" t="n">
         <v>9</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AF20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
         <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL20" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM20" t="n">
         <v>980</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -3235,10 +3235,10 @@
         <v>1.28</v>
       </c>
       <c r="G21" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H21" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I21" t="n">
         <v>14.5</v>
@@ -3247,7 +3247,7 @@
         <v>6</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L21" t="n">
         <v>1.29</v>
@@ -3262,19 +3262,19 @@
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S21" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="T21" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U21" t="n">
         <v>1.77</v>
@@ -3289,28 +3289,28 @@
         <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AD21" t="n">
         <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AG21" t="n">
         <v>980</v>
@@ -3319,13 +3319,13 @@
         <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AJ21" t="n">
         <v>13</v>
       </c>
       <c r="AK21" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL21" t="n">
         <v>980</v>
@@ -3334,7 +3334,7 @@
         <v>220</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="AO21" t="n">
         <v>360</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
         <v>4.2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>5</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.3</v>
       </c>
       <c r="L22" t="n">
         <v>1.34</v>
@@ -3400,34 +3400,34 @@
         <v>2.26</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R22" t="n">
         <v>1.48</v>
       </c>
       <c r="S22" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T22" t="n">
         <v>1.56</v>
       </c>
       <c r="U22" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="V22" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="W22" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G23" t="n">
         <v>4.2</v>
@@ -3526,7 +3526,7 @@
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O23" t="n">
         <v>1.32</v>
@@ -3556,19 +3556,19 @@
         <v>1.31</v>
       </c>
       <c r="X23" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z23" t="n">
         <v>12.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC23" t="n">
         <v>8.199999999999999</v>
@@ -3577,7 +3577,7 @@
         <v>10.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
         <v>30</v>
@@ -3607,7 +3607,7 @@
         <v>55</v>
       </c>
       <c r="AO23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="24">
@@ -3640,82 +3640,82 @@
         <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I24" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
         <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R24" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S24" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T24" t="n">
         <v>1.56</v>
       </c>
       <c r="U24" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V24" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W24" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X24" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z24" t="n">
         <v>26</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>25</v>
       </c>
       <c r="AA24" t="n">
         <v>55</v>
       </c>
       <c r="AB24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG24" t="n">
         <v>11.5</v>
@@ -3724,25 +3724,25 @@
         <v>15.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ24" t="n">
         <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
         <v>28</v>
       </c>
       <c r="AM24" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="G25" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H25" t="n">
         <v>2.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="J25" t="n">
         <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L25" t="n">
         <v>1.38</v>
@@ -3799,13 +3799,13 @@
         <v>3.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="R25" t="n">
         <v>1.39</v>
@@ -3814,19 +3814,19 @@
         <v>3.1</v>
       </c>
       <c r="T25" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U25" t="n">
         <v>2.2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="W25" t="n">
         <v>1.39</v>
       </c>
       <c r="X25" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y25" t="n">
         <v>11.5</v>
@@ -3835,7 +3835,7 @@
         <v>15.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AB25" t="n">
         <v>15.5</v>
@@ -3853,16 +3853,16 @@
         <v>980</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH25" t="n">
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK25" t="n">
         <v>40</v>
@@ -3877,7 +3877,7 @@
         <v>36</v>
       </c>
       <c r="AO25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="H26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I26" t="n">
         <v>4.7</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.4</v>
       </c>
       <c r="J26" t="n">
         <v>3.9</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
         <v>1.37</v>
@@ -3931,88 +3931,88 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="R26" t="n">
         <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>1.05</v>
+        <v>3.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U26" t="n">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="V26" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z26" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA26" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AB26" t="n">
         <v>10</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>21</v>
       </c>
-      <c r="AE26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>20</v>
-      </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AM26" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -4045,43 +4045,43 @@
         <v>4.2</v>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H27" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K27" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L27" t="n">
         <v>1.37</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>2.06</v>
+        <v>3.7</v>
       </c>
       <c r="O27" t="n">
         <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R27" t="n">
         <v>1.42</v>
       </c>
       <c r="S27" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T27" t="n">
         <v>1.65</v>
@@ -4090,19 +4090,19 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="W27" t="n">
         <v>1.26</v>
       </c>
       <c r="X27" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA27" t="n">
         <v>23</v>
@@ -4126,7 +4126,7 @@
         <v>18</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AI27" t="n">
         <v>34</v>
@@ -4135,10 +4135,10 @@
         <v>120</v>
       </c>
       <c r="AK27" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM27" t="n">
         <v>110</v>
@@ -4177,70 +4177,70 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="G28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H28" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="I28" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="J28" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="K28" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="L28" t="n">
         <v>1.24</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P28" t="n">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="R28" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T28" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="U28" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="V28" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="W28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA28" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>11.5</v>
       </c>
       <c r="AB28" t="n">
         <v>1000</v>
@@ -4249,13 +4249,13 @@
         <v>22</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
         <v>17.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AG28" t="n">
         <v>1000</v>
@@ -4273,16 +4273,16 @@
         <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AM28" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AN28" t="n">
         <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.58</v>
+        <v>3.55</v>
       </c>
       <c r="G29" t="n">
-        <v>1.59</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
-        <v>6.6</v>
+        <v>2.22</v>
       </c>
       <c r="I29" t="n">
-        <v>6.8</v>
+        <v>2.24</v>
       </c>
       <c r="J29" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="K29" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="P29" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="R29" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="S29" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="T29" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="U29" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="V29" t="n">
-        <v>1.17</v>
+        <v>1.8</v>
       </c>
       <c r="W29" t="n">
-        <v>2.68</v>
+        <v>1.38</v>
       </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Y29" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF29" t="n">
         <v>26</v>
       </c>
-      <c r="Z29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AI29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM29" t="n">
         <v>80</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>110</v>
-      </c>
       <c r="AN29" t="n">
-        <v>7.4</v>
+        <v>36</v>
       </c>
       <c r="AO29" t="n">
-        <v>90</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="G30" t="n">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="H30" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="J30" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="K30" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O30" t="n">
         <v>1.29</v>
       </c>
       <c r="P30" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R30" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S30" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T30" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="U30" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="V30" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="W30" t="n">
-        <v>2.54</v>
+        <v>2.06</v>
       </c>
       <c r="X30" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AA30" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AE30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM30" t="n">
         <v>95</v>
       </c>
-      <c r="AF30" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>120</v>
-      </c>
       <c r="AN30" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -4573,46 +4573,46 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.35</v>
+        <v>1.55</v>
       </c>
       <c r="G31" t="n">
-        <v>3.45</v>
+        <v>1.57</v>
       </c>
       <c r="H31" t="n">
-        <v>2.22</v>
+        <v>6.8</v>
       </c>
       <c r="I31" t="n">
-        <v>2.24</v>
+        <v>7.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="K31" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="L31" t="n">
         <v>1.36</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O31" t="n">
         <v>1.27</v>
       </c>
       <c r="P31" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q31" t="n">
         <v>1.83</v>
@@ -4621,73 +4621,73 @@
         <v>1.43</v>
       </c>
       <c r="S31" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T31" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="U31" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.8</v>
+        <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>1.4</v>
+        <v>2.76</v>
       </c>
       <c r="X31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="Z31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC31" t="n">
+      <c r="AK31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN31" t="n">
         <v>8.4</v>
       </c>
-      <c r="AD31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>34</v>
-      </c>
       <c r="AO31" t="n">
-        <v>15.5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="G32" t="n">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="H32" t="n">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="J32" t="n">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="K32" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P32" t="n">
-        <v>2.28</v>
+        <v>2.54</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="R32" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="S32" t="n">
-        <v>2.9</v>
+        <v>2.48</v>
       </c>
       <c r="T32" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="U32" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V32" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="W32" t="n">
-        <v>2.72</v>
+        <v>3.6</v>
       </c>
       <c r="X32" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Y32" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Z32" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AA32" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AE32" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AG32" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI32" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AJ32" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL32" t="n">
         <v>32</v>
       </c>
       <c r="AM32" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN32" t="n">
-        <v>7.4</v>
+        <v>5.1</v>
       </c>
       <c r="AO32" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.39</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>2.02</v>
       </c>
       <c r="H33" t="n">
-        <v>8.800000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="I33" t="n">
-        <v>9.6</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
-        <v>5.7</v>
+        <v>3.65</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="L33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V33" t="n">
         <v>1.29</v>
       </c>
-      <c r="M33" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.12</v>
-      </c>
       <c r="W33" t="n">
-        <v>3.5</v>
+        <v>1.98</v>
       </c>
       <c r="X33" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Y33" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="Z33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA33" t="n">
         <v>90</v>
       </c>
-      <c r="AA33" t="n">
-        <v>330</v>
-      </c>
       <c r="AB33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG33" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH33" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AI33" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AJ33" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="AK33" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AL33" t="n">
         <v>32</v>
       </c>
       <c r="AM33" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AN33" t="n">
-        <v>5</v>
+        <v>11.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>140</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.95</v>
+        <v>3.05</v>
       </c>
       <c r="G34" t="n">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
-        <v>4.2</v>
+        <v>2.54</v>
       </c>
       <c r="I34" t="n">
-        <v>4.3</v>
+        <v>2.58</v>
       </c>
       <c r="J34" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="O34" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="P34" t="n">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="R34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W34" t="n">
         <v>1.47</v>
       </c>
-      <c r="S34" t="n">
-        <v>3</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W34" t="n">
-        <v>2.04</v>
-      </c>
       <c r="X34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z34" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y34" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>32</v>
-      </c>
       <c r="AA34" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AE34" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AF34" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI34" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>50</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>22</v>
-      </c>
       <c r="AK34" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AM34" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN34" t="n">
-        <v>11.5</v>
+        <v>36</v>
       </c>
       <c r="AO34" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
@@ -5113,127 +5113,127 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.05</v>
+        <v>1.65</v>
       </c>
       <c r="G35" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S35" t="n">
         <v>3.1</v>
       </c>
-      <c r="H35" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T35" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="U35" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="V35" t="n">
-        <v>1.62</v>
+        <v>1.18</v>
       </c>
       <c r="W35" t="n">
-        <v>1.47</v>
+        <v>2.5</v>
       </c>
       <c r="X35" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="Z35" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="AA35" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL35" t="n">
         <v>36</v>
       </c>
-      <c r="AB35" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>50</v>
-      </c>
       <c r="AM35" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="AO35" t="n">
-        <v>24</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.88</v>
+        <v>1.35</v>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.37</v>
       </c>
       <c r="H36" t="n">
-        <v>4.5</v>
+        <v>9.4</v>
       </c>
       <c r="I36" t="n">
-        <v>4.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="L36" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="P36" t="n">
-        <v>2.12</v>
+        <v>2.8</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.83</v>
+        <v>1.47</v>
       </c>
       <c r="R36" t="n">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="S36" t="n">
-        <v>3.05</v>
+        <v>2.18</v>
       </c>
       <c r="T36" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="U36" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="V36" t="n">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="W36" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Y36" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Z36" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AA36" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AB36" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>14.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AF36" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG36" t="n">
         <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AJ36" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AK36" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AL36" t="n">
         <v>32</v>
       </c>
       <c r="AM36" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>11</v>
+        <v>4.3</v>
       </c>
       <c r="AO36" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.25</v>
+        <v>2.16</v>
       </c>
       <c r="G37" t="n">
-        <v>1.28</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
-        <v>12.5</v>
+        <v>3.75</v>
       </c>
       <c r="I37" t="n">
-        <v>16.5</v>
+        <v>3.95</v>
       </c>
       <c r="J37" t="n">
-        <v>7.2</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
-        <v>7.6</v>
+        <v>3.65</v>
       </c>
       <c r="L37" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="P37" t="n">
-        <v>2.52</v>
+        <v>1.91</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.57</v>
+        <v>1.97</v>
       </c>
       <c r="R37" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="S37" t="n">
-        <v>2.44</v>
+        <v>3.35</v>
       </c>
       <c r="T37" t="n">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="U37" t="n">
-        <v>1.75</v>
+        <v>2.08</v>
       </c>
       <c r="V37" t="n">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="W37" t="n">
-        <v>4.6</v>
+        <v>1.83</v>
       </c>
       <c r="X37" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="Z37" t="n">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="AA37" t="n">
-        <v>830</v>
+        <v>75</v>
       </c>
       <c r="AB37" t="n">
         <v>10</v>
       </c>
       <c r="AC37" t="n">
-        <v>16.5</v>
+        <v>8</v>
       </c>
       <c r="AD37" t="n">
-        <v>65</v>
+        <v>15.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="AF37" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>38</v>
+        <v>18.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="AJ37" t="n">
-        <v>9.4</v>
+        <v>27</v>
       </c>
       <c r="AK37" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AL37" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.4</v>
+        <v>17.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>360</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.9</v>
+        <v>7.2</v>
       </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>8.6</v>
       </c>
       <c r="H38" t="n">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="I38" t="n">
-        <v>2.76</v>
+        <v>1.58</v>
       </c>
       <c r="J38" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="K38" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="L38" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>1.82</v>
+        <v>3.35</v>
       </c>
       <c r="O38" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="P38" t="n">
-        <v>1.79</v>
+        <v>2.2</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="R38" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="S38" t="n">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="T38" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="U38" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V38" t="n">
-        <v>1.57</v>
+        <v>2.72</v>
       </c>
       <c r="W38" t="n">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="X38" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y38" t="n">
         <v>10.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>17.5</v>
+        <v>9.6</v>
       </c>
       <c r="AA38" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD38" t="n">
         <v>980</v>
       </c>
-      <c r="AB38" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE38" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AG38" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AH38" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI38" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AJ38" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AK38" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AL38" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AM38" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN38" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AO38" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7.2</v>
+        <v>3.9</v>
       </c>
       <c r="G39" t="n">
-        <v>8.6</v>
+        <v>4.2</v>
       </c>
       <c r="H39" t="n">
-        <v>1.54</v>
+        <v>2.04</v>
       </c>
       <c r="I39" t="n">
-        <v>1.57</v>
+        <v>2.06</v>
       </c>
       <c r="J39" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="L39" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="O39" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="P39" t="n">
-        <v>2.2</v>
+        <v>1.97</v>
       </c>
       <c r="Q39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T39" t="n">
         <v>1.78</v>
       </c>
-      <c r="R39" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.85</v>
-      </c>
       <c r="U39" t="n">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="V39" t="n">
-        <v>2.72</v>
+        <v>1.92</v>
       </c>
       <c r="W39" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="X39" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Y39" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z39" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AB39" t="n">
         <v>980</v>
       </c>
       <c r="AC39" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD39" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD39" t="n">
-        <v>980</v>
-      </c>
       <c r="AE39" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AF39" t="n">
         <v>980</v>
       </c>
       <c r="AG39" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AI39" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AJ39" t="n">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c r="AK39" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AL39" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AM39" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AN39" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AO39" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
     </row>
     <row r="40">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.9</v>
+        <v>1.25</v>
       </c>
       <c r="G40" t="n">
-        <v>4.4</v>
+        <v>1.28</v>
       </c>
       <c r="H40" t="n">
-        <v>1.98</v>
+        <v>12.5</v>
       </c>
       <c r="I40" t="n">
-        <v>2.08</v>
+        <v>16</v>
       </c>
       <c r="J40" t="n">
-        <v>3.65</v>
+        <v>7.2</v>
       </c>
       <c r="K40" t="n">
-        <v>3.8</v>
+        <v>7.4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="O40" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="P40" t="n">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="R40" t="n">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="S40" t="n">
-        <v>3.3</v>
+        <v>2.46</v>
       </c>
       <c r="T40" t="n">
-        <v>1.79</v>
+        <v>2.18</v>
       </c>
       <c r="U40" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="V40" t="n">
-        <v>1.92</v>
+        <v>1.06</v>
       </c>
       <c r="W40" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="X40" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Y40" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="Z40" t="n">
-        <v>13.5</v>
+        <v>160</v>
       </c>
       <c r="AA40" t="n">
+        <v>830</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>280</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH40" t="n">
         <v>980</v>
       </c>
-      <c r="AB40" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI40" t="n">
-        <v>980</v>
+        <v>240</v>
       </c>
       <c r="AJ40" t="n">
-        <v>90</v>
+        <v>9.4</v>
       </c>
       <c r="AK40" t="n">
-        <v>55</v>
+        <v>14.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AM40" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="AN40" t="n">
-        <v>55</v>
+        <v>4.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>15</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41">
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.16</v>
+        <v>1.19</v>
       </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>1.23</v>
       </c>
       <c r="H41" t="n">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J41" t="n">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="K41" t="n">
-        <v>3.6</v>
+        <v>8.6</v>
       </c>
       <c r="L41" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="M41" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="O41" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="P41" t="n">
-        <v>1.91</v>
+        <v>2.56</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.97</v>
+        <v>1.54</v>
       </c>
       <c r="R41" t="n">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="S41" t="n">
-        <v>3.3</v>
+        <v>2.12</v>
       </c>
       <c r="T41" t="n">
-        <v>1.77</v>
+        <v>2.36</v>
       </c>
       <c r="U41" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="V41" t="n">
-        <v>1.33</v>
+        <v>1.04</v>
       </c>
       <c r="W41" t="n">
-        <v>1.83</v>
+        <v>5.3</v>
       </c>
       <c r="X41" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="AA41" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>340</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>10</v>
       </c>
-      <c r="AC41" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>27</v>
-      </c>
       <c r="AK41" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AN41" t="n">
-        <v>17</v>
+        <v>3.9</v>
       </c>
       <c r="AO41" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
@@ -6058,121 +6058,121 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.18</v>
+        <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>1.23</v>
+        <v>15</v>
       </c>
       <c r="H42" t="n">
-        <v>9.800000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="I42" t="n">
-        <v>27</v>
+        <v>1.3</v>
       </c>
       <c r="J42" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="K42" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="L42" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N42" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="O42" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P42" t="n">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="R42" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S42" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="T42" t="n">
-        <v>2.34</v>
+        <v>1.98</v>
       </c>
       <c r="U42" t="n">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="V42" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="W42" t="n">
-        <v>4.9</v>
+        <v>1.07</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z42" t="n">
-        <v>260</v>
+        <v>980</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB42" t="n">
         <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD42" t="n">
         <v>980</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AG42" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI42" t="n">
-        <v>340</v>
+        <v>980</v>
       </c>
       <c r="AJ42" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM42" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="43">
@@ -6193,127 +6193,127 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>11</v>
+        <v>2.06</v>
       </c>
       <c r="G43" t="n">
-        <v>15</v>
+        <v>2.14</v>
       </c>
       <c r="H43" t="n">
-        <v>1.24</v>
+        <v>3.75</v>
       </c>
       <c r="I43" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="K43" t="n">
-        <v>8.6</v>
+        <v>3.85</v>
       </c>
       <c r="L43" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="M43" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="O43" t="n">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="P43" t="n">
-        <v>2.58</v>
+        <v>1.92</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.44</v>
+        <v>1.96</v>
       </c>
       <c r="R43" t="n">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="S43" t="n">
-        <v>1.96</v>
+        <v>3.4</v>
       </c>
       <c r="T43" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="U43" t="n">
-        <v>1.7</v>
+        <v>2.08</v>
       </c>
       <c r="V43" t="n">
-        <v>4.2</v>
+        <v>1.33</v>
       </c>
       <c r="W43" t="n">
-        <v>1.07</v>
+        <v>1.88</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y43" t="n">
         <v>980</v>
       </c>
       <c r="Z43" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL43" t="n">
         <v>980</v>
       </c>
-      <c r="AA43" t="n">
+      <c r="AM43" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN43" t="n">
         <v>980</v>
       </c>
-      <c r="AB43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO43" t="n">
-        <v>3.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.1</v>
+        <v>1.54</v>
       </c>
       <c r="G44" t="n">
-        <v>2.16</v>
+        <v>1.55</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="I44" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="J44" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="K44" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="L44" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="O44" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="P44" t="n">
-        <v>1.92</v>
+        <v>2.32</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="R44" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="S44" t="n">
-        <v>3.35</v>
+        <v>2.74</v>
       </c>
       <c r="T44" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="U44" t="n">
         <v>2.1</v>
       </c>
       <c r="V44" t="n">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="W44" t="n">
-        <v>1.86</v>
+        <v>2.8</v>
       </c>
       <c r="X44" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y44" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="Z44" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AA44" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AB44" t="n">
         <v>10</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD44" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AE44" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AF44" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH44" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI44" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AJ44" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AK44" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AL44" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM44" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN44" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AO44" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,127 +6463,127 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.52</v>
+        <v>2.96</v>
       </c>
       <c r="G45" t="n">
-        <v>2.54</v>
+        <v>3.2</v>
       </c>
       <c r="H45" t="n">
-        <v>3.15</v>
+        <v>2.6</v>
       </c>
       <c r="I45" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="J45" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K45" t="n">
         <v>3.5</v>
       </c>
       <c r="L45" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M45" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>3.9</v>
+        <v>1.82</v>
       </c>
       <c r="O45" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="P45" t="n">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="R45" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="S45" t="n">
-        <v>3.6</v>
+        <v>1.05</v>
       </c>
       <c r="T45" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U45" t="n">
-        <v>2.22</v>
+        <v>1.88</v>
       </c>
       <c r="V45" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="W45" t="n">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="X45" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y45" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z45" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF45" t="n">
         <v>20</v>
       </c>
-      <c r="AA45" t="n">
+      <c r="AG45" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>55</v>
       </c>
-      <c r="AB45" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>36</v>
-      </c>
       <c r="AK45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO45" t="n">
         <v>28</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,256 +6598,121 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.35</v>
+        <v>2.46</v>
       </c>
       <c r="G46" t="n">
-        <v>1.37</v>
+        <v>2.48</v>
       </c>
       <c r="H46" t="n">
-        <v>9.6</v>
+        <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>11.5</v>
+        <v>3.25</v>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>3.45</v>
       </c>
       <c r="K46" t="n">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="L46" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="M46" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="P46" t="n">
-        <v>2.8</v>
+        <v>1.94</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="S46" t="n">
-        <v>2.18</v>
+        <v>3.6</v>
       </c>
       <c r="T46" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="U46" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="V46" t="n">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="W46" t="n">
-        <v>3.7</v>
+        <v>1.67</v>
       </c>
       <c r="X46" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="Z46" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AA46" t="n">
-        <v>420</v>
+        <v>55</v>
       </c>
       <c r="AB46" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC46" t="n">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD46" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE46" t="n">
         <v>36</v>
       </c>
-      <c r="AE46" t="n">
-        <v>140</v>
-      </c>
       <c r="AF46" t="n">
-        <v>9.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AG46" t="n">
         <v>11</v>
       </c>
       <c r="AH46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK46" t="n">
         <v>26</v>
       </c>
-      <c r="AI46" t="n">
+      <c r="AL46" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM46" t="n">
         <v>110</v>
       </c>
-      <c r="AJ46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>120</v>
-      </c>
       <c r="AN46" t="n">
-        <v>4.4</v>
+        <v>21</v>
       </c>
       <c r="AO46" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2025-10-23</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>22:10:00</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K47" t="n">
-        <v>980</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,10 +670,10 @@
         <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H2" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="I2" t="n">
         <v>2.68</v>
@@ -691,61 +691,61 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="S2" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="T2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V2" t="n">
         <v>1.59</v>
       </c>
       <c r="W2" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -754,10 +754,10 @@
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="n">
         <v>42</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AO2" t="n">
         <v>16</v>
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="I3" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.15</v>
@@ -835,37 +835,37 @@
         <v>2.96</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R3" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="S3" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T3" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="U3" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="W3" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
         <v>23</v>
@@ -877,19 +877,19 @@
         <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
         <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ3" t="n">
         <v>55</v>
@@ -898,16 +898,16 @@
         <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM3" t="n">
         <v>46</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G4" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
         <v>1.31</v>
@@ -970,43 +970,43 @@
         <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
         <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X4" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AA4" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>18.5</v>
@@ -1015,13 +1015,13 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,13 +1030,13 @@
         <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>38</v>
       </c>
       <c r="AM4" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AN4" t="n">
         <v>13.5</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:55:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.6</v>
+        <v>1.62</v>
       </c>
       <c r="G5" t="n">
-        <v>2.86</v>
+        <v>1.63</v>
       </c>
       <c r="H5" t="n">
-        <v>2.68</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.94</v>
+        <v>6.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="S5" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="T5" t="n">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
-        <v>1.54</v>
+        <v>2.58</v>
       </c>
       <c r="X5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN5" t="n">
-        <v>32</v>
+        <v>7.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1193,108 +1193,108 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.24</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>3.6</v>
+        <v>2.96</v>
       </c>
       <c r="T6" t="n">
-        <v>1.03</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
       </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1303,22 +1303,22 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,78 +1328,78 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TPS</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="I7" t="n">
-        <v>2.54</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>2.76</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P7" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.99</v>
+        <v>2.28</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>1.81</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,13 +1408,13 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1423,10 +1423,10 @@
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1441,7 +1441,7 @@
         <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,73 +1468,73 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>TPS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Dziugas</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.68</v>
+        <v>3.45</v>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>3.95</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>2.24</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>2.4</v>
       </c>
       <c r="J8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S8" t="n">
         <v>3.3</v>
       </c>
-      <c r="K8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.05</v>
-      </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="V8" t="n">
-        <v>1.18</v>
+        <v>1.71</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2</v>
+        <v>1.35</v>
       </c>
       <c r="X8" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,22 +1543,22 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.6</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1567,19 +1567,19 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
       </c>
       <c r="AM8" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN8" t="n">
         <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>12.5</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1598,78 +1598,78 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FK Suduva</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FK Dainava Alytus</t>
+          <t>FC Dziugas</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="G9" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="I9" t="n">
-        <v>9.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.31</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.27</v>
+        <v>1.94</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.03</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="W9" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,43 +1678,43 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>FK Suduva</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>FK Dainava Alytus</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="G10" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>5.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="U10" t="n">
-        <v>2.26</v>
+        <v>1.85</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="W10" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
         <v>11</v>
       </c>
-      <c r="AC10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>990</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AG10" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG10" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AI10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Hvidovre</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>HB Koge</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.1</v>
+        <v>1.71</v>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>1.79</v>
       </c>
       <c r="H11" t="n">
-        <v>2.34</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
-        <v>2.4</v>
+        <v>5.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="S11" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.44</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
-        <v>1.71</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.44</v>
+        <v>2.26</v>
       </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="Z11" t="n">
-        <v>16.5</v>
+        <v>48</v>
       </c>
       <c r="AA11" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>9.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF11" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>24</v>
-      </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="n">
         <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>15.5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.12</v>
+        <v>1.63</v>
       </c>
       <c r="G12" t="n">
-        <v>2.14</v>
+        <v>1.65</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.85</v>
+        <v>5.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.14</v>
+        <v>2.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>2.96</v>
+        <v>2.44</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="V12" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.87</v>
+        <v>2.52</v>
       </c>
       <c r="X12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>16</v>
       </c>
-      <c r="Y12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>26</v>
-      </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>13</v>
+        <v>6.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.44</v>
+        <v>3.2</v>
       </c>
       <c r="G13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.48</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.66</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="W13" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="X13" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
         <v>22</v>
       </c>
-      <c r="Y13" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AF13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN13" t="n">
         <v>23</v>
       </c>
-      <c r="AA13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AO13" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="G14" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P14" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="R14" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W14" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA14" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AG14" t="n">
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK14" t="n">
         <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
         <v>13.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="G15" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="I15" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>3.8</v>
+        <v>5.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>1.93</v>
+        <v>2.62</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.99</v>
+        <v>1.57</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.66</v>
       </c>
       <c r="S15" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="U15" t="n">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="V15" t="n">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="W15" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AB15" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AD15" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE15" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AJ15" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AK15" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AN15" t="n">
-        <v>140</v>
+        <v>310</v>
       </c>
       <c r="AO15" t="n">
-        <v>10.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="G16" t="n">
-        <v>1.64</v>
+        <v>2.04</v>
       </c>
       <c r="H16" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.75</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.83</v>
-      </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="W16" t="n">
-        <v>2.58</v>
+        <v>1.96</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="Y16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>24</v>
       </c>
-      <c r="Z16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AK16" t="n">
         <v>21</v>
       </c>
-      <c r="AI16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>7.8</v>
+        <v>13.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.14</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>2.18</v>
+        <v>6.2</v>
       </c>
       <c r="H17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S17" t="n">
         <v>3.55</v>
       </c>
-      <c r="I17" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.98</v>
-      </c>
       <c r="T17" t="n">
-        <v>1.66</v>
+        <v>1.97</v>
       </c>
       <c r="U17" t="n">
-        <v>2.34</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
-        <v>1.38</v>
+        <v>2.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.84</v>
+        <v>1.19</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA17" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>65</v>
-      </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI17" t="n">
         <v>40</v>
       </c>
-      <c r="AF17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>44</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="AO17" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7.4</v>
+        <v>2.12</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>2.16</v>
       </c>
       <c r="H18" t="n">
-        <v>1.46</v>
+        <v>3.65</v>
       </c>
       <c r="I18" t="n">
-        <v>1.47</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>5.2</v>
+        <v>3.85</v>
       </c>
       <c r="K18" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>2.62</v>
+        <v>2.26</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="R18" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.66</v>
       </c>
-      <c r="S18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.77</v>
-      </c>
       <c r="U18" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="V18" t="n">
-        <v>3.1</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
-        <v>1.14</v>
+        <v>1.87</v>
       </c>
       <c r="X18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>26</v>
       </c>
-      <c r="Y18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH18" t="n">
+      <c r="AK18" t="n">
         <v>21</v>
       </c>
-      <c r="AI18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>230</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>100</v>
-      </c>
       <c r="AL18" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>85</v>
+        <v>12.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="G19" t="n">
-        <v>1.55</v>
+        <v>2.18</v>
       </c>
       <c r="H19" t="n">
-        <v>6.8</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>7.8</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="P19" t="n">
-        <v>2.4</v>
+        <v>1.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>2.28</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="W19" t="n">
-        <v>2.84</v>
+        <v>1.84</v>
       </c>
       <c r="X19" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Z19" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="AA19" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="AB19" t="n">
-        <v>13.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AE19" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AF19" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="AK19" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.4</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="G20" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>2.96</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>3.05</v>
+        <v>4.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>1.74</v>
+        <v>2.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.22</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="S20" t="n">
-        <v>4.2</v>
+        <v>2.72</v>
       </c>
       <c r="T20" t="n">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="U20" t="n">
-        <v>1.9</v>
+        <v>2.54</v>
       </c>
       <c r="V20" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AF20" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AJ20" t="n">
         <v>34</v>
       </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AN20" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.28</v>
       </c>
-      <c r="G21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="P21" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="X21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF21" t="n">
         <v>11.5</v>
       </c>
-      <c r="I21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="X21" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
+      <c r="AG21" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>980</v>
-      </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.8</v>
+        <v>10.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>360</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="G22" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="I22" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1.87</v>
       </c>
-      <c r="J22" t="n">
-        <v>4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.68</v>
-      </c>
       <c r="R22" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S22" t="n">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="U22" t="n">
         <v>2.22</v>
       </c>
       <c r="V22" t="n">
-        <v>2.14</v>
+        <v>1.78</v>
       </c>
       <c r="W22" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="X22" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB22" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO22" t="n">
-        <v>9.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.85</v>
+        <v>2.16</v>
       </c>
       <c r="G23" t="n">
-        <v>4.2</v>
+        <v>2.18</v>
       </c>
       <c r="H23" t="n">
-        <v>2.02</v>
+        <v>3.45</v>
       </c>
       <c r="I23" t="n">
-        <v>2.1</v>
+        <v>3.55</v>
       </c>
       <c r="J23" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>1.93</v>
+        <v>2.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="R23" t="n">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="S23" t="n">
-        <v>3.35</v>
+        <v>2.56</v>
       </c>
       <c r="T23" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.31</v>
+        <v>1.84</v>
       </c>
       <c r="X23" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB23" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y23" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB23" t="n">
+      <c r="AC23" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC23" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>30</v>
-      </c>
       <c r="AG23" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>50</v>
+        <v>19.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AN23" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -3628,34 +3628,34 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>1.49</v>
       </c>
       <c r="G24" t="n">
-        <v>2.28</v>
+        <v>1.55</v>
       </c>
       <c r="H24" t="n">
-        <v>3.15</v>
+        <v>6.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.25</v>
+        <v>8.6</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
@@ -3667,82 +3667,82 @@
         <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
         <v>1.58</v>
       </c>
       <c r="S24" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T24" t="n">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="U24" t="n">
-        <v>2.58</v>
+        <v>1.96</v>
       </c>
       <c r="V24" t="n">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="W24" t="n">
-        <v>1.78</v>
+        <v>2.8</v>
       </c>
       <c r="X24" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Y24" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="Z24" t="n">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c r="AA24" t="n">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="AB24" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AE24" t="n">
-        <v>32</v>
+        <v>460</v>
       </c>
       <c r="AF24" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>15.5</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="n">
-        <v>36</v>
+        <v>360</v>
       </c>
       <c r="AJ24" t="n">
         <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN24" t="n">
-        <v>12.5</v>
+        <v>6.4</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25">
@@ -3763,70 +3763,70 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="G25" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="J25" t="n">
         <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L25" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S25" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U25" t="n">
         <v>2.2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="W25" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="X25" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y25" t="n">
         <v>11.5</v>
@@ -3835,49 +3835,49 @@
         <v>15.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB25" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
         <v>11</v>
       </c>
       <c r="AE25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO25" t="n">
         <v>23</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.87</v>
+        <v>4.3</v>
       </c>
       <c r="G26" t="n">
-        <v>1.93</v>
+        <v>4.5</v>
       </c>
       <c r="H26" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K26" t="n">
         <v>4.3</v>
       </c>
-      <c r="I26" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4</v>
-      </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="P26" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V26" t="n">
         <v>2.08</v>
       </c>
-      <c r="Q26" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W26" t="n">
-        <v>2.06</v>
+        <v>1.29</v>
       </c>
       <c r="X26" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD26" t="n">
         <v>10</v>
       </c>
-      <c r="AC26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AE26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK26" t="n">
         <v>55</v>
       </c>
-      <c r="AF26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AL26" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="n">
-        <v>11.5</v>
+        <v>44</v>
       </c>
       <c r="AO26" t="n">
-        <v>55</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W27" t="n">
         <v>4.2</v>
       </c>
-      <c r="G27" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.26</v>
-      </c>
       <c r="X27" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Z27" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="AA27" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AC27" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AD27" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AE27" t="n">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="AF27" t="n">
-        <v>36</v>
+        <v>7.8</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
         <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="AJ27" t="n">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="AN27" t="n">
-        <v>65</v>
+        <v>4.8</v>
       </c>
       <c r="AO27" t="n">
-        <v>980</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>13.5</v>
+        <v>3.65</v>
       </c>
       <c r="G28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE28" t="n">
         <v>23</v>
       </c>
-      <c r="H28" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="J28" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N28" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V28" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AF28" t="n">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL28" t="n">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="AM28" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO28" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,126 +4298,126 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.55</v>
+        <v>13.5</v>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>21</v>
       </c>
       <c r="H29" t="n">
-        <v>2.22</v>
+        <v>1.2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.24</v>
+        <v>1.26</v>
       </c>
       <c r="J29" t="n">
-        <v>3.65</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>3.75</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L29" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="P29" t="n">
-        <v>2.08</v>
+        <v>2.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.86</v>
+        <v>1.44</v>
       </c>
       <c r="R29" t="n">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="S29" t="n">
-        <v>3.15</v>
+        <v>1.94</v>
       </c>
       <c r="T29" t="n">
-        <v>1.72</v>
+        <v>2.14</v>
       </c>
       <c r="U29" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="V29" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="W29" t="n">
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="X29" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="Z29" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AA29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="AG29" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AJ29" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>48</v>
+        <v>470</v>
       </c>
       <c r="AM29" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AN29" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>15.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="G30" t="n">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="I30" t="n">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="J30" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="K30" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P30" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="R30" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S30" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T30" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="U30" t="n">
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
       <c r="V30" t="n">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="W30" t="n">
-        <v>2.06</v>
+        <v>2.84</v>
       </c>
       <c r="X30" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="Z30" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AA30" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE30" t="n">
         <v>110</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AF30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG30" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC30" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH30" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM30" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="AO30" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="G31" t="n">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="H31" t="n">
-        <v>6.8</v>
+        <v>9.6</v>
       </c>
       <c r="I31" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="J31" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="K31" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="P31" t="n">
-        <v>2.06</v>
+        <v>2.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="R31" t="n">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="S31" t="n">
-        <v>3.15</v>
+        <v>2.44</v>
       </c>
       <c r="T31" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U31" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>2.76</v>
+        <v>3.55</v>
       </c>
       <c r="X31" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Y31" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AA31" t="n">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="AB31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF31" t="n">
         <v>9</v>
       </c>
-      <c r="AC31" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD31" t="n">
+      <c r="AG31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH31" t="n">
         <v>25</v>
       </c>
-      <c r="AE31" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>23</v>
-      </c>
       <c r="AI31" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM31" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN31" t="n">
-        <v>8.4</v>
+        <v>4.9</v>
       </c>
       <c r="AO31" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.37</v>
+        <v>1.88</v>
       </c>
       <c r="G32" t="n">
-        <v>1.38</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
-        <v>9.4</v>
+        <v>4.8</v>
       </c>
       <c r="I32" t="n">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>5.8</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
-        <v>6</v>
+        <v>3.85</v>
       </c>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="P32" t="n">
-        <v>2.54</v>
+        <v>2.16</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="R32" t="n">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="S32" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="T32" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="U32" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="V32" t="n">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="W32" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="X32" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AA32" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="AB32" t="n">
         <v>10.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE32" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AF32" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="AG32" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH32" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="AK32" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL32" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM32" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="n">
-        <v>5.1</v>
+        <v>10.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="G33" t="n">
-        <v>2.02</v>
+        <v>3.15</v>
       </c>
       <c r="H33" t="n">
-        <v>4.3</v>
+        <v>2.52</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>2.56</v>
       </c>
       <c r="J33" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S33" t="n">
         <v>3.75</v>
       </c>
-      <c r="L33" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N33" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.96</v>
-      </c>
       <c r="T33" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="U33" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="V33" t="n">
-        <v>1.29</v>
+        <v>1.64</v>
       </c>
       <c r="W33" t="n">
-        <v>1.98</v>
+        <v>1.46</v>
       </c>
       <c r="X33" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="Y33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH33" t="n">
         <v>18</v>
       </c>
-      <c r="Z33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>16</v>
-      </c>
       <c r="AI33" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>55</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>22</v>
-      </c>
       <c r="AK33" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AM33" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AN33" t="n">
-        <v>11.5</v>
+        <v>36</v>
       </c>
       <c r="AO33" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S34" t="n">
         <v>3.05</v>
       </c>
-      <c r="G34" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T34" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="U34" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="V34" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="W34" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="X34" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AA34" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AB34" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE34" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AF34" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AG34" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI34" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AJ34" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="n">
         <v>38</v>
       </c>
       <c r="AL34" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM34" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO34" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -5122,25 +5122,25 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G35" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="H35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I35" t="n">
         <v>6</v>
       </c>
-      <c r="I35" t="n">
-        <v>6.6</v>
-      </c>
       <c r="J35" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K35" t="n">
         <v>4.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
@@ -5152,40 +5152,40 @@
         <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q35" t="n">
         <v>1.87</v>
       </c>
       <c r="R35" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S35" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T35" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U35" t="n">
         <v>2.04</v>
       </c>
       <c r="V35" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W35" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="X35" t="n">
         <v>16.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z35" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA35" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB35" t="n">
         <v>8.800000000000001</v>
@@ -5197,22 +5197,22 @@
         <v>23</v>
       </c>
       <c r="AE35" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF35" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AG35" t="n">
         <v>9.6</v>
       </c>
       <c r="AH35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI35" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK35" t="n">
         <v>17</v>
@@ -5224,16 +5224,16 @@
         <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AO35" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.35</v>
+        <v>1.9</v>
       </c>
       <c r="G36" t="n">
-        <v>1.37</v>
+        <v>1.92</v>
       </c>
       <c r="H36" t="n">
-        <v>9.4</v>
+        <v>4.4</v>
       </c>
       <c r="I36" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X36" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB36" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J36" t="n">
-        <v>6</v>
-      </c>
-      <c r="K36" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N36" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W36" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="X36" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z36" t="n">
+      <c r="AC36" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM36" t="n">
         <v>95</v>
       </c>
-      <c r="AA36" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ36" t="n">
+      <c r="AN36" t="n">
         <v>12</v>
       </c>
-      <c r="AK36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>4.3</v>
-      </c>
       <c r="AO36" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.16</v>
+        <v>1.36</v>
       </c>
       <c r="G37" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+      <c r="I37" t="n">
+        <v>10</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S37" t="n">
         <v>2.2</v>
       </c>
-      <c r="H37" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.35</v>
-      </c>
       <c r="T37" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="U37" t="n">
         <v>2.08</v>
       </c>
       <c r="V37" t="n">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="W37" t="n">
-        <v>1.83</v>
+        <v>3.6</v>
       </c>
       <c r="X37" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="Y37" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="Z37" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="AA37" t="n">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="AB37" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF37" t="n">
         <v>10</v>
       </c>
-      <c r="AC37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AG37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AI37" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AJ37" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AK37" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AL37" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AM37" t="n">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="AN37" t="n">
-        <v>17.5</v>
+        <v>4.3</v>
       </c>
       <c r="AO37" t="n">
-        <v>48</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>7.2</v>
+        <v>1.23</v>
       </c>
       <c r="G38" t="n">
-        <v>8.6</v>
+        <v>1.27</v>
       </c>
       <c r="H38" t="n">
-        <v>1.55</v>
+        <v>15</v>
       </c>
       <c r="I38" t="n">
-        <v>1.58</v>
+        <v>16.5</v>
       </c>
       <c r="J38" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="K38" t="n">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="M38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V38" t="n">
         <v>1.06</v>
       </c>
-      <c r="N38" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.72</v>
-      </c>
       <c r="W38" t="n">
-        <v>1.13</v>
+        <v>4.7</v>
       </c>
       <c r="X38" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.5</v>
+        <v>60</v>
       </c>
       <c r="Z38" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>990</v>
+      </c>
+      <c r="AB38" t="n">
         <v>9.6</v>
       </c>
-      <c r="AA38" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>27</v>
-      </c>
       <c r="AC38" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AD38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>310</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>470</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO38" t="n">
         <v>980</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>230</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>140</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="G39" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="H39" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U39" t="n">
         <v>2.04</v>
       </c>
-      <c r="I39" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2.14</v>
-      </c>
       <c r="V39" t="n">
-        <v>1.92</v>
+        <v>2.56</v>
       </c>
       <c r="W39" t="n">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="X39" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Y39" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC39" t="n">
         <v>10</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="AD39" t="n">
         <v>10.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AG39" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AH39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ39" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>230</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN39" t="n">
         <v>85</v>
       </c>
-      <c r="AK39" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>980</v>
-      </c>
       <c r="AO39" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="40">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.25</v>
+        <v>3.85</v>
       </c>
       <c r="G40" t="n">
-        <v>1.28</v>
+        <v>4.1</v>
       </c>
       <c r="H40" t="n">
-        <v>12.5</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X40" t="n">
         <v>16</v>
       </c>
-      <c r="J40" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K40" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W40" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="X40" t="n">
-        <v>26</v>
-      </c>
       <c r="Y40" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="Z40" t="n">
-        <v>160</v>
+        <v>15.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>830</v>
+        <v>24</v>
       </c>
       <c r="AB40" t="n">
-        <v>9.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="AC40" t="n">
-        <v>15.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>190</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO40" t="n">
         <v>55</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>280</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>360</v>
       </c>
     </row>
     <row r="41">
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.19</v>
+        <v>1.91</v>
       </c>
       <c r="G41" t="n">
-        <v>1.23</v>
+        <v>1.98</v>
       </c>
       <c r="H41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X41" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG41" t="n">
         <v>10</v>
       </c>
-      <c r="I41" t="n">
-        <v>26</v>
-      </c>
-      <c r="J41" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K41" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N41" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W41" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>260</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI41" t="n">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="AJ41" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AK41" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM41" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="AN41" t="n">
-        <v>3.9</v>
+        <v>13.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -6058,121 +6058,121 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H42" t="n">
+        <v>21</v>
+      </c>
+      <c r="I42" t="n">
+        <v>25</v>
+      </c>
+      <c r="J42" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>270</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
         <v>11</v>
       </c>
-      <c r="G42" t="n">
-        <v>15</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K42" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N42" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V42" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC42" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AD42" t="n">
         <v>980</v>
       </c>
       <c r="AE42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>150</v>
+        <v>7.8</v>
       </c>
       <c r="AG42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>160</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>340</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL42" t="n">
         <v>1000</v>
       </c>
-      <c r="AH42" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ42" t="n">
+      <c r="AM42" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO42" t="n">
         <v>1000</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>3.9</v>
       </c>
     </row>
     <row r="43">
@@ -6193,127 +6193,127 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.06</v>
+        <v>11.5</v>
       </c>
       <c r="G43" t="n">
-        <v>2.14</v>
+        <v>17.5</v>
       </c>
       <c r="H43" t="n">
-        <v>3.75</v>
+        <v>1.22</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>1.24</v>
       </c>
       <c r="J43" t="n">
-        <v>3.75</v>
+        <v>7.4</v>
       </c>
       <c r="K43" t="n">
-        <v>3.85</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L43" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="M43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V43" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W43" t="n">
         <v>1.06</v>
       </c>
-      <c r="N43" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.88</v>
-      </c>
       <c r="X43" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC43" t="n">
         <v>980</v>
       </c>
-      <c r="Z43" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AD43" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE43" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF43" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AI43" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ43" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>980</v>
+        <v>470</v>
       </c>
       <c r="AM43" t="n">
-        <v>130</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>50</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.54</v>
+        <v>1.97</v>
       </c>
       <c r="G44" t="n">
-        <v>1.55</v>
+        <v>1.99</v>
       </c>
       <c r="H44" t="n">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="I44" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="J44" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="K44" t="n">
-        <v>4.8</v>
+        <v>3.65</v>
       </c>
       <c r="L44" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O44" t="n">
         <v>1.32</v>
       </c>
-      <c r="M44" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N44" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.23</v>
-      </c>
       <c r="P44" t="n">
-        <v>2.32</v>
+        <v>1.91</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.7</v>
+        <v>1.97</v>
       </c>
       <c r="R44" t="n">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="S44" t="n">
-        <v>2.74</v>
+        <v>3.5</v>
       </c>
       <c r="T44" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U44" t="n">
         <v>2.1</v>
       </c>
       <c r="V44" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="W44" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="X44" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>530</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ44" t="n">
         <v>21</v>
       </c>
-      <c r="Y44" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH44" t="n">
+      <c r="AK44" t="n">
         <v>21</v>
       </c>
-      <c r="AI44" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>15</v>
-      </c>
       <c r="AL44" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AM44" t="n">
         <v>110</v>
       </c>
       <c r="AN44" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AO44" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,127 +6463,127 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.96</v>
+        <v>1.53</v>
       </c>
       <c r="G45" t="n">
-        <v>3.2</v>
+        <v>1.54</v>
       </c>
       <c r="H45" t="n">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
       <c r="I45" t="n">
-        <v>2.7</v>
+        <v>7.4</v>
       </c>
       <c r="J45" t="n">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="K45" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="L45" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="M45" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>1.82</v>
+        <v>5</v>
       </c>
       <c r="O45" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P45" t="n">
-        <v>1.77</v>
+        <v>2.38</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="R45" t="n">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="S45" t="n">
-        <v>1.05</v>
+        <v>2.68</v>
       </c>
       <c r="T45" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="U45" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="V45" t="n">
-        <v>1.58</v>
+        <v>1.15</v>
       </c>
       <c r="W45" t="n">
-        <v>1.46</v>
+        <v>2.84</v>
       </c>
       <c r="X45" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y45" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB45" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z45" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC45" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AD45" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AE45" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AF45" t="n">
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="AG45" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AH45" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI45" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AJ45" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
       <c r="AK45" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AL45" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AM45" t="n">
         <v>110</v>
       </c>
       <c r="AN45" t="n">
-        <v>980</v>
+        <v>6.6</v>
       </c>
       <c r="AO45" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,121 +6598,256 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.46</v>
+        <v>2.94</v>
       </c>
       <c r="G46" t="n">
-        <v>2.48</v>
+        <v>3.15</v>
       </c>
       <c r="H46" t="n">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="I46" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="J46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K46" t="n">
         <v>3.45</v>
       </c>
-      <c r="K46" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L46" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M46" t="n">
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>3.9</v>
+        <v>1.82</v>
       </c>
       <c r="O46" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P46" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R46" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="S46" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T46" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="U46" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="V46" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="W46" t="n">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="X46" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AB46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC46" t="n">
         <v>7.6</v>
       </c>
       <c r="AD46" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF46" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH46" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI46" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AJ46" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AK46" t="n">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="AL46" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM46" t="n">
         <v>110</v>
       </c>
       <c r="AN46" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AO46" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Nottm Forest</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="n">
         <v>34</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO47"/>
+  <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>1.58</v>
       </c>
       <c r="G2" t="n">
-        <v>2.86</v>
+        <v>1.61</v>
       </c>
       <c r="H2" t="n">
-        <v>2.62</v>
+        <v>7.4</v>
       </c>
       <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W2" t="n">
         <v>2.68</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.54</v>
-      </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>6.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>7.8</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>75</v>
+        <v>17.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.25</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.9</v>
-      </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>2.78</v>
       </c>
       <c r="O3" t="n">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="P3" t="n">
-        <v>2.96</v>
+        <v>1.56</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.49</v>
+        <v>2.68</v>
       </c>
       <c r="R3" t="n">
-        <v>1.81</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>2.16</v>
+        <v>6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.46</v>
+        <v>2.22</v>
       </c>
       <c r="U3" t="n">
-        <v>2.92</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X3" t="n">
-        <v>30</v>
+        <v>9.4</v>
       </c>
       <c r="Y3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>29</v>
-      </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="AI3" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="n">
         <v>55</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AL3" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="n">
-        <v>46</v>
+        <v>300</v>
       </c>
       <c r="AN3" t="n">
-        <v>16.5</v>
+        <v>70</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.800000000000001</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -937,118 +937,118 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>2.24</v>
       </c>
       <c r="H4" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
         <v>4.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>2.98</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>2.46</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>2.22</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.77</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>3.55</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>2.62</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W4" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>6.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>430</v>
+      </c>
+      <c r="AN4" t="n">
         <v>60</v>
       </c>
-      <c r="AA4" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Tallinna Kalev II</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Flora Tallinn II</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.62</v>
+        <v>2.32</v>
       </c>
       <c r="G5" t="n">
-        <v>1.63</v>
+        <v>2.76</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="I5" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K5" t="n">
         <v>6.4</v>
       </c>
-      <c r="J5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>4.8</v>
+        <v>7.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="P5" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.72</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.76</v>
-      </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>2.96</v>
       </c>
       <c r="V5" t="n">
-        <v>1.18</v>
+        <v>1.56</v>
       </c>
       <c r="W5" t="n">
-        <v>2.58</v>
+        <v>1.57</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:55:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.68</v>
+        <v>1.61</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1.63</v>
       </c>
       <c r="H6" t="n">
-        <v>2.56</v>
+        <v>6.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>2.58</v>
       </c>
       <c r="X6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Z6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD6" t="n">
         <v>23</v>
       </c>
-      <c r="AA6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>15</v>
-      </c>
       <c r="AE6" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>7.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1328,108 +1328,108 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.92</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.28</v>
+        <v>1.92</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>3.7</v>
+        <v>2.96</v>
       </c>
       <c r="T7" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="U7" t="n">
-        <v>1.03</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W7" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB7" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AC7" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1438,22 +1438,22 @@
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TPS</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.45</v>
+        <v>2.92</v>
       </c>
       <c r="G8" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.24</v>
+        <v>2.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="U8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="W8" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,118 +1603,118 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>TPS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC Dziugas</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.71</v>
+        <v>3.35</v>
       </c>
       <c r="G9" t="n">
-        <v>1.81</v>
+        <v>3.65</v>
       </c>
       <c r="H9" t="n">
-        <v>4.9</v>
+        <v>2.32</v>
       </c>
       <c r="I9" t="n">
-        <v>6.2</v>
+        <v>2.46</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.2</v>
+        <v>1.69</v>
       </c>
       <c r="W9" t="n">
-        <v>2.2</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE9" t="n">
         <v>1000</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AF9" t="n">
         <v>1000</v>
       </c>
-      <c r="AB9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>380</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>11</v>
-      </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>30</v>
       </c>
       <c r="AH9" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1733,78 +1733,78 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FK Suduva</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FK Dainava Alytus</t>
+          <t>FC Dziugas</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="I10" t="n">
-        <v>9.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="X10" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,43 +1813,43 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>FK Suduva</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>HB Koge</t>
+          <t>FK Dainava Alytus</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="H11" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>5.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="R11" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="V11" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="W11" t="n">
-        <v>2.26</v>
+        <v>2.66</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL11" t="n">
         <v>48</v>
       </c>
-      <c r="AA11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>85</v>
-      </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
         <v>10.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Hvidovre</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>HB Koge</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="H12" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="I12" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.27</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.21</v>
-      </c>
       <c r="P12" t="n">
-        <v>2.56</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
         <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>2.52</v>
+        <v>2.24</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
         <v>50</v>
       </c>
       <c r="AA12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG12" t="n">
         <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AJ12" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.6</v>
+        <v>10.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.2</v>
+        <v>1.63</v>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
       <c r="I13" t="n">
-        <v>2.34</v>
+        <v>6.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.32</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.48</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.74</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.43</v>
+        <v>2.52</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="Z13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH13" t="n">
+      <c r="AK13" t="n">
         <v>15</v>
       </c>
-      <c r="AI13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ13" t="n">
+      <c r="AL13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO13" t="n">
         <v>55</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>13.5</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.12</v>
+        <v>3.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.16</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="I14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.8</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="U14" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="V14" t="n">
-        <v>1.35</v>
+        <v>1.74</v>
       </c>
       <c r="W14" t="n">
-        <v>1.87</v>
+        <v>1.43</v>
       </c>
       <c r="X14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z14" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>28</v>
-      </c>
       <c r="AA14" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>15</v>
       </c>
-      <c r="AE14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>16</v>
-      </c>
       <c r="AI14" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7.8</v>
+        <v>2.12</v>
       </c>
       <c r="G15" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC15" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H15" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X15" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AD15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG15" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AH15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN15" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>230</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>310</v>
-      </c>
       <c r="AO15" t="n">
-        <v>5.3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.02</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>2.04</v>
+        <v>8.4</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>1.47</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>1.48</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>2.64</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V16" t="n">
-        <v>1.32</v>
+        <v>3.1</v>
       </c>
       <c r="W16" t="n">
-        <v>1.96</v>
+        <v>1.13</v>
       </c>
       <c r="X16" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>30</v>
+        <v>10.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>85</v>
+        <v>13.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE16" t="n">
-        <v>48</v>
+        <v>13.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="n">
         <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>48</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>2.46</v>
       </c>
       <c r="G17" t="n">
-        <v>6.2</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.7</v>
+        <v>2.98</v>
       </c>
       <c r="I17" t="n">
-        <v>1.72</v>
+        <v>3.05</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>1.94</v>
+        <v>2.34</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="R17" t="n">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
       <c r="S17" t="n">
-        <v>3.55</v>
+        <v>2.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>2.54</v>
       </c>
       <c r="V17" t="n">
-        <v>2.4</v>
+        <v>1.49</v>
       </c>
       <c r="W17" t="n">
-        <v>1.19</v>
+        <v>1.67</v>
       </c>
       <c r="X17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB17" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y17" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF17" t="n">
         <v>18</v>
       </c>
-      <c r="AF17" t="n">
-        <v>46</v>
-      </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ17" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="AK17" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="AN17" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.12</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>2.16</v>
+        <v>6.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.65</v>
+        <v>1.67</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>1.69</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O18" t="n">
         <v>1.33</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.25</v>
-      </c>
       <c r="P18" t="n">
-        <v>2.26</v>
+        <v>1.95</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.73</v>
+        <v>1.99</v>
       </c>
       <c r="R18" t="n">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>2.82</v>
+        <v>3.55</v>
       </c>
       <c r="T18" t="n">
-        <v>1.66</v>
+        <v>1.99</v>
       </c>
       <c r="U18" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="V18" t="n">
-        <v>1.36</v>
+        <v>2.44</v>
       </c>
       <c r="W18" t="n">
-        <v>1.87</v>
+        <v>1.19</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z18" t="n">
-        <v>28</v>
+        <v>9.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI18" t="n">
         <v>40</v>
       </c>
-      <c r="AF18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="AJ18" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO18" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G19" t="n">
         <v>2.14</v>
       </c>
-      <c r="G19" t="n">
-        <v>2.18</v>
-      </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>1.68</v>
+        <v>2.26</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.28</v>
+        <v>1.74</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="S19" t="n">
-        <v>4.3</v>
+        <v>2.88</v>
       </c>
       <c r="T19" t="n">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="U19" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="V19" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X19" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="Y19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>26</v>
       </c>
-      <c r="AA19" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>27</v>
-      </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.46</v>
+        <v>2.24</v>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="H20" t="n">
-        <v>2.96</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>4.8</v>
+        <v>3.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>2.38</v>
       </c>
       <c r="R20" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>2.72</v>
+        <v>4.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="U20" t="n">
-        <v>2.54</v>
+        <v>1.92</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="W20" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="X20" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH20" t="n">
         <v>23</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AI20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL20" t="n">
         <v>50</v>
       </c>
-      <c r="AB20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>30</v>
-      </c>
       <c r="AM20" t="n">
-        <v>65</v>
+        <v>450</v>
       </c>
       <c r="AN20" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,34 +3223,34 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.77</v>
+        <v>2.12</v>
       </c>
       <c r="G21" t="n">
-        <v>1.81</v>
+        <v>2.14</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="I21" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -3259,85 +3259,85 @@
         <v>4.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
         <v>2.06</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R21" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S21" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="T21" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="V21" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="W21" t="n">
-        <v>2.22</v>
+        <v>1.88</v>
       </c>
       <c r="X21" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AA21" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AF21" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AK21" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
         <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.4</v>
+        <v>1.35</v>
       </c>
       <c r="G22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W22" t="n">
         <v>3.6</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.39</v>
-      </c>
       <c r="X22" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>100</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>510</v>
       </c>
       <c r="AA22" t="n">
-        <v>30</v>
+        <v>330</v>
       </c>
       <c r="AB22" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AE22" t="n">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="AF22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>470</v>
       </c>
       <c r="AJ22" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM22" t="n">
-        <v>85</v>
+        <v>390</v>
       </c>
       <c r="AN22" t="n">
-        <v>36</v>
+        <v>4.3</v>
       </c>
       <c r="AO22" t="n">
-        <v>17</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.16</v>
+        <v>1.49</v>
       </c>
       <c r="G23" t="n">
-        <v>2.18</v>
+        <v>1.55</v>
       </c>
       <c r="H23" t="n">
-        <v>3.45</v>
+        <v>7.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.55</v>
+        <v>7.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="R23" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S23" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="T23" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="U23" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="W23" t="n">
-        <v>1.84</v>
+        <v>2.8</v>
       </c>
       <c r="X23" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Z23" t="n">
         <v>70</v>
       </c>
       <c r="AA23" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="AB23" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF23" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AI23" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AJ23" t="n">
-        <v>27</v>
+        <v>14.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="AN23" t="n">
-        <v>11.5</v>
+        <v>6.4</v>
       </c>
       <c r="AO23" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="G24" t="n">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>15</v>
+      </c>
+      <c r="J24" t="n">
         <v>6.4</v>
       </c>
-      <c r="I24" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.6</v>
-      </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R24" t="n">
         <v>1.58</v>
       </c>
       <c r="S24" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="T24" t="n">
-        <v>1.74</v>
+        <v>2.14</v>
       </c>
       <c r="U24" t="n">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="V24" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="W24" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="X24" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Y24" t="n">
         <v>980</v>
       </c>
       <c r="Z24" t="n">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="AA24" t="n">
-        <v>210</v>
+        <v>760</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AD24" t="n">
         <v>980</v>
       </c>
       <c r="AE24" t="n">
-        <v>460</v>
+        <v>240</v>
       </c>
       <c r="AF24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG24" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AH24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AK24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL24" t="n">
         <v>40</v>
       </c>
-      <c r="AI24" t="n">
-        <v>360</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>65</v>
-      </c>
       <c r="AM24" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="AN24" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="AO24" t="n">
-        <v>530</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="G25" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H25" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="I25" t="n">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="R25" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="S25" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="U25" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="V25" t="n">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="W25" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="X25" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AB25" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL25" t="n">
         <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
         <v>4.3</v>
       </c>
-      <c r="G26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="O26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W26" t="n">
         <v>1.34</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.29</v>
-      </c>
       <c r="X26" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AB26" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AF26" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AG26" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI26" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL26" t="n">
         <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN26" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO26" t="n">
-        <v>9.800000000000001</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.29</v>
+        <v>3.6</v>
       </c>
       <c r="G27" t="n">
-        <v>1.31</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
-        <v>13.5</v>
+        <v>2.14</v>
       </c>
       <c r="I27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG27" t="n">
         <v>15.5</v>
       </c>
-      <c r="J27" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N27" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W27" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="X27" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH27" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="AK27" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AL27" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AM27" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.8</v>
+        <v>46</v>
       </c>
       <c r="AO27" t="n">
-        <v>350</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -4168,79 +4168,79 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="I28" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="J28" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L28" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R28" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S28" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="T28" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="U28" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="V28" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W28" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X28" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AB28" t="n">
         <v>15</v>
@@ -4255,40 +4255,40 @@
         <v>23</v>
       </c>
       <c r="AF28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG28" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO28" t="n">
         <v>38</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>13.5</v>
+        <v>1.76</v>
       </c>
       <c r="G29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y29" t="n">
         <v>21</v>
       </c>
-      <c r="H29" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="J29" t="n">
-        <v>7</v>
-      </c>
-      <c r="K29" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N29" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V29" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>980</v>
-      </c>
       <c r="Z29" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AA29" t="n">
-        <v>27</v>
+        <v>530</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF29" t="n">
-        <v>210</v>
+        <v>11.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>470</v>
+        <v>44</v>
       </c>
       <c r="AM29" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>3.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.53</v>
+        <v>2.18</v>
       </c>
       <c r="G30" t="n">
-        <v>1.54</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
-        <v>7.2</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>7.6</v>
+        <v>3.5</v>
       </c>
       <c r="J30" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
         <v>4.6</v>
       </c>
-      <c r="K30" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O30" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="P30" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="R30" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="S30" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="T30" t="n">
-        <v>1.98</v>
+        <v>1.64</v>
       </c>
       <c r="U30" t="n">
-        <v>1.93</v>
+        <v>2.42</v>
       </c>
       <c r="V30" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="W30" t="n">
-        <v>2.84</v>
+        <v>1.83</v>
       </c>
       <c r="X30" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y30" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y30" t="n">
-        <v>24</v>
-      </c>
       <c r="Z30" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>230</v>
+        <v>980</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE30" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AK30" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AL30" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AN30" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,126 +4568,126 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.38</v>
+        <v>13.5</v>
       </c>
       <c r="G31" t="n">
-        <v>1.39</v>
+        <v>21</v>
       </c>
       <c r="H31" t="n">
-        <v>9.6</v>
+        <v>1.2</v>
       </c>
       <c r="I31" t="n">
-        <v>10.5</v>
+        <v>1.25</v>
       </c>
       <c r="J31" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="K31" t="n">
-        <v>5.9</v>
+        <v>8.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="P31" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="R31" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="S31" t="n">
-        <v>2.44</v>
+        <v>1.94</v>
       </c>
       <c r="T31" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V31" t="n">
-        <v>1.11</v>
+        <v>5</v>
       </c>
       <c r="W31" t="n">
-        <v>3.55</v>
+        <v>1.05</v>
       </c>
       <c r="X31" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="Z31" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="AA31" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>32</v>
+        <v>470</v>
       </c>
       <c r="AM31" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>140</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.88</v>
+        <v>3.4</v>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>2.34</v>
       </c>
       <c r="J32" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L32" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P32" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R32" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T32" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U32" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V32" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="W32" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="X32" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AA32" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="AB32" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD32" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE32" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AF32" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AG32" t="n">
-        <v>9.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>60</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>20</v>
-      </c>
       <c r="AK32" t="n">
-        <v>17.5</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="n">
         <v>80</v>
       </c>
       <c r="AN32" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="AO32" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.1</v>
+        <v>1.67</v>
       </c>
       <c r="G33" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S33" t="n">
         <v>3.15</v>
       </c>
-      <c r="H33" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T33" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="U33" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="V33" t="n">
-        <v>1.64</v>
+        <v>1.19</v>
       </c>
       <c r="W33" t="n">
-        <v>1.46</v>
+        <v>2.46</v>
       </c>
       <c r="X33" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="Z33" t="n">
-        <v>16.5</v>
+        <v>48</v>
       </c>
       <c r="AA33" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL33" t="n">
         <v>36</v>
       </c>
-      <c r="AB33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>50</v>
-      </c>
       <c r="AM33" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN33" t="n">
-        <v>36</v>
+        <v>9.4</v>
       </c>
       <c r="AO33" t="n">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.4</v>
+        <v>1.52</v>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>1.54</v>
       </c>
       <c r="H34" t="n">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2.34</v>
+        <v>7.4</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="K34" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="O34" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="R34" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S34" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="T34" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="U34" t="n">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="V34" t="n">
-        <v>1.75</v>
+        <v>1.15</v>
       </c>
       <c r="W34" t="n">
-        <v>1.4</v>
+        <v>2.84</v>
       </c>
       <c r="X34" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="Z34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK34" t="n">
         <v>15</v>
       </c>
-      <c r="AA34" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>38</v>
-      </c>
       <c r="AL34" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM34" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN34" t="n">
-        <v>32</v>
+        <v>7.2</v>
       </c>
       <c r="AO34" t="n">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.67</v>
+        <v>1.39</v>
       </c>
       <c r="G35" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
-        <v>5.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J35" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="K35" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="O35" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="P35" t="n">
-        <v>2.06</v>
+        <v>2.56</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="R35" t="n">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="S35" t="n">
-        <v>3.2</v>
+        <v>2.46</v>
       </c>
       <c r="T35" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U35" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V35" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="W35" t="n">
-        <v>2.44</v>
+        <v>3.5</v>
       </c>
       <c r="X35" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="Y35" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="Z35" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AA35" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AD35" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AE35" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AF35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG35" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI35" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AJ35" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM35" t="n">
         <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>9.4</v>
+        <v>5</v>
       </c>
       <c r="AO35" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -5248,76 +5248,76 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G36" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H36" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N36" t="n">
         <v>4.4</v>
       </c>
-      <c r="I36" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N36" t="n">
-        <v>4.1</v>
-      </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P36" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="R36" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="S36" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T36" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="U36" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="V36" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W36" t="n">
         <v>2.08</v>
       </c>
       <c r="X36" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AA36" t="n">
         <v>110</v>
@@ -5326,13 +5326,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD36" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AE36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF36" t="n">
         <v>12</v>
@@ -5341,25 +5341,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH36" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK36" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM36" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO36" t="n">
         <v>60</v>
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.36</v>
+        <v>3.1</v>
       </c>
       <c r="G37" t="n">
-        <v>1.38</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
-        <v>9</v>
+        <v>2.52</v>
       </c>
       <c r="I37" t="n">
-        <v>10</v>
+        <v>2.54</v>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>3.45</v>
       </c>
       <c r="K37" t="n">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>6.2</v>
+        <v>3.65</v>
       </c>
       <c r="O37" t="n">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="P37" t="n">
-        <v>2.82</v>
+        <v>1.92</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.48</v>
+        <v>2.04</v>
       </c>
       <c r="R37" t="n">
-        <v>1.76</v>
+        <v>1.34</v>
       </c>
       <c r="S37" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="T37" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U37" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V37" t="n">
-        <v>1.11</v>
+        <v>1.64</v>
       </c>
       <c r="W37" t="n">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="X37" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>46</v>
+        <v>10.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>95</v>
+        <v>16.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>360</v>
+        <v>36</v>
       </c>
       <c r="AB37" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC37" t="n">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AE37" t="n">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="AF37" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AG37" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AI37" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AJ37" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AK37" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="AL37" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="AM37" t="n">
-        <v>390</v>
+        <v>100</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.3</v>
+        <v>36</v>
       </c>
       <c r="AO37" t="n">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.23</v>
+        <v>1.9</v>
       </c>
       <c r="G38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V38" t="n">
         <v>1.27</v>
       </c>
-      <c r="H38" t="n">
-        <v>15</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="W38" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X38" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y38" t="n">
         <v>16.5</v>
       </c>
-      <c r="J38" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K38" t="n">
-        <v>8</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N38" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W38" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X38" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y38" t="n">
+      <c r="Z38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE38" t="n">
         <v>60</v>
       </c>
-      <c r="Z38" t="n">
-        <v>180</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>990</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>310</v>
-      </c>
       <c r="AF38" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH38" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>470</v>
+        <v>70</v>
       </c>
       <c r="AJ38" t="n">
-        <v>9.4</v>
+        <v>21</v>
       </c>
       <c r="AK38" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AL38" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM38" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="AN38" t="n">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="AO38" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6</v>
+        <v>1.94</v>
       </c>
       <c r="G39" t="n">
-        <v>7.4</v>
+        <v>1.97</v>
       </c>
       <c r="H39" t="n">
-        <v>1.61</v>
+        <v>4.2</v>
       </c>
       <c r="I39" t="n">
-        <v>1.64</v>
+        <v>4.4</v>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K39" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L39" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="P39" t="n">
-        <v>2.24</v>
+        <v>1.93</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="R39" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="S39" t="n">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="T39" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="U39" t="n">
         <v>2.04</v>
       </c>
       <c r="V39" t="n">
-        <v>2.56</v>
+        <v>1.29</v>
       </c>
       <c r="W39" t="n">
-        <v>1.16</v>
+        <v>2.02</v>
       </c>
       <c r="X39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK39" t="n">
         <v>21</v>
       </c>
-      <c r="Y39" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>90</v>
-      </c>
       <c r="AL39" t="n">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="AM39" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN39" t="n">
-        <v>85</v>
+        <v>14.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>8.4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="I40" t="n">
-        <v>2.08</v>
+        <v>1.63</v>
       </c>
       <c r="J40" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="O40" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="P40" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="R40" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="S40" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="T40" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="U40" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="V40" t="n">
-        <v>1.92</v>
+        <v>2.56</v>
       </c>
       <c r="W40" t="n">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="X40" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z40" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AA40" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AD40" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AE40" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="AG40" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AH40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI40" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AJ40" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AK40" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AL40" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="AM40" t="n">
         <v>580</v>
       </c>
       <c r="AN40" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AO40" t="n">
-        <v>55</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.91</v>
+        <v>3.85</v>
       </c>
       <c r="G41" t="n">
-        <v>1.98</v>
+        <v>4.1</v>
       </c>
       <c r="H41" t="n">
-        <v>4.2</v>
+        <v>2.02</v>
       </c>
       <c r="I41" t="n">
-        <v>4.6</v>
+        <v>2.08</v>
       </c>
       <c r="J41" t="n">
         <v>3.75</v>
       </c>
       <c r="K41" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L41" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M41" t="n">
         <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O41" t="n">
         <v>1.31</v>
       </c>
       <c r="P41" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R41" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S41" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T41" t="n">
         <v>1.8</v>
       </c>
       <c r="U41" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V41" t="n">
-        <v>1.27</v>
+        <v>1.92</v>
       </c>
       <c r="W41" t="n">
-        <v>2.02</v>
+        <v>1.32</v>
       </c>
       <c r="X41" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z41" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="AB41" t="n">
-        <v>9.4</v>
+        <v>16</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD41" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AF41" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AG41" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AH41" t="n">
         <v>19</v>
       </c>
       <c r="AI41" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ41" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="AK41" t="n">
-        <v>19.5</v>
+        <v>190</v>
       </c>
       <c r="AL41" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AM41" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN41" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AO41" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -6058,121 +6058,121 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="G42" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="H42" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I42" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="J42" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="K42" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="L42" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>3.45</v>
+        <v>5.3</v>
       </c>
       <c r="O42" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P42" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="R42" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="S42" t="n">
-        <v>2.12</v>
+        <v>2.52</v>
       </c>
       <c r="T42" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="U42" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="V42" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="W42" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="X42" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z42" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB42" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC42" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="n">
         <v>7.8</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH42" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AI42" t="n">
-        <v>340</v>
+        <v>470</v>
       </c>
       <c r="AJ42" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK42" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM42" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43">
@@ -6193,121 +6193,121 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>11.5</v>
+        <v>1.19</v>
       </c>
       <c r="G43" t="n">
-        <v>17.5</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
-        <v>1.22</v>
+        <v>21</v>
       </c>
       <c r="I43" t="n">
-        <v>1.24</v>
+        <v>25</v>
       </c>
       <c r="J43" t="n">
         <v>7.4</v>
       </c>
       <c r="K43" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L43" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W43" t="n">
         <v>5.7</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V43" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.06</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="AA43" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE43" t="n">
         <v>1000</v>
       </c>
-      <c r="AC43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>980</v>
-      </c>
       <c r="AF43" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH43" t="n">
         <v>1000</v>
       </c>
-      <c r="AG43" t="n">
+      <c r="AI43" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL43" t="n">
         <v>1000</v>
       </c>
-      <c r="AH43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ43" t="n">
+      <c r="AM43" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO43" t="n">
         <v>1000</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>470</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>390</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>3.55</v>
       </c>
     </row>
     <row r="44">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.97</v>
+        <v>13.5</v>
       </c>
       <c r="G44" t="n">
-        <v>1.99</v>
+        <v>19</v>
       </c>
       <c r="H44" t="n">
-        <v>4.5</v>
+        <v>1.22</v>
       </c>
       <c r="I44" t="n">
-        <v>4.8</v>
+        <v>1.23</v>
       </c>
       <c r="J44" t="n">
-        <v>3.55</v>
+        <v>7.6</v>
       </c>
       <c r="K44" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V44" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>470</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>390</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO44" t="n">
         <v>3.65</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U44" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W44" t="n">
-        <v>2</v>
-      </c>
-      <c r="X44" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>530</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,127 +6463,127 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>1.54</v>
+        <v>2.06</v>
       </c>
       <c r="H45" t="n">
-        <v>7.2</v>
+        <v>4.4</v>
       </c>
       <c r="I45" t="n">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="J45" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="K45" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="L45" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O45" t="n">
         <v>1.32</v>
       </c>
-      <c r="M45" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N45" t="n">
-        <v>5</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.22</v>
-      </c>
       <c r="P45" t="n">
-        <v>2.38</v>
+        <v>1.93</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.68</v>
+        <v>1.99</v>
       </c>
       <c r="R45" t="n">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="S45" t="n">
-        <v>2.68</v>
+        <v>3.55</v>
       </c>
       <c r="T45" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="U45" t="n">
         <v>2.1</v>
       </c>
       <c r="V45" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="W45" t="n">
-        <v>2.84</v>
+        <v>1.94</v>
       </c>
       <c r="X45" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>530</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK45" t="n">
         <v>21</v>
       </c>
-      <c r="Y45" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL45" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AM45" t="n">
         <v>110</v>
       </c>
       <c r="AN45" t="n">
-        <v>6.6</v>
+        <v>15.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,127 +6598,127 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.94</v>
+        <v>1.54</v>
       </c>
       <c r="G46" t="n">
-        <v>3.15</v>
+        <v>1.55</v>
       </c>
       <c r="H46" t="n">
-        <v>2.62</v>
+        <v>7</v>
       </c>
       <c r="I46" t="n">
-        <v>2.7</v>
+        <v>7.2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="K46" t="n">
-        <v>3.45</v>
+        <v>4.9</v>
       </c>
       <c r="L46" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>1.82</v>
+        <v>5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="P46" t="n">
-        <v>1.78</v>
+        <v>2.38</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="R46" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="S46" t="n">
-        <v>3.7</v>
+        <v>2.72</v>
       </c>
       <c r="T46" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U46" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="V46" t="n">
-        <v>1.58</v>
+        <v>1.16</v>
       </c>
       <c r="W46" t="n">
-        <v>1.47</v>
+        <v>2.8</v>
       </c>
       <c r="X46" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC46" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z46" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD46" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AE46" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AF46" t="n">
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="AG46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>14</v>
       </c>
-      <c r="AH46" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>55</v>
-      </c>
       <c r="AK46" t="n">
-        <v>110</v>
+        <v>14.5</v>
       </c>
       <c r="AL46" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AM46" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN46" t="n">
-        <v>36</v>
+        <v>6.6</v>
       </c>
       <c r="AO46" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,67 +6733,67 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F47" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H47" t="n">
         <v>2.62</v>
       </c>
-      <c r="G47" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="H47" t="n">
-        <v>3</v>
-      </c>
       <c r="I47" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="J47" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K47" t="n">
         <v>3.45</v>
       </c>
       <c r="L47" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W47" t="n">
         <v>1.47</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N47" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U47" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W47" t="n">
-        <v>1.6</v>
       </c>
       <c r="X47" t="n">
         <v>12.5</v>
@@ -6802,51 +6802,186 @@
         <v>10.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA47" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Nottm Forest</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL48" t="n">
         <v>50</v>
       </c>
-      <c r="AB47" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK47" t="n">
+      <c r="AM48" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN48" t="n">
         <v>34</v>
       </c>
-      <c r="AL47" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO47" t="n">
+      <c r="AO48" t="n">
         <v>38</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO48"/>
+  <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Tallinna Kalev II</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Leon</t>
+          <t>Flora Tallinn II</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.58</v>
+        <v>2.76</v>
       </c>
       <c r="G2" t="n">
-        <v>1.61</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>7.4</v>
+        <v>2.12</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>6.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="P2" t="n">
-        <v>2.22</v>
+        <v>3.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.77</v>
+        <v>1.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.14</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>2.68</v>
+        <v>1.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.8</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.4</v>
+        <v>980</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AN2" t="n">
         <v>55</v>
       </c>
-      <c r="AF2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>21</v>
-      </c>
       <c r="AO2" t="n">
-        <v>100</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="G3" t="n">
-        <v>3.35</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
-        <v>2.54</v>
+        <v>6.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.62</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S3" t="n">
         <v>2.8</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.18</v>
       </c>
-      <c r="S3" t="n">
-        <v>6</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.64</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.43</v>
+        <v>2.6</v>
       </c>
       <c r="X3" t="n">
-        <v>9.4</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.8</v>
+        <v>25</v>
       </c>
       <c r="Z3" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="n">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="AN3" t="n">
-        <v>70</v>
+        <v>7.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pumas UNAM</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atletico San Luis</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>2.92</v>
       </c>
       <c r="G4" t="n">
-        <v>2.24</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>2.48</v>
       </c>
       <c r="I4" t="n">
-        <v>4.7</v>
+        <v>2.58</v>
       </c>
       <c r="J4" t="n">
-        <v>2.98</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>2.46</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>2.22</v>
+        <v>3.95</v>
       </c>
       <c r="O4" t="n">
-        <v>1.77</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.36</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.55</v>
+        <v>1.92</v>
       </c>
       <c r="R4" t="n">
-        <v>1.12</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>8</v>
+        <v>3.35</v>
       </c>
       <c r="T4" t="n">
-        <v>2.62</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>1.55</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
-        <v>1.28</v>
+        <v>1.63</v>
       </c>
       <c r="W4" t="n">
-        <v>1.76</v>
+        <v>1.48</v>
       </c>
       <c r="X4" t="n">
-        <v>6.8</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AA4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB4" t="n">
-        <v>6</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>210</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tallinna Kalev II</t>
+          <t>FC Tallinn</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Flora Tallinn II</t>
+          <t>Nomme Utd</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.32</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>2.76</v>
+        <v>19.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3</v>
+        <v>1.16</v>
       </c>
       <c r="I5" t="n">
-        <v>2.94</v>
+        <v>1.23</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>6.4</v>
+        <v>11.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>7.8</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="P5" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="R5" t="n">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="S5" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="U5" t="n">
-        <v>2.96</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>1.56</v>
+        <v>4.9</v>
       </c>
       <c r="W5" t="n">
-        <v>1.57</v>
+        <v>1.05</v>
       </c>
       <c r="X5" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>230</v>
+      </c>
+      <c r="AG5" t="n">
         <v>65</v>
       </c>
-      <c r="Y5" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>980</v>
-      </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AM5" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AO5" t="n">
-        <v>980</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>JK Welco Elekter</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Nomme Kalju II</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="G6" t="n">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="H6" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
         <v>6.4</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X6" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AO6" t="n">
         <v>55</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,108 +1328,108 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:55:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>JK Tammeka Tartu II</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Viimsi JK</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="H7" t="n">
-        <v>2.56</v>
+        <v>1.07</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>1.09</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>26</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>3.75</v>
+        <v>1.02</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>4.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.92</v>
+        <v>1.17</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>2.46</v>
       </c>
       <c r="S7" t="n">
-        <v>2.96</v>
+        <v>1.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.71</v>
+        <v>2.12</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>1.61</v>
       </c>
       <c r="V7" t="n">
-        <v>1.55</v>
+        <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AA7" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AB7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="n">
-        <v>85</v>
+        <v>960</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1438,16 +1438,16 @@
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="G8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.2</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P8" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="R8" t="n">
         <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V8" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="W8" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD8" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>980</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
         <v>50</v>
       </c>
       <c r="AL8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AO8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1615,109 +1615,109 @@
         <v>3.35</v>
       </c>
       <c r="G9" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H9" t="n">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="I9" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="J9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.25</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="W9" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD9" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>12</v>
-      </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1750,13 +1750,13 @@
         <v>1.7</v>
       </c>
       <c r="G10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J10" t="n">
         <v>3.65</v>
@@ -1771,22 +1771,22 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O10" t="n">
         <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="T10" t="n">
         <v>1.89</v>
@@ -1798,7 +1798,7 @@
         <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -1837,7 +1837,7 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK10" t="n">
         <v>20</v>
@@ -1849,7 +1849,7 @@
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,64 +1882,64 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="G11" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="I11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="V11" t="n">
         <v>1.11</v>
       </c>
       <c r="W11" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1948,43 +1948,43 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG11" t="n">
         <v>11</v>
       </c>
-      <c r="AG11" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH11" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>Levadia Tallinn II</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>HB Koge</t>
+          <t>FC Elva</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="G12" t="n">
-        <v>1.81</v>
+        <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>4.8</v>
+        <v>2.52</v>
       </c>
       <c r="I12" t="n">
-        <v>5.8</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="L12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.36</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.78</v>
-      </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.84</v>
       </c>
       <c r="V12" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="W12" t="n">
-        <v>2.24</v>
+        <v>1.68</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
         <v>130</v>
       </c>
       <c r="AB12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN12" t="n">
         <v>9.4</v>
       </c>
-      <c r="AC12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AO12" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Hvidovre</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>HB Koge</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="G13" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="H13" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="I13" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="R13" t="n">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="V13" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W13" t="n">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
         <v>50</v>
       </c>
       <c r="AA13" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>960</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF13" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>12</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16.5</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.8</v>
+        <v>9.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.2</v>
+        <v>1.62</v>
       </c>
       <c r="G14" t="n">
-        <v>3.35</v>
+        <v>1.64</v>
       </c>
       <c r="H14" t="n">
-        <v>2.3</v>
+        <v>5.7</v>
       </c>
       <c r="I14" t="n">
-        <v>2.36</v>
+        <v>5.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="R14" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="S14" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="U14" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="V14" t="n">
-        <v>1.74</v>
+        <v>1.2</v>
       </c>
       <c r="W14" t="n">
-        <v>1.43</v>
+        <v>2.56</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.5</v>
+        <v>50</v>
       </c>
       <c r="AA14" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="AB14" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK14" t="n">
         <v>15</v>
       </c>
-      <c r="AI14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>32</v>
-      </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>6.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.12</v>
+        <v>3.15</v>
       </c>
       <c r="G15" t="n">
-        <v>2.14</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>2.34</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>2.36</v>
       </c>
       <c r="J15" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="R15" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="S15" t="n">
-        <v>2.98</v>
+        <v>2.68</v>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="U15" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="V15" t="n">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="W15" t="n">
-        <v>1.87</v>
+        <v>1.45</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD15" t="n">
         <v>11</v>
       </c>
-      <c r="AC15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>15</v>
-      </c>
       <c r="AE15" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AN15" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>2.12</v>
       </c>
       <c r="G16" t="n">
-        <v>8.4</v>
+        <v>2.16</v>
       </c>
       <c r="H16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.47</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S16" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="U16" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="V16" t="n">
-        <v>3.1</v>
+        <v>1.36</v>
       </c>
       <c r="W16" t="n">
-        <v>1.13</v>
+        <v>1.86</v>
       </c>
       <c r="X16" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB16" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AC16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG16" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AH16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN16" t="n">
         <v>13.5</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AO16" t="n">
         <v>34</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>230</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>5.3</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.46</v>
+        <v>8.4</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>8.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.98</v>
+        <v>1.43</v>
       </c>
       <c r="I17" t="n">
-        <v>3.05</v>
+        <v>1.44</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>5.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>2.34</v>
+        <v>2.74</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="R17" t="n">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="S17" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="T17" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="U17" t="n">
-        <v>2.54</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.49</v>
+        <v>3.25</v>
       </c>
       <c r="W17" t="n">
-        <v>1.67</v>
+        <v>1.13</v>
       </c>
       <c r="X17" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE17" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AF17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
         <v>29</v>
       </c>
-      <c r="AF17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>36</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="AL17" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AM17" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AO17" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G18" t="n">
-        <v>6.4</v>
+        <v>2.52</v>
       </c>
       <c r="H18" t="n">
-        <v>1.67</v>
+        <v>2.94</v>
       </c>
       <c r="I18" t="n">
-        <v>1.69</v>
+        <v>2.98</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.99</v>
+        <v>1.74</v>
       </c>
       <c r="R18" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="S18" t="n">
-        <v>3.55</v>
+        <v>2.88</v>
       </c>
       <c r="T18" t="n">
-        <v>1.99</v>
+        <v>1.62</v>
       </c>
       <c r="U18" t="n">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="V18" t="n">
-        <v>2.44</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.19</v>
+        <v>1.65</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.199999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.4</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN18" t="n">
         <v>16</v>
       </c>
-      <c r="AB18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>110</v>
-      </c>
       <c r="AO18" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="G19" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H19" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.33</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.37</v>
-      </c>
       <c r="W19" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="X19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z19" t="n">
         <v>28</v>
       </c>
       <c r="AA19" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AJ19" t="n">
         <v>26</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO19" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G20" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.9</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>3.15</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>1.7</v>
+        <v>2.36</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.38</v>
+        <v>1.71</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="S20" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
-        <v>1.92</v>
+        <v>2.48</v>
       </c>
       <c r="V20" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="W20" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN20" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>26</v>
-      </c>
       <c r="AO20" t="n">
-        <v>160</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>2.12</v>
       </c>
       <c r="G21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H21" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="P21" t="n">
-        <v>2.06</v>
+        <v>1.74</v>
       </c>
       <c r="Q21" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.87</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.88</v>
-      </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Z21" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AF21" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AM21" t="n">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="AN21" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R22" t="n">
         <v>1.35</v>
       </c>
-      <c r="G22" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="H22" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="I22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.77</v>
-      </c>
       <c r="S22" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="T22" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="U22" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="V22" t="n">
-        <v>1.1</v>
+        <v>2.42</v>
       </c>
       <c r="W22" t="n">
-        <v>3.6</v>
+        <v>1.19</v>
       </c>
       <c r="X22" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>100</v>
+        <v>7.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>510</v>
+        <v>9.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>330</v>
+        <v>16</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>14.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>470</v>
+        <v>40</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="AK22" t="n">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="AL22" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AM22" t="n">
-        <v>390</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.3</v>
+        <v>110</v>
       </c>
       <c r="AO22" t="n">
-        <v>140</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="G23" t="n">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="H23" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="P23" t="n">
-        <v>2.42</v>
+        <v>2.84</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="R23" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="S23" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V23" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="W23" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="n">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="Z23" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AA23" t="n">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="AF23" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG23" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG23" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="AN23" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="H24" t="n">
-        <v>13.5</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="J24" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="K24" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="O24" t="n">
         <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="S24" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="T24" t="n">
-        <v>2.14</v>
+        <v>1.79</v>
       </c>
       <c r="U24" t="n">
-        <v>1.77</v>
+        <v>2.12</v>
       </c>
       <c r="V24" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="W24" t="n">
-        <v>4.3</v>
+        <v>2.92</v>
       </c>
       <c r="X24" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Z24" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AA24" t="n">
-        <v>760</v>
+        <v>220</v>
       </c>
       <c r="AB24" t="n">
         <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AE24" t="n">
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="AF24" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK24" t="n">
         <v>14.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AM24" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO24" t="n">
-        <v>340</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="G25" t="n">
-        <v>4.5</v>
+        <v>1.32</v>
       </c>
       <c r="H25" t="n">
-        <v>1.88</v>
+        <v>11.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.91</v>
+        <v>14</v>
       </c>
       <c r="J25" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="K25" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W25" t="n">
+        <v>4</v>
+      </c>
+      <c r="X25" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN25" t="n">
         <v>4.8</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X25" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>44</v>
-      </c>
       <c r="AO25" t="n">
-        <v>21</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="G26" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="H26" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="I26" t="n">
-        <v>2.16</v>
+        <v>1.87</v>
       </c>
       <c r="J26" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="O26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W26" t="n">
         <v>1.27</v>
       </c>
-      <c r="P26" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.34</v>
-      </c>
       <c r="X26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AG26" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ26" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL26" t="n">
         <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO26" t="n">
-        <v>55</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="H27" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="I27" t="n">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="J27" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K27" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="R27" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="S27" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="U27" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="W27" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="X27" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AB27" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AF27" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AG27" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ27" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AK27" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AL27" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN27" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AO27" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -4168,82 +4168,82 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="G28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.5</v>
       </c>
-      <c r="H28" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L28" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="P28" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="R28" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S28" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="T28" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.72</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.75</v>
       </c>
       <c r="W28" t="n">
         <v>1.4</v>
       </c>
       <c r="X28" t="n">
-        <v>30</v>
+        <v>13.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA28" t="n">
         <v>30</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC28" t="n">
         <v>8.199999999999999</v>
@@ -4252,37 +4252,37 @@
         <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF28" t="n">
         <v>25</v>
       </c>
       <c r="AG28" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK28" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN28" t="n">
         <v>44</v>
       </c>
-      <c r="AM28" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>32</v>
-      </c>
       <c r="AO28" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Shakhtar</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.76</v>
+        <v>3.45</v>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
-        <v>4.8</v>
+        <v>2.26</v>
       </c>
       <c r="I29" t="n">
-        <v>5.3</v>
+        <v>2.28</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="K29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N29" t="n">
         <v>4.2</v>
       </c>
-      <c r="L29" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O29" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P29" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R29" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="S29" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="T29" t="n">
         <v>1.72</v>
       </c>
       <c r="U29" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V29" t="n">
-        <v>1.23</v>
+        <v>1.78</v>
       </c>
       <c r="W29" t="n">
-        <v>2.24</v>
+        <v>1.39</v>
       </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="Z29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI29" t="n">
         <v>40</v>
       </c>
-      <c r="AA29" t="n">
-        <v>530</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE29" t="n">
+      <c r="AJ29" t="n">
         <v>65</v>
       </c>
-      <c r="AF29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AK29" t="n">
-        <v>17.5</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM29" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Shakhtar</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.18</v>
+        <v>1.86</v>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="J30" t="n">
         <v>3.95</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P30" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="R30" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="S30" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="T30" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="U30" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="V30" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="W30" t="n">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y30" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>530</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH30" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI30" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="AJ30" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL30" t="n">
         <v>34</v>
       </c>
       <c r="AM30" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="AN30" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>13.5</v>
+        <v>2.2</v>
       </c>
       <c r="G31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X31" t="n">
         <v>21</v>
       </c>
-      <c r="H31" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J31" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K31" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N31" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V31" t="n">
-        <v>5</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X31" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y31" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF31" t="n">
-        <v>200</v>
+        <v>15.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL31" t="n">
-        <v>470</v>
+        <v>65</v>
       </c>
       <c r="AM31" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>3.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,126 +4703,126 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.4</v>
+        <v>14</v>
       </c>
       <c r="G32" t="n">
-        <v>3.5</v>
+        <v>19.5</v>
       </c>
       <c r="H32" t="n">
-        <v>2.3</v>
+        <v>1.22</v>
       </c>
       <c r="I32" t="n">
-        <v>2.34</v>
+        <v>1.24</v>
       </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>7.4</v>
       </c>
       <c r="K32" t="n">
-        <v>3.7</v>
+        <v>8.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="M32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N32" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V32" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.06</v>
       </c>
-      <c r="N32" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X32" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA32" t="n">
-        <v>30</v>
+        <v>11.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="AE32" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="AG32" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>38</v>
+        <v>310</v>
       </c>
       <c r="AL32" t="n">
-        <v>44</v>
+        <v>470</v>
       </c>
       <c r="AM32" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AN32" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>16</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.67</v>
+        <v>3.25</v>
       </c>
       <c r="G33" t="n">
-        <v>1.68</v>
+        <v>3.35</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>2.34</v>
       </c>
       <c r="I33" t="n">
-        <v>6.2</v>
+        <v>2.36</v>
       </c>
       <c r="J33" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K33" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L33" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="R33" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="S33" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="T33" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="U33" t="n">
-        <v>2.04</v>
+        <v>2.46</v>
       </c>
       <c r="V33" t="n">
-        <v>1.19</v>
+        <v>1.73</v>
       </c>
       <c r="W33" t="n">
-        <v>2.46</v>
+        <v>1.43</v>
       </c>
       <c r="X33" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="AA33" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AE33" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="AF33" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AG33" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AI33" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AJ33" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AL33" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM33" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AN33" t="n">
-        <v>9.4</v>
+        <v>28</v>
       </c>
       <c r="AO33" t="n">
-        <v>95</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="34">
@@ -4978,109 +4978,109 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.52</v>
+        <v>1.69</v>
       </c>
       <c r="G34" t="n">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="I34" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="J34" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="K34" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P34" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="R34" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="S34" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U34" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V34" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="W34" t="n">
-        <v>2.84</v>
+        <v>2.42</v>
       </c>
       <c r="X34" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AA34" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE34" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AF34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG34" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH34" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL34" t="n">
         <v>36</v>
@@ -5089,10 +5089,10 @@
         <v>120</v>
       </c>
       <c r="AN34" t="n">
-        <v>7.2</v>
+        <v>9.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="H35" t="n">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="I35" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="J35" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="K35" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="P35" t="n">
-        <v>2.56</v>
+        <v>2.18</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="R35" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="S35" t="n">
-        <v>2.46</v>
+        <v>3.1</v>
       </c>
       <c r="T35" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="U35" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V35" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="W35" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="X35" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y35" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Z35" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AA35" t="n">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="AB35" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AE35" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AF35" t="n">
         <v>9</v>
       </c>
       <c r="AG35" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI35" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AJ35" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM35" t="n">
         <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="AO35" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.89</v>
+        <v>1.38</v>
       </c>
       <c r="G36" t="n">
-        <v>1.91</v>
+        <v>1.39</v>
       </c>
       <c r="H36" t="n">
-        <v>4.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J36" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="K36" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="P36" t="n">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="R36" t="n">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.73</v>
+        <v>1.94</v>
       </c>
       <c r="U36" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="W36" t="n">
-        <v>2.08</v>
+        <v>3.6</v>
       </c>
       <c r="X36" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="Y36" t="n">
-        <v>18.5</v>
+        <v>36</v>
       </c>
       <c r="Z36" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AA36" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI36" t="n">
         <v>110</v>
       </c>
-      <c r="AB36" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ36" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL36" t="n">
         <v>32</v>
       </c>
       <c r="AM36" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AN36" t="n">
-        <v>11</v>
+        <v>4.9</v>
       </c>
       <c r="AO36" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.1</v>
+        <v>1.88</v>
       </c>
       <c r="G37" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
-        <v>2.52</v>
+        <v>4.6</v>
       </c>
       <c r="I37" t="n">
-        <v>2.54</v>
+        <v>4.8</v>
       </c>
       <c r="J37" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="K37" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="O37" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="P37" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="R37" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="S37" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="T37" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U37" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="V37" t="n">
-        <v>1.64</v>
+        <v>1.26</v>
       </c>
       <c r="W37" t="n">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="X37" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="Y37" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AA37" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AB37" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF37" t="n">
         <v>12</v>
       </c>
-      <c r="AC37" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>21</v>
-      </c>
       <c r="AG37" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AH37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK37" t="n">
         <v>18</v>
       </c>
-      <c r="AI37" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>38</v>
-      </c>
       <c r="AL37" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AM37" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN37" t="n">
-        <v>36</v>
+        <v>11.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
@@ -5518,127 +5518,127 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.9</v>
+        <v>3.25</v>
       </c>
       <c r="G38" t="n">
-        <v>1.91</v>
+        <v>3.3</v>
       </c>
       <c r="H38" t="n">
-        <v>4.5</v>
+        <v>2.46</v>
       </c>
       <c r="I38" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="J38" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="K38" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="L38" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O38" t="n">
         <v>1.41</v>
       </c>
-      <c r="M38" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.33</v>
-      </c>
       <c r="P38" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.99</v>
+        <v>2.24</v>
       </c>
       <c r="R38" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="S38" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="U38" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="V38" t="n">
-        <v>1.27</v>
+        <v>1.66</v>
       </c>
       <c r="W38" t="n">
-        <v>2.08</v>
+        <v>1.43</v>
       </c>
       <c r="X38" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG38" t="n">
         <v>14</v>
       </c>
-      <c r="Y38" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE38" t="n">
+      <c r="AH38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>60</v>
       </c>
-      <c r="AF38" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>21</v>
-      </c>
       <c r="AK38" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AL38" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AM38" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN38" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="AO38" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,94 +5653,94 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="G39" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="H39" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I39" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="J39" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K39" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L39" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P39" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="R39" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S39" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="T39" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="U39" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V39" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W39" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="X39" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Y39" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z39" t="n">
         <v>34</v>
       </c>
       <c r="AA39" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB39" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE39" t="n">
         <v>60</v>
       </c>
       <c r="AF39" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG39" t="n">
         <v>10</v>
@@ -5749,22 +5749,22 @@
         <v>19</v>
       </c>
       <c r="AI39" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AJ39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK39" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL39" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM39" t="n">
         <v>110</v>
       </c>
       <c r="AN39" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AO39" t="n">
         <v>65</v>
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>1.94</v>
       </c>
       <c r="G40" t="n">
-        <v>7.6</v>
+        <v>1.95</v>
       </c>
       <c r="H40" t="n">
-        <v>1.59</v>
+        <v>4.3</v>
       </c>
       <c r="I40" t="n">
-        <v>1.63</v>
+        <v>4.4</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K40" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="L40" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="O40" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="P40" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.65</v>
+        <v>1.96</v>
       </c>
       <c r="R40" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="S40" t="n">
-        <v>2.62</v>
+        <v>3.45</v>
       </c>
       <c r="T40" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="U40" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W40" t="n">
         <v>2.04</v>
       </c>
-      <c r="V40" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.15</v>
-      </c>
       <c r="X40" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y40" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>530</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG40" t="n">
         <v>10</v>
       </c>
-      <c r="Z40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>25</v>
-      </c>
       <c r="AH40" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI40" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="AK40" t="n">
-        <v>210</v>
+        <v>19.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>230</v>
+        <v>36</v>
       </c>
       <c r="AM40" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN40" t="n">
-        <v>100</v>
+        <v>13.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>8.199999999999999</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41">
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.85</v>
+        <v>6.6</v>
       </c>
       <c r="G41" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="H41" t="n">
-        <v>2.02</v>
+        <v>1.55</v>
       </c>
       <c r="I41" t="n">
-        <v>2.08</v>
+        <v>1.56</v>
       </c>
       <c r="J41" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="K41" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="L41" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M41" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="O41" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="P41" t="n">
-        <v>1.98</v>
+        <v>2.22</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="R41" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="S41" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="T41" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U41" t="n">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="V41" t="n">
-        <v>1.92</v>
+        <v>2.78</v>
       </c>
       <c r="W41" t="n">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="X41" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA41" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA41" t="n">
-        <v>24</v>
-      </c>
       <c r="AB41" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AE41" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="AG41" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AH41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI41" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AJ41" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="AK41" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AL41" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="AM41" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN41" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AO41" t="n">
-        <v>55</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="42">
@@ -6058,121 +6058,121 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.23</v>
+        <v>3.9</v>
       </c>
       <c r="G42" t="n">
-        <v>1.26</v>
+        <v>4.1</v>
       </c>
       <c r="H42" t="n">
-        <v>15</v>
+        <v>2.06</v>
       </c>
       <c r="I42" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH42" t="n">
         <v>17.5</v>
       </c>
-      <c r="J42" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K42" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N42" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W42" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="X42" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>180</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>320</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>40</v>
-      </c>
       <c r="AI42" t="n">
-        <v>470</v>
+        <v>44</v>
       </c>
       <c r="AJ42" t="n">
-        <v>9.4</v>
+        <v>200</v>
       </c>
       <c r="AK42" t="n">
-        <v>14.5</v>
+        <v>46</v>
       </c>
       <c r="AL42" t="n">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AM42" t="n">
-        <v>240</v>
+        <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>4.4</v>
+        <v>44</v>
       </c>
       <c r="AO42" t="n">
-        <v>470</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -6193,121 +6193,121 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="H43" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="I43" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="J43" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="K43" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="L43" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="R43" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="S43" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="T43" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="U43" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="V43" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="W43" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Z43" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="AB43" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC43" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AF43" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG43" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI43" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="AJ43" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AK43" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM43" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="AN43" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44">
@@ -6328,121 +6328,121 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>13.5</v>
+        <v>1.2</v>
       </c>
       <c r="G44" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H44" t="n">
         <v>19</v>
       </c>
-      <c r="H44" t="n">
-        <v>1.22</v>
-      </c>
       <c r="I44" t="n">
-        <v>1.23</v>
+        <v>23</v>
       </c>
       <c r="J44" t="n">
         <v>7.6</v>
       </c>
       <c r="K44" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="L44" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M44" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O44" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P44" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="R44" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="S44" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T44" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="U44" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V44" t="n">
-        <v>5.3</v>
+        <v>1.04</v>
       </c>
       <c r="W44" t="n">
-        <v>1.05</v>
+        <v>5.6</v>
       </c>
       <c r="X44" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y44" t="n">
         <v>1000</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="Z44" t="n">
+        <v>250</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD44" t="n">
         <v>980</v>
       </c>
-      <c r="Z44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB44" t="n">
+      <c r="AE44" t="n">
         <v>1000</v>
       </c>
-      <c r="AC44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>980</v>
-      </c>
       <c r="AF44" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH44" t="n">
         <v>1000</v>
       </c>
-      <c r="AG44" t="n">
+      <c r="AI44" t="n">
+        <v>340</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL44" t="n">
         <v>1000</v>
       </c>
-      <c r="AH44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ44" t="n">
+      <c r="AM44" t="n">
+        <v>290</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO44" t="n">
         <v>1000</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>470</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>390</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>3.65</v>
       </c>
     </row>
     <row r="45">
@@ -6463,127 +6463,127 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="G45" t="n">
-        <v>2.06</v>
+        <v>14</v>
       </c>
       <c r="H45" t="n">
-        <v>4.4</v>
+        <v>1.24</v>
       </c>
       <c r="I45" t="n">
-        <v>4.7</v>
+        <v>1.26</v>
       </c>
       <c r="J45" t="n">
-        <v>3.5</v>
+        <v>7.8</v>
       </c>
       <c r="K45" t="n">
-        <v>3.6</v>
+        <v>8.6</v>
       </c>
       <c r="L45" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="M45" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="O45" t="n">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="P45" t="n">
-        <v>1.93</v>
+        <v>2.94</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.99</v>
+        <v>1.49</v>
       </c>
       <c r="R45" t="n">
-        <v>1.34</v>
+        <v>1.75</v>
       </c>
       <c r="S45" t="n">
-        <v>3.55</v>
+        <v>2.24</v>
       </c>
       <c r="T45" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="U45" t="n">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="V45" t="n">
-        <v>1.27</v>
+        <v>4.8</v>
       </c>
       <c r="W45" t="n">
-        <v>1.94</v>
+        <v>1.08</v>
       </c>
       <c r="X45" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Y45" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Z45" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI45" t="n">
         <v>34</v>
       </c>
-      <c r="AA45" t="n">
-        <v>530</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>170</v>
-      </c>
       <c r="AJ45" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="AL45" t="n">
-        <v>38</v>
+        <v>470</v>
       </c>
       <c r="AM45" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="AN45" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,127 +6598,127 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.54</v>
+        <v>2.1</v>
       </c>
       <c r="G46" t="n">
-        <v>1.55</v>
+        <v>2.12</v>
       </c>
       <c r="H46" t="n">
-        <v>7</v>
+        <v>3.95</v>
       </c>
       <c r="I46" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="J46" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="K46" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="L46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O46" t="n">
         <v>1.32</v>
       </c>
-      <c r="M46" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N46" t="n">
-        <v>5</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.23</v>
-      </c>
       <c r="P46" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="S46" t="n">
-        <v>2.72</v>
+        <v>3.55</v>
       </c>
       <c r="T46" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="U46" t="n">
         <v>2.1</v>
       </c>
       <c r="V46" t="n">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="W46" t="n">
-        <v>2.8</v>
+        <v>1.89</v>
       </c>
       <c r="X46" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AA46" t="n">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG46" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD46" t="n">
+      <c r="AH46" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>25</v>
       </c>
-      <c r="AE46" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>14</v>
-      </c>
       <c r="AK46" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AL46" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AM46" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN46" t="n">
-        <v>6.6</v>
+        <v>15.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,127 +6733,127 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="G47" t="n">
-        <v>3.15</v>
+        <v>1.56</v>
       </c>
       <c r="H47" t="n">
-        <v>2.62</v>
+        <v>6.8</v>
       </c>
       <c r="I47" t="n">
+        <v>7</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S47" t="n">
         <v>2.7</v>
       </c>
-      <c r="J47" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S47" t="n">
-        <v>3.7</v>
-      </c>
       <c r="T47" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U47" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="V47" t="n">
-        <v>1.58</v>
+        <v>1.16</v>
       </c>
       <c r="W47" t="n">
-        <v>1.47</v>
+        <v>2.78</v>
       </c>
       <c r="X47" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="Y47" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC47" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z47" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD47" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AE47" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH47" t="n">
         <v>20</v>
       </c>
-      <c r="AG47" t="n">
+      <c r="AI47" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>14</v>
       </c>
-      <c r="AH47" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>55</v>
-      </c>
       <c r="AK47" t="n">
-        <v>110</v>
+        <v>14.5</v>
       </c>
       <c r="AL47" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AM47" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN47" t="n">
-        <v>36</v>
+        <v>6.4</v>
       </c>
       <c r="AO47" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,120 +6868,255 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="G48" t="n">
-        <v>2.76</v>
+        <v>3.15</v>
       </c>
       <c r="H48" t="n">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="I48" t="n">
-        <v>2.94</v>
+        <v>2.66</v>
       </c>
       <c r="J48" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K48" t="n">
         <v>3.45</v>
       </c>
       <c r="L48" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="M48" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="O48" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="P48" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="R48" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S48" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X48" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>200</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Nottm Forest</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S49" t="n">
         <v>4.4</v>
       </c>
-      <c r="T48" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X48" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC48" t="n">
+      <c r="T49" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X49" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC49" t="n">
         <v>7.2</v>
       </c>
-      <c r="AD48" t="n">
+      <c r="AD49" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE48" t="n">
+      <c r="AE49" t="n">
         <v>38</v>
       </c>
-      <c r="AF48" t="n">
+      <c r="AF49" t="n">
         <v>16</v>
       </c>
-      <c r="AG48" t="n">
+      <c r="AG49" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH48" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI48" t="n">
+      <c r="AH49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI49" t="n">
         <v>55</v>
       </c>
-      <c r="AJ48" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK48" t="n">
+      <c r="AJ49" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK49" t="n">
         <v>34</v>
       </c>
-      <c r="AL48" t="n">
+      <c r="AL49" t="n">
         <v>50</v>
       </c>
-      <c r="AM48" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN48" t="n">
+      <c r="AM49" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN49" t="n">
         <v>34</v>
       </c>
-      <c r="AO48" t="n">
+      <c r="AO49" t="n">
         <v>38</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO49"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,118 +667,118 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.76</v>
+        <v>6.8</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>9.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.12</v>
+        <v>1.43</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>1.48</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.09</v>
       </c>
       <c r="P2" t="n">
-        <v>3.85</v>
+        <v>1.29</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="R2" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="S2" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="T2" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>3.05</v>
       </c>
       <c r="W2" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="X2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AG2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>3.05</v>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>6.2</v>
+        <v>2.42</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6</v>
+        <v>2.46</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>2.36</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>55</v>
       </c>
-      <c r="AA3" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
-        <v>95</v>
+        <v>390</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.4</v>
+        <v>50</v>
       </c>
       <c r="AO3" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:55:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>FC Tallinn</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Nomme Utd</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.92</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>38</v>
       </c>
       <c r="H4" t="n">
-        <v>2.48</v>
+        <v>1.11</v>
       </c>
       <c r="I4" t="n">
-        <v>2.58</v>
+        <v>1.16</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>14</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3.95</v>
+        <v>9.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>4.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.19</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>2.56</v>
       </c>
       <c r="S4" t="n">
-        <v>3.35</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.63</v>
+        <v>7.2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.48</v>
+        <v>1.02</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>960</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>120</v>
+        <v>13.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
-        <v>85</v>
+        <v>17.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>60</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="AN4" t="n">
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="5">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FC Tallinn</t>
+          <t>JK Welco Elekter</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nomme Utd</t>
+          <t>Nomme Kalju II</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8.199999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="G5" t="n">
-        <v>19.5</v>
+        <v>1.56</v>
       </c>
       <c r="H5" t="n">
-        <v>1.16</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.23</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="P5" t="n">
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="R5" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="T5" t="n">
-        <v>1.69</v>
+        <v>1.42</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2.74</v>
       </c>
       <c r="V5" t="n">
-        <v>4.9</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
-        <v>1.05</v>
+        <v>2.72</v>
       </c>
       <c r="X5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AH5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
+        <v>190</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL5" t="n">
         <v>1000</v>
       </c>
-      <c r="AK5" t="n">
-        <v>230</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>150</v>
-      </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>180</v>
+        <v>5.9</v>
       </c>
       <c r="AO5" t="n">
-        <v>2.58</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1198,91 +1198,91 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>JK Welco Elekter</t>
+          <t>JK Tammeka Tartu II</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nomme Kalju II</t>
+          <t>Viimsi JK</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.36</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>1.49</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>5.9</v>
+        <v>1.06</v>
       </c>
       <c r="I6" t="n">
-        <v>8.800000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>7.8</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.02</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="P6" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="R6" t="n">
-        <v>2.06</v>
+        <v>2.82</v>
       </c>
       <c r="S6" t="n">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="T6" t="n">
-        <v>1.48</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>2.48</v>
+        <v>1.54</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
@@ -1291,10 +1291,10 @@
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1309,16 +1309,16 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Estonian Esiliiga</t>
+          <t>Finnish Ykkosliiga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>JK Tammeka Tartu II</t>
+          <t>OLS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Viimsi JK</t>
+          <t>KaPa</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>2.16</v>
       </c>
       <c r="G7" t="n">
-        <v>110</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
-        <v>1.07</v>
+        <v>2.92</v>
       </c>
       <c r="I7" t="n">
-        <v>1.09</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>26</v>
+        <v>4.7</v>
       </c>
       <c r="L7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.13</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.05</v>
-      </c>
       <c r="P7" t="n">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="R7" t="n">
-        <v>2.46</v>
+        <v>1.86</v>
       </c>
       <c r="S7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.45</v>
       </c>
-      <c r="T7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V7" t="n">
-        <v>10</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y7" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
         <v>29</v>
       </c>
-      <c r="Z7" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>960</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>2</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.45</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
         <v>3.35</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.05</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="U8" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI8" t="n">
         <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>70</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="G9" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="n">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
         <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="W9" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="X9" t="n">
         <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
         <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
         <v>48</v>
       </c>
       <c r="AJ9" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AK9" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
         <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -1747,64 +1747,64 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="I10" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="W10" t="n">
-        <v>2.22</v>
+        <v>2.68</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.5</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,43 +1813,43 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="AE10" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,76 +1882,76 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R11" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="V11" t="n">
         <v>1.11</v>
       </c>
       <c r="W11" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
         <v>75</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
         <v>85</v>
@@ -1960,31 +1960,31 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="G12" t="n">
-        <v>2.48</v>
+        <v>1.93</v>
       </c>
       <c r="H12" t="n">
-        <v>2.52</v>
+        <v>3.55</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="J12" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="K12" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>1.02</v>
+        <v>6.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S12" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="U12" t="n">
-        <v>2.84</v>
+        <v>2.54</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.68</v>
+        <v>2.04</v>
       </c>
       <c r="X12" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AB12" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="n">
-        <v>28</v>
+        <v>17.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
         <v>15.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL12" t="n">
         <v>24</v>
       </c>
-      <c r="AL12" t="n">
-        <v>25</v>
-      </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO12" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -2152,58 +2152,58 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="G13" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I13" t="n">
         <v>5.1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.6</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="V13" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="X13" t="n">
         <v>20</v>
@@ -2212,52 +2212,52 @@
         <v>21</v>
       </c>
       <c r="Z13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AB13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG13" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>960</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10</v>
-      </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AM13" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO13" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="G14" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="H14" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="J14" t="n">
         <v>4.7</v>
@@ -2311,61 +2311,61 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q14" t="n">
         <v>1.59</v>
       </c>
       <c r="R14" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S14" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U14" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W14" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="X14" t="n">
         <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB14" t="n">
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE14" t="n">
         <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -2377,22 +2377,22 @@
         <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
         <v>27</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="I15" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="J15" t="n">
         <v>3.85</v>
@@ -2440,7 +2440,7 @@
         <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2455,40 +2455,40 @@
         <v>2.44</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R15" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S15" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T15" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V15" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="W15" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC15" t="n">
         <v>8.800000000000001</v>
@@ -2497,22 +2497,22 @@
         <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="n">
         <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK15" t="n">
         <v>32</v>
@@ -2521,13 +2521,13 @@
         <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G16" t="n">
         <v>2.16</v>
       </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
         <v>3.75</v>
@@ -2575,7 +2575,7 @@
         <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -2599,7 +2599,7 @@
         <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
         <v>2.32</v>
@@ -2611,7 +2611,7 @@
         <v>1.86</v>
       </c>
       <c r="X16" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="n">
         <v>16</v>
@@ -2620,19 +2620,19 @@
         <v>27</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
         <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
@@ -2650,7 +2650,7 @@
         <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>32</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="I17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="J17" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="K17" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.28</v>
@@ -2722,46 +2722,46 @@
         <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R17" t="n">
         <v>1.7</v>
       </c>
       <c r="S17" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V17" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W17" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC17" t="n">
         <v>13</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>12</v>
       </c>
       <c r="AD17" t="n">
         <v>10</v>
@@ -2770,34 +2770,34 @@
         <v>13.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AG17" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ17" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AK17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM17" t="n">
         <v>100</v>
       </c>
-      <c r="AL17" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>95</v>
-      </c>
       <c r="AN17" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AO17" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G18" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="H18" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="I18" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="J18" t="n">
         <v>3.75</v>
@@ -2851,16 +2851,16 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="R18" t="n">
         <v>1.51</v>
@@ -2869,70 +2869,70 @@
         <v>2.88</v>
       </c>
       <c r="T18" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.62</v>
       </c>
-      <c r="U18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.65</v>
-      </c>
       <c r="X18" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
         <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF18" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG18" t="n">
         <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
         <v>36</v>
       </c>
       <c r="AJ18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL18" t="n">
         <v>34</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>32</v>
       </c>
       <c r="AM18" t="n">
         <v>65</v>
       </c>
       <c r="AN18" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.06</v>
+        <v>6.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.08</v>
+        <v>6.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>1.69</v>
       </c>
       <c r="I19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J19" t="n">
         <v>4</v>
       </c>
-      <c r="J19" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="P19" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="R19" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="S19" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.77</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>2.44</v>
       </c>
       <c r="W19" t="n">
-        <v>1.92</v>
+        <v>1.18</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AA19" t="n">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="AB19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD19" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AE19" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.5</v>
+        <v>48</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="n">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="AK19" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AM19" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="AO19" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L20" t="n">
         <v>1.34</v>
@@ -3121,76 +3121,76 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P20" t="n">
         <v>2.36</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R20" t="n">
         <v>1.54</v>
       </c>
       <c r="S20" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="T20" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U20" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V20" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W20" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="X20" t="n">
         <v>19</v>
       </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD20" t="n">
         <v>14</v>
       </c>
       <c r="AE20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI20" t="n">
         <v>36</v>
       </c>
-      <c r="AF20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>40</v>
-      </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -3199,10 +3199,10 @@
         <v>65</v>
       </c>
       <c r="AN20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO20" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="G21" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J21" t="n">
         <v>3.5</v>
@@ -3250,19 +3250,19 @@
         <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P21" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q21" t="n">
         <v>2.28</v>
@@ -3274,37 +3274,37 @@
         <v>4.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U21" t="n">
         <v>1.94</v>
       </c>
       <c r="V21" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W21" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA21" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC21" t="n">
         <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE21" t="n">
         <v>65</v>
@@ -3325,19 +3325,19 @@
         <v>29</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>48</v>
       </c>
       <c r="AM21" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="AN21" t="n">
         <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.9</v>
+        <v>1.98</v>
       </c>
       <c r="G22" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>1.69</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="P22" t="n">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="R22" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="S22" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="T22" t="n">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="U22" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="V22" t="n">
-        <v>2.42</v>
+        <v>1.3</v>
       </c>
       <c r="W22" t="n">
-        <v>1.19</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.8</v>
+        <v>17.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>9.4</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
         <v>16</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AI22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK22" t="n">
         <v>18.5</v>
       </c>
-      <c r="AC22" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>90</v>
-      </c>
       <c r="AL22" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.35</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.36</v>
-      </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I23" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K23" t="n">
         <v>6.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P23" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="R23" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="S23" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="T23" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="U23" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V23" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W23" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X23" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="Y23" t="n">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="Z23" t="n">
         <v>110</v>
       </c>
       <c r="AA23" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AD23" t="n">
         <v>38</v>
@@ -3580,34 +3580,34 @@
         <v>140</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ23" t="n">
         <v>11.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO23" t="n">
         <v>1000</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>390</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -3637,85 +3637,85 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.49</v>
       </c>
-      <c r="G24" t="n">
-        <v>1.52</v>
-      </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I24" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J24" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>2.42</v>
+        <v>2.84</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="R24" t="n">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="S24" t="n">
-        <v>2.66</v>
+        <v>2.28</v>
       </c>
       <c r="T24" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="U24" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="V24" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W24" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="X24" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y24" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Z24" t="n">
         <v>70</v>
       </c>
       <c r="AA24" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB24" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF24" t="n">
         <v>11</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>460</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>9.800000000000001</v>
       </c>
       <c r="AG24" t="n">
         <v>9.800000000000001</v>
@@ -3724,25 +3724,25 @@
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>360</v>
+        <v>70</v>
       </c>
       <c r="AJ24" t="n">
         <v>14.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="AN24" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="AO24" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
@@ -3772,100 +3772,100 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="G25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L25" t="n">
         <v>1.32</v>
       </c>
-      <c r="H25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14</v>
-      </c>
-      <c r="J25" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.31</v>
-      </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="R25" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="S25" t="n">
-        <v>2.54</v>
+        <v>2.7</v>
       </c>
       <c r="T25" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U25" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="V25" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W25" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="X25" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="Y25" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="Z25" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AE25" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
       </c>
       <c r="AG25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>11</v>
       </c>
-      <c r="AH25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AK25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
         <v>38</v>
@@ -3874,10 +3874,10 @@
         <v>170</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="AO25" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G26" t="n">
         <v>4.6</v>
       </c>
-      <c r="G26" t="n">
-        <v>4.8</v>
-      </c>
       <c r="H26" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="I26" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -3934,85 +3934,85 @@
         <v>4.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P26" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q26" t="n">
         <v>1.72</v>
       </c>
       <c r="R26" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S26" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T26" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U26" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V26" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="W26" t="n">
         <v>1.27</v>
       </c>
       <c r="X26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB26" t="n">
         <v>20</v>
       </c>
-      <c r="Y26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>44</v>
-      </c>
       <c r="AC26" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG26" t="n">
         <v>17.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ26" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AL26" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AM26" t="n">
         <v>80</v>
       </c>
       <c r="AN26" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO26" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="27">
@@ -4042,112 +4042,112 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="G27" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="H27" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="I27" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="J27" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="R27" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S27" t="n">
         <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="U27" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V27" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="W27" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="X27" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Y27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG27" t="n">
         <v>22</v>
       </c>
-      <c r="AB27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AH27" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
         <v>34</v>
       </c>
       <c r="AJ27" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK27" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM27" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN27" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AO27" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="G28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J28" t="n">
         <v>3.4</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.45</v>
       </c>
       <c r="K28" t="n">
         <v>3.5</v>
@@ -4201,19 +4201,19 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R28" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S28" t="n">
         <v>3.85</v>
@@ -4222,40 +4222,40 @@
         <v>1.84</v>
       </c>
       <c r="U28" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V28" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="W28" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X28" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG28" t="n">
         <v>15</v>
@@ -4264,25 +4264,25 @@
         <v>18.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ28" t="n">
         <v>70</v>
       </c>
       <c r="AK28" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="n">
         <v>110</v>
       </c>
       <c r="AN28" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -4315,79 +4315,79 @@
         <v>3.45</v>
       </c>
       <c r="G29" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.6</v>
       </c>
-      <c r="H29" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="R29" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S29" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="U29" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="V29" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="W29" t="n">
         <v>1.39</v>
       </c>
       <c r="X29" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD29" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>11</v>
-      </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF29" t="n">
         <v>25</v>
@@ -4396,7 +4396,7 @@
         <v>14.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI29" t="n">
         <v>40</v>
@@ -4405,19 +4405,19 @@
         <v>65</v>
       </c>
       <c r="AK29" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AL29" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AN29" t="n">
         <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -4447,112 +4447,112 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="G30" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I30" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J30" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L30" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="O30" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>2.16</v>
+        <v>1.89</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="S30" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="U30" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="V30" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W30" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X30" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Z30" t="n">
         <v>36</v>
       </c>
       <c r="AA30" t="n">
-        <v>530</v>
+        <v>120</v>
       </c>
       <c r="AB30" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF30" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG30" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH30" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM30" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="AN30" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -4597,10 +4597,10 @@
         <v>3.85</v>
       </c>
       <c r="K31" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M31" t="n">
         <v>1.05</v>
@@ -4609,22 +4609,22 @@
         <v>5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P31" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q31" t="n">
         <v>1.7</v>
       </c>
       <c r="R31" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S31" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T31" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U31" t="n">
         <v>2.46</v>
@@ -4636,7 +4636,7 @@
         <v>1.81</v>
       </c>
       <c r="X31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="n">
         <v>17.5</v>
@@ -4645,19 +4645,19 @@
         <v>28</v>
       </c>
       <c r="AA31" t="n">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="AB31" t="n">
         <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD31" t="n">
         <v>15</v>
       </c>
       <c r="AE31" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="n">
         <v>15.5</v>
@@ -4666,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI31" t="n">
         <v>40</v>
@@ -4678,10 +4678,10 @@
         <v>21</v>
       </c>
       <c r="AL31" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AM31" t="n">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="AN31" t="n">
         <v>12.5</v>
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="H32" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="I32" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="J32" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K32" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M32" t="n">
         <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P32" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="R32" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="S32" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="T32" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U32" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="V32" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="W32" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z32" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AD32" t="n">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AG32" t="n">
         <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AK32" t="n">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="AL32" t="n">
         <v>470</v>
       </c>
       <c r="AM32" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="33">
@@ -4858,16 +4858,16 @@
         <v>3.35</v>
       </c>
       <c r="H33" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J33" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
         <v>1.35</v>
@@ -4876,40 +4876,40 @@
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P33" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="R33" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S33" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="T33" t="n">
         <v>1.64</v>
       </c>
       <c r="U33" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V33" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W33" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X33" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z33" t="n">
         <v>16</v>
@@ -4918,19 +4918,19 @@
         <v>30</v>
       </c>
       <c r="AB33" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE33" t="n">
         <v>22</v>
       </c>
       <c r="AF33" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG33" t="n">
         <v>14</v>
@@ -4939,25 +4939,25 @@
         <v>15</v>
       </c>
       <c r="AI33" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK33" t="n">
         <v>32</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>34</v>
-      </c>
       <c r="AL33" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN33" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AO33" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="34">
@@ -4987,85 +4987,85 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="H34" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="I34" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="J34" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K34" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P34" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="R34" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="S34" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="T34" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U34" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V34" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W34" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="X34" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z34" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA34" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF34" t="n">
         <v>9</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>10</v>
       </c>
       <c r="AG34" t="n">
         <v>9.6</v>
@@ -5074,13 +5074,13 @@
         <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ34" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL34" t="n">
         <v>36</v>
@@ -5089,10 +5089,10 @@
         <v>120</v>
       </c>
       <c r="AN34" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AO34" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
@@ -5122,112 +5122,112 @@
         </is>
       </c>
       <c r="F35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G35" t="n">
         <v>1.54</v>
       </c>
-      <c r="G35" t="n">
-        <v>1.55</v>
-      </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I35" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="J35" t="n">
         <v>4.6</v>
       </c>
       <c r="K35" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O35" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P35" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="R35" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S35" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T35" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U35" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V35" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W35" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X35" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y35" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z35" t="n">
         <v>60</v>
       </c>
       <c r="AA35" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC35" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD35" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE35" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF35" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AG35" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH35" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI35" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK35" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN35" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AO35" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36">
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="G36" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="H36" t="n">
         <v>9.800000000000001</v>
@@ -5269,10 +5269,10 @@
         <v>10</v>
       </c>
       <c r="J36" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="K36" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L36" t="n">
         <v>1.29</v>
@@ -5281,7 +5281,7 @@
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O36" t="n">
         <v>1.19</v>
@@ -5296,64 +5296,64 @@
         <v>1.63</v>
       </c>
       <c r="S36" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T36" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V36" t="n">
         <v>1.11</v>
       </c>
       <c r="W36" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="X36" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y36" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AA36" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AB36" t="n">
         <v>10.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD36" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE36" t="n">
         <v>140</v>
       </c>
       <c r="AF36" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG36" t="n">
         <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI36" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ36" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK36" t="n">
         <v>13.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM36" t="n">
         <v>130</v>
@@ -5362,7 +5362,7 @@
         <v>4.9</v>
       </c>
       <c r="AO36" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37">
@@ -5392,112 +5392,112 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="H37" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="I37" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="J37" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L37" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M37" t="n">
         <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P37" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="R37" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S37" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U37" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V37" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="W37" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="X37" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y37" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Z37" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AA37" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD37" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE37" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG37" t="n">
         <v>10</v>
       </c>
       <c r="AH37" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK37" t="n">
         <v>17</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>18</v>
       </c>
       <c r="AL37" t="n">
         <v>32</v>
       </c>
       <c r="AM37" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN37" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO37" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -5530,10 +5530,10 @@
         <v>3.25</v>
       </c>
       <c r="G38" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H38" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I38" t="n">
         <v>2.5</v>
@@ -5545,19 +5545,19 @@
         <v>3.45</v>
       </c>
       <c r="L38" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M38" t="n">
         <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O38" t="n">
         <v>1.41</v>
       </c>
       <c r="P38" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q38" t="n">
         <v>2.24</v>
@@ -5569,10 +5569,10 @@
         <v>4.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U38" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V38" t="n">
         <v>1.66</v>
@@ -5593,7 +5593,7 @@
         <v>36</v>
       </c>
       <c r="AB38" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC38" t="n">
         <v>7.4</v>
@@ -5602,7 +5602,7 @@
         <v>11.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF38" t="n">
         <v>21</v>
@@ -5614,16 +5614,16 @@
         <v>19</v>
       </c>
       <c r="AI38" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ38" t="n">
         <v>60</v>
       </c>
       <c r="AK38" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM38" t="n">
         <v>120</v>
@@ -5632,7 +5632,7 @@
         <v>44</v>
       </c>
       <c r="AO38" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
@@ -5653,127 +5653,127 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.9</v>
+        <v>1.54</v>
       </c>
       <c r="G39" t="n">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="H39" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J39" t="n">
         <v>4.6</v>
       </c>
-      <c r="I39" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K39" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="L39" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="M39" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="O39" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="P39" t="n">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.99</v>
+        <v>1.67</v>
       </c>
       <c r="R39" t="n">
-        <v>1.37</v>
+        <v>1.56</v>
       </c>
       <c r="S39" t="n">
-        <v>3.55</v>
+        <v>2.72</v>
       </c>
       <c r="T39" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="U39" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="V39" t="n">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="W39" t="n">
-        <v>2.08</v>
+        <v>2.8</v>
       </c>
       <c r="X39" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>14</v>
       </c>
-      <c r="Y39" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>21</v>
-      </c>
       <c r="AK39" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AL39" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AM39" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN39" t="n">
-        <v>13</v>
+        <v>6.6</v>
       </c>
       <c r="AO39" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="G40" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="H40" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I40" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="J40" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K40" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="R40" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="S40" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="T40" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="U40" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="V40" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W40" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="X40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA40" t="n">
-        <v>530</v>
+        <v>100</v>
       </c>
       <c r="AB40" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC40" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD40" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE40" t="n">
         <v>60</v>
       </c>
       <c r="AF40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN40" t="n">
         <v>12</v>
       </c>
-      <c r="AG40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AO40" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Hamrun Spartans FC</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>6.6</v>
+        <v>1.95</v>
       </c>
       <c r="G41" t="n">
-        <v>7.4</v>
+        <v>1.98</v>
       </c>
       <c r="H41" t="n">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="I41" t="n">
-        <v>1.56</v>
+        <v>4.4</v>
       </c>
       <c r="J41" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="K41" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="L41" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="O41" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="P41" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="R41" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="S41" t="n">
-        <v>2.96</v>
+        <v>3.45</v>
       </c>
       <c r="T41" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U41" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="V41" t="n">
-        <v>2.78</v>
+        <v>1.29</v>
       </c>
       <c r="W41" t="n">
-        <v>1.15</v>
+        <v>2.02</v>
       </c>
       <c r="X41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL41" t="n">
         <v>36</v>
       </c>
-      <c r="Y41" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK41" t="n">
+      <c r="AM41" t="n">
         <v>110</v>
       </c>
-      <c r="AL41" t="n">
-        <v>230</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>120</v>
-      </c>
       <c r="AN41" t="n">
-        <v>100</v>
+        <v>13.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>7.6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
@@ -6058,70 +6058,70 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Hamrun Spartans FC</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="G42" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="H42" t="n">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
       <c r="I42" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="J42" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="L42" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="P42" t="n">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="R42" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="S42" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="T42" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="U42" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V42" t="n">
-        <v>1.92</v>
+        <v>2.42</v>
       </c>
       <c r="W42" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="X42" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="Y42" t="n">
         <v>10.5</v>
@@ -6130,49 +6130,49 @@
         <v>13</v>
       </c>
       <c r="AA42" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB42" t="n">
         <v>24</v>
       </c>
-      <c r="AB42" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AC42" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD42" t="n">
         <v>10.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AG42" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AH42" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AJ42" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AL42" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AM42" t="n">
-        <v>580</v>
+        <v>90</v>
       </c>
       <c r="AN42" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AO42" t="n">
-        <v>14</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="43">
@@ -6193,121 +6193,121 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.24</v>
+        <v>3.5</v>
       </c>
       <c r="G43" t="n">
-        <v>1.26</v>
+        <v>3.65</v>
       </c>
       <c r="H43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X43" t="n">
         <v>15.5</v>
       </c>
-      <c r="I43" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K43" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N43" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W43" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="X43" t="n">
-        <v>26</v>
-      </c>
       <c r="Y43" t="n">
-        <v>50</v>
+        <v>10.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>180</v>
+        <v>14.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>850</v>
+        <v>27</v>
       </c>
       <c r="AB43" t="n">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>16.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="AE43" t="n">
-        <v>320</v>
+        <v>23</v>
       </c>
       <c r="AF43" t="n">
-        <v>7.6</v>
+        <v>48</v>
       </c>
       <c r="AG43" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AI43" t="n">
-        <v>290</v>
+        <v>42</v>
       </c>
       <c r="AJ43" t="n">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="AK43" t="n">
-        <v>14.5</v>
+        <v>42</v>
       </c>
       <c r="AL43" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="AM43" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.5</v>
+        <v>36</v>
       </c>
       <c r="AO43" t="n">
-        <v>410</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="44">
@@ -6328,121 +6328,121 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="G44" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="H44" t="n">
+        <v>15</v>
+      </c>
+      <c r="I44" t="n">
         <v>19</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
+        <v>7</v>
+      </c>
+      <c r="K44" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N44" t="n">
+        <v>5</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W44" t="n">
+        <v>5</v>
+      </c>
+      <c r="X44" t="n">
         <v>23</v>
       </c>
-      <c r="J44" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K44" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N44" t="n">
-        <v>6</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W44" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X44" t="n">
+      <c r="Y44" t="n">
         <v>55</v>
       </c>
-      <c r="Y44" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z44" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AA44" t="n">
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>450</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG44" t="n">
         <v>11</v>
       </c>
-      <c r="AC44" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>12</v>
-      </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AJ44" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK44" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM44" t="n">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>740</v>
       </c>
     </row>
     <row r="45">
@@ -6463,121 +6463,121 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>12.5</v>
+        <v>1.19</v>
       </c>
       <c r="G45" t="n">
-        <v>14</v>
+        <v>1.21</v>
       </c>
       <c r="H45" t="n">
-        <v>1.24</v>
+        <v>17</v>
       </c>
       <c r="I45" t="n">
-        <v>1.26</v>
+        <v>20</v>
       </c>
       <c r="J45" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L45" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O45" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="R45" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="S45" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="T45" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="U45" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="V45" t="n">
-        <v>4.8</v>
+        <v>1.05</v>
       </c>
       <c r="W45" t="n">
-        <v>1.08</v>
+        <v>5.7</v>
       </c>
       <c r="X45" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>220</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD45" t="n">
         <v>980</v>
       </c>
-      <c r="Z45" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>70</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>11</v>
-      </c>
       <c r="AE45" t="n">
-        <v>14.5</v>
+        <v>410</v>
       </c>
       <c r="AF45" t="n">
-        <v>160</v>
+        <v>7.6</v>
       </c>
       <c r="AG45" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AH45" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI45" t="n">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="AJ45" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL45" t="n">
         <v>1000</v>
       </c>
-      <c r="AK45" t="n">
-        <v>230</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>470</v>
-      </c>
       <c r="AM45" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="AN45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO45" t="n">
         <v>1000</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -6598,127 +6598,127 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Lincoln Red Imps</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>2.12</v>
+        <v>12</v>
       </c>
       <c r="H46" t="n">
-        <v>3.95</v>
+        <v>1.26</v>
       </c>
       <c r="I46" t="n">
-        <v>4.1</v>
+        <v>1.27</v>
       </c>
       <c r="J46" t="n">
-        <v>3.55</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>3.6</v>
+        <v>8.6</v>
       </c>
       <c r="L46" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N46" t="n">
-        <v>3.85</v>
+        <v>6.4</v>
       </c>
       <c r="O46" t="n">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="P46" t="n">
-        <v>1.98</v>
+        <v>2.9</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>1.49</v>
       </c>
       <c r="R46" t="n">
-        <v>1.36</v>
+        <v>1.75</v>
       </c>
       <c r="S46" t="n">
-        <v>3.55</v>
+        <v>2.26</v>
       </c>
       <c r="T46" t="n">
-        <v>1.78</v>
+        <v>1.97</v>
       </c>
       <c r="U46" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V46" t="n">
-        <v>1.32</v>
+        <v>4.7</v>
       </c>
       <c r="W46" t="n">
-        <v>1.89</v>
+        <v>1.09</v>
       </c>
       <c r="X46" t="n">
-        <v>13.5</v>
+        <v>42</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="Z46" t="n">
-        <v>30</v>
+        <v>9.4</v>
       </c>
       <c r="AA46" t="n">
-        <v>85</v>
+        <v>10.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.6</v>
+        <v>150</v>
       </c>
       <c r="AC46" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AD46" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AE46" t="n">
-        <v>55</v>
+        <v>14.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="AG46" t="n">
-        <v>10.5</v>
+        <v>120</v>
       </c>
       <c r="AH46" t="n">
-        <v>18.5</v>
+        <v>36</v>
       </c>
       <c r="AI46" t="n">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="AJ46" t="n">
-        <v>25</v>
+        <v>600</v>
       </c>
       <c r="AK46" t="n">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="AL46" t="n">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="AM46" t="n">
-        <v>110</v>
+        <v>390</v>
       </c>
       <c r="AN46" t="n">
-        <v>15.5</v>
+        <v>180</v>
       </c>
       <c r="AO46" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,127 +6733,127 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Dynamo Kiev</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.55</v>
+        <v>2.08</v>
       </c>
       <c r="G47" t="n">
-        <v>1.56</v>
+        <v>2.12</v>
       </c>
       <c r="H47" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="J47" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="K47" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="L47" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O47" t="n">
         <v>1.34</v>
       </c>
-      <c r="M47" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N47" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.22</v>
-      </c>
       <c r="P47" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="S47" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="T47" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="U47" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V47" t="n">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="W47" t="n">
-        <v>2.78</v>
+        <v>1.9</v>
       </c>
       <c r="X47" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="Z47" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI47" t="n">
         <v>60</v>
       </c>
-      <c r="AA47" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD47" t="n">
+      <c r="AJ47" t="n">
         <v>25</v>
       </c>
-      <c r="AE47" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>14</v>
-      </c>
       <c r="AK47" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="AL47" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AM47" t="n">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="AN47" t="n">
-        <v>6.4</v>
+        <v>16</v>
       </c>
       <c r="AO47" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,127 +6868,127 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.05</v>
+        <v>1.5</v>
       </c>
       <c r="G48" t="n">
-        <v>3.15</v>
+        <v>1.52</v>
       </c>
       <c r="H48" t="n">
-        <v>2.62</v>
+        <v>7</v>
       </c>
       <c r="I48" t="n">
-        <v>2.66</v>
+        <v>7.2</v>
       </c>
       <c r="J48" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>3.45</v>
+        <v>5.2</v>
       </c>
       <c r="L48" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="M48" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>3.55</v>
+        <v>5.8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="P48" t="n">
-        <v>1.84</v>
+        <v>2.6</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.1</v>
+        <v>1.59</v>
       </c>
       <c r="R48" t="n">
-        <v>1.31</v>
+        <v>1.64</v>
       </c>
       <c r="S48" t="n">
-        <v>3.85</v>
+        <v>2.48</v>
       </c>
       <c r="T48" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U48" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="V48" t="n">
-        <v>1.6</v>
+        <v>1.16</v>
       </c>
       <c r="W48" t="n">
-        <v>1.47</v>
+        <v>2.92</v>
       </c>
       <c r="X48" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Y48" t="n">
-        <v>10.5</v>
+        <v>30</v>
       </c>
       <c r="Z48" t="n">
-        <v>16.5</v>
+        <v>65</v>
       </c>
       <c r="AA48" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="AB48" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="AD48" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE48" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AF48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH48" t="n">
         <v>20</v>
       </c>
-      <c r="AG48" t="n">
+      <c r="AI48" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK48" t="n">
         <v>14</v>
       </c>
-      <c r="AH48" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>110</v>
-      </c>
       <c r="AL48" t="n">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="AM48" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN48" t="n">
-        <v>36</v>
+        <v>5.7</v>
       </c>
       <c r="AO48" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,120 +7003,255 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="G49" t="n">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2.58</v>
       </c>
       <c r="I49" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="J49" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K49" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L49" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M49" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O49" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="P49" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="R49" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S49" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="T49" t="n">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="U49" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V49" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="W49" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="X49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y49" t="n">
         <v>10</v>
       </c>
       <c r="Z49" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH49" t="n">
         <v>18</v>
       </c>
-      <c r="AA49" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB49" t="n">
+      <c r="AI49" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Nottm Forest</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X50" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB50" t="n">
         <v>9.4</v>
       </c>
-      <c r="AC49" t="n">
+      <c r="AC50" t="n">
         <v>7.2</v>
       </c>
-      <c r="AD49" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG49" t="n">
+      <c r="AD50" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG50" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH49" t="n">
+      <c r="AH50" t="n">
         <v>19</v>
       </c>
-      <c r="AI49" t="n">
+      <c r="AI50" t="n">
         <v>55</v>
       </c>
-      <c r="AJ49" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK49" t="n">
+      <c r="AJ50" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK50" t="n">
         <v>34</v>
       </c>
-      <c r="AL49" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM49" t="n">
+      <c r="AL50" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM50" t="n">
         <v>120</v>
       </c>
-      <c r="AN49" t="n">
+      <c r="AN50" t="n">
         <v>34</v>
       </c>
-      <c r="AO49" t="n">
+      <c r="AO50" t="n">
         <v>38</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,546 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Saudi Professional League</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-10-23</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Al-Feiha</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Al-Taawoun Buraidah</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Danish 1st Division</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-10-23</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>13:30:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Hvidovre</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HB Koge</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H3" t="n">
-        <v>40</v>
-      </c>
-      <c r="I3" t="n">
-        <v>50</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UEFA Europa Conference League</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-10-23</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13:45:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Rijeka</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Sparta Prague</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Saudi Professional League</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-10-23</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Al Najma Club</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Al Ahli</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K5" t="n">
-        <v>750</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X5" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
